--- a/2021년/PLAN.xlsx
+++ b/2021년/PLAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swan3\Desktop\plan\2021년\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EC4359-001D-4106-8903-E6BFC938BC1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6E056-1CA5-47B9-A39B-E2CF8783CC3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" tabRatio="570" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="하루일정" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="458">
   <si>
     <t>일</t>
   </si>
@@ -6163,23 +6163,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 구매 요청 // 완
-  1.1 경진제어 (\16,500(총\15,000 + 부가세\1,500))
-    1.1.1 HR110-2PL-24V 5EA (각 \1,900)
-    1.1.2 KA-KLY2(릴레이 소켓) 5EA (각 \1,100)
-  1.2 옥션 (\140,500(총\138,000 + 배송비\2,500))
-    1.2.1 비닐개폐기 (25mm 사이버캅 1 (81022) 2EA (각 \69,000 + 배송비 \2,500)
-2. AC 릴레이 온오프 테스트 // 진행중
-  2.1 18:40 - 00:00 (10초on, 10초off)
-3. 모드버스 구현 // 완
-  3.1 slave address적용하여 address가 다른 패킷이 들어오면 동작하지 않도록 구현
-  3.2 예외처리
-    3.2.1 동시에 2개의 릴레이가 켜질 수 없도록 처리
-    3.2.2. DC보드의 정역제어 시 정역제어담당릴레이(채널11, 채널12)가 동시에 켜질
-            수 없도록 예외처리 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 구매 // 완
 2. 정역제어
   2.1 배선 및 단자대 출력 테스터기로 측정하여 +,- 반전되는지 까지만 확인
@@ -6380,19 +6363,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>1. 래피드스카다 연동 // 완
-2. DC보드 수정 // 완</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 . 정역제어
-  1.1 회로 마무리 및 설치
-  1.2 테스트
-2. AC보드 디버깅 
-  2.1 8번채널 수정</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>퇴근 &amp; 회로이론, 회로이론복
 으로 대체</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -6433,6 +6403,82 @@
   <si>
     <t>1. E 자연상수 의미 파악 요
 2. dy/dx 의미 파악 요</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 . 정역제어
+  1.1 회로 마무리 및 설치
+  1.2 테스트
+2. AC보드 디버깅 
+  2.1 8번채널 수정
+3. 모터 2EA 입고 (비닐개폐기)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 래피드스카다 연동 // 완
+2. DC보드 수정 // 완
+3. 릴레이 5EA, 소켓 5EA 입고</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. SMT작업 완료된 보드들 검수 요</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Test방법 전달 (To MLT)
+1.1 full test방법
+1.2 CP스위치 회로도</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 보드 테스트방법 간단히 시연</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 구매 요청 // 완
+  1.1 경진제어 (\16,500(총\15,000 + 부가세\1,500))
+    1.1.1 HR110-2PL-24V 5EA (각 \1,900)
+    1.1.2 KA-KLY2(릴레이 소켓) 5EA (각 \1,100)
+  1.2 옥션 (\140,500(총\138,000 + 배송비\2,500))
+    1.2.1 비닐개폐기 (25mm 사이버캅 1 (81022) 2EA (각 \69,000 + 배송비 \2,500)
+2. AC 릴레이 온오프 테스트 // 진행중
+  2.1 18:40 - 00:00 (10초on, 10초off)
+3. 모드버스 구현 // 완
+  3.1 slave address적용하여 address가 다른 패킷이 들어오면 동작하지 않도록 구현
+  3.2 예외처리
+    3.2.1 동시에 2개의 릴레이가 켜질 수 없도록 처리
+    3.2.2. DC보드의 정역제어 시 정역제어담당릴레이(채널11, 채널12)가 동시에 켜질
+            수 없도록 예외처리 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  3.3 "STM32_Relay_210408"</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>정역제어 테스트</t>
+  </si>
+  <si>
+    <t>정역제어 테스트</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 . 정역제어 테스트 세팅
+  1.1 스케쥴러 사용하여 14시 ~ 18시30분까지 1분마다 동작테스트
+    1.1.1 정상
+2. relay보드 검수
+  2.1 9번 LED불량(전체수량에 대해 반대로 삽입됨)
+3. 수리
+  3.1 LED수리 4EA</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -8880,8 +8926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416A426D-BB01-4CA3-AB71-097AFB4E3CF2}">
   <dimension ref="B2:G978"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8919,7 +8965,7 @@
     </row>
     <row r="3" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="93" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C3" s="96" t="s">
         <v>397</v>
@@ -9007,7 +9053,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="103"/>
@@ -9031,7 +9077,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="103"/>
@@ -9055,7 +9101,7 @@
         <v>408</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="103"/>
@@ -9079,7 +9125,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="103"/>
@@ -9091,7 +9137,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="90" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="103"/>
@@ -9147,7 +9193,7 @@
     </row>
     <row r="23" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C23" s="96" t="s">
         <v>397</v>
@@ -9156,7 +9202,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>406</v>
@@ -9322,7 +9368,7 @@
         <v>405</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F38" s="103"/>
       <c r="G38" s="106"/>
@@ -9336,7 +9382,7 @@
         <v>146</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F39" s="103"/>
       <c r="G39" s="106"/>
@@ -9379,7 +9425,7 @@
     </row>
     <row r="43" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C43" s="96" t="s">
         <v>397</v>
@@ -9388,7 +9434,7 @@
         <v>21</v>
       </c>
       <c r="E43" s="108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F43" s="102" t="s">
         <v>406</v>
@@ -9622,7 +9668,7 @@
         <v>406</v>
       </c>
       <c r="G63" s="105" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
@@ -9832,7 +9878,7 @@
         <v>337</v>
       </c>
       <c r="E82" s="70" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F82" s="104"/>
       <c r="G82" s="107"/>
@@ -20903,7 +20949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E930FE-E70D-4650-892B-243F142A11B0}">
   <dimension ref="B2:AD162"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K43" sqref="K43:R52"/>
     </sheetView>
   </sheetViews>
@@ -26090,7 +26136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA7B570-6C49-486F-AFB4-DDC28D868EB4}">
   <dimension ref="B2:AD22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:J22"/>
     </sheetView>
   </sheetViews>
@@ -26142,10 +26188,10 @@
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="111" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C3" s="234" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D3" s="234"/>
       <c r="E3" s="234"/>
@@ -26797,7 +26843,7 @@
   <dimension ref="B2:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26848,10 +26894,10 @@
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="111" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="234" t="s">
         <v>445</v>
-      </c>
-      <c r="C3" s="234" t="s">
-        <v>448</v>
       </c>
       <c r="D3" s="234"/>
       <c r="E3" s="234"/>
@@ -26877,7 +26923,7 @@
       <c r="Y3" s="217"/>
       <c r="Z3" s="218"/>
       <c r="AA3" s="297" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AB3" s="298"/>
       <c r="AC3" s="298"/>
@@ -27183,8 +27229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2796BF-0288-4960-8BD7-B5BF6E4D1C9B}">
   <dimension ref="B2:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27235,10 +27281,10 @@
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="111" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C3" s="234" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D3" s="234"/>
       <c r="E3" s="234"/>
@@ -27264,7 +27310,7 @@
       <c r="Y3" s="217"/>
       <c r="Z3" s="218"/>
       <c r="AA3" s="297" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AB3" s="298"/>
       <c r="AC3" s="298"/>
@@ -37699,10 +37745,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:AD377"/>
+  <dimension ref="B2:AD387"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J12"/>
+      <selection activeCell="C13" sqref="C13:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37753,10 +37799,10 @@
     </row>
     <row r="3" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="93" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C3" s="161" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="D3" s="162"/>
       <c r="E3" s="162"/>
@@ -37781,10 +37827,12 @@
       <c r="X3" s="189"/>
       <c r="Y3" s="189"/>
       <c r="Z3" s="190"/>
-      <c r="AA3" s="260"/>
-      <c r="AB3" s="261"/>
-      <c r="AC3" s="261"/>
-      <c r="AD3" s="262"/>
+      <c r="AA3" s="269" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB3" s="270"/>
+      <c r="AC3" s="270"/>
+      <c r="AD3" s="271"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="94"/>
@@ -37812,10 +37860,10 @@
       <c r="X4" s="192"/>
       <c r="Y4" s="192"/>
       <c r="Z4" s="193"/>
-      <c r="AA4" s="263"/>
-      <c r="AB4" s="264"/>
-      <c r="AC4" s="264"/>
-      <c r="AD4" s="265"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="273"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="274"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="94"/>
@@ -37843,10 +37891,10 @@
       <c r="X5" s="192"/>
       <c r="Y5" s="192"/>
       <c r="Z5" s="193"/>
-      <c r="AA5" s="263"/>
-      <c r="AB5" s="264"/>
-      <c r="AC5" s="264"/>
-      <c r="AD5" s="265"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="274"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="94"/>
@@ -37874,10 +37922,10 @@
       <c r="X6" s="192"/>
       <c r="Y6" s="192"/>
       <c r="Z6" s="193"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="264"/>
-      <c r="AC6" s="264"/>
-      <c r="AD6" s="265"/>
+      <c r="AA6" s="272"/>
+      <c r="AB6" s="273"/>
+      <c r="AC6" s="273"/>
+      <c r="AD6" s="274"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="94"/>
@@ -37905,10 +37953,10 @@
       <c r="X7" s="192"/>
       <c r="Y7" s="192"/>
       <c r="Z7" s="193"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="264"/>
-      <c r="AC7" s="264"/>
-      <c r="AD7" s="265"/>
+      <c r="AA7" s="272"/>
+      <c r="AB7" s="273"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="274"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="94"/>
@@ -37936,10 +37984,10 @@
       <c r="X8" s="192"/>
       <c r="Y8" s="192"/>
       <c r="Z8" s="193"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="264"/>
-      <c r="AC8" s="264"/>
-      <c r="AD8" s="265"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="273"/>
+      <c r="AD8" s="274"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="94"/>
@@ -37967,10 +38015,10 @@
       <c r="X9" s="192"/>
       <c r="Y9" s="192"/>
       <c r="Z9" s="193"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="264"/>
-      <c r="AC9" s="264"/>
-      <c r="AD9" s="265"/>
+      <c r="AA9" s="272"/>
+      <c r="AB9" s="273"/>
+      <c r="AC9" s="273"/>
+      <c r="AD9" s="274"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B10" s="94"/>
@@ -37998,10 +38046,10 @@
       <c r="X10" s="192"/>
       <c r="Y10" s="192"/>
       <c r="Z10" s="193"/>
-      <c r="AA10" s="263"/>
-      <c r="AB10" s="264"/>
-      <c r="AC10" s="264"/>
-      <c r="AD10" s="265"/>
+      <c r="AA10" s="272"/>
+      <c r="AB10" s="273"/>
+      <c r="AC10" s="273"/>
+      <c r="AD10" s="274"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" s="94"/>
@@ -38029,10 +38077,10 @@
       <c r="X11" s="192"/>
       <c r="Y11" s="192"/>
       <c r="Z11" s="193"/>
-      <c r="AA11" s="263"/>
-      <c r="AB11" s="264"/>
-      <c r="AC11" s="264"/>
-      <c r="AD11" s="265"/>
+      <c r="AA11" s="272"/>
+      <c r="AB11" s="273"/>
+      <c r="AC11" s="273"/>
+      <c r="AD11" s="274"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B12" s="117"/>
@@ -38060,17 +38108,17 @@
       <c r="X12" s="195"/>
       <c r="Y12" s="195"/>
       <c r="Z12" s="196"/>
-      <c r="AA12" s="266"/>
-      <c r="AB12" s="267"/>
-      <c r="AC12" s="267"/>
-      <c r="AD12" s="268"/>
+      <c r="AA12" s="275"/>
+      <c r="AB12" s="276"/>
+      <c r="AC12" s="276"/>
+      <c r="AD12" s="277"/>
     </row>
     <row r="13" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="93" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C13" s="161" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D13" s="162"/>
       <c r="E13" s="162"/>
@@ -38079,9 +38127,7 @@
       <c r="H13" s="162"/>
       <c r="I13" s="162"/>
       <c r="J13" s="163"/>
-      <c r="K13" s="161" t="s">
-        <v>431</v>
-      </c>
+      <c r="K13" s="161"/>
       <c r="L13" s="162"/>
       <c r="M13" s="162"/>
       <c r="N13" s="162"/>
@@ -38383,10 +38429,10 @@
     </row>
     <row r="23" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="93" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C23" s="161" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="D23" s="162"/>
       <c r="E23" s="162"/>
@@ -38396,7 +38442,7 @@
       <c r="I23" s="162"/>
       <c r="J23" s="163"/>
       <c r="K23" s="161" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L23" s="162"/>
       <c r="M23" s="162"/>
@@ -38405,20 +38451,18 @@
       <c r="P23" s="162"/>
       <c r="Q23" s="162"/>
       <c r="R23" s="163"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="189"/>
-      <c r="U23" s="189"/>
-      <c r="V23" s="189"/>
-      <c r="W23" s="189"/>
-      <c r="X23" s="189"/>
-      <c r="Y23" s="189"/>
-      <c r="Z23" s="190"/>
-      <c r="AA23" s="269" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB23" s="270"/>
-      <c r="AC23" s="270"/>
-      <c r="AD23" s="271"/>
+      <c r="S23" s="260"/>
+      <c r="T23" s="261"/>
+      <c r="U23" s="261"/>
+      <c r="V23" s="261"/>
+      <c r="W23" s="261"/>
+      <c r="X23" s="261"/>
+      <c r="Y23" s="261"/>
+      <c r="Z23" s="262"/>
+      <c r="AA23" s="260"/>
+      <c r="AB23" s="261"/>
+      <c r="AC23" s="261"/>
+      <c r="AD23" s="262"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B24" s="94"/>
@@ -38438,18 +38482,18 @@
       <c r="P24" s="165"/>
       <c r="Q24" s="165"/>
       <c r="R24" s="166"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="192"/>
-      <c r="U24" s="192"/>
-      <c r="V24" s="192"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="192"/>
-      <c r="Y24" s="192"/>
-      <c r="Z24" s="193"/>
-      <c r="AA24" s="272"/>
-      <c r="AB24" s="273"/>
-      <c r="AC24" s="273"/>
-      <c r="AD24" s="274"/>
+      <c r="S24" s="263"/>
+      <c r="T24" s="264"/>
+      <c r="U24" s="264"/>
+      <c r="V24" s="264"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
+      <c r="Y24" s="264"/>
+      <c r="Z24" s="265"/>
+      <c r="AA24" s="263"/>
+      <c r="AB24" s="264"/>
+      <c r="AC24" s="264"/>
+      <c r="AD24" s="265"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B25" s="94"/>
@@ -38469,18 +38513,18 @@
       <c r="P25" s="165"/>
       <c r="Q25" s="165"/>
       <c r="R25" s="166"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="192"/>
-      <c r="W25" s="192"/>
-      <c r="X25" s="192"/>
-      <c r="Y25" s="192"/>
-      <c r="Z25" s="193"/>
-      <c r="AA25" s="272"/>
-      <c r="AB25" s="273"/>
-      <c r="AC25" s="273"/>
-      <c r="AD25" s="274"/>
+      <c r="S25" s="263"/>
+      <c r="T25" s="264"/>
+      <c r="U25" s="264"/>
+      <c r="V25" s="264"/>
+      <c r="W25" s="264"/>
+      <c r="X25" s="264"/>
+      <c r="Y25" s="264"/>
+      <c r="Z25" s="265"/>
+      <c r="AA25" s="263"/>
+      <c r="AB25" s="264"/>
+      <c r="AC25" s="264"/>
+      <c r="AD25" s="265"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B26" s="94"/>
@@ -38500,18 +38544,18 @@
       <c r="P26" s="165"/>
       <c r="Q26" s="165"/>
       <c r="R26" s="166"/>
-      <c r="S26" s="191"/>
-      <c r="T26" s="192"/>
-      <c r="U26" s="192"/>
-      <c r="V26" s="192"/>
-      <c r="W26" s="192"/>
-      <c r="X26" s="192"/>
-      <c r="Y26" s="192"/>
-      <c r="Z26" s="193"/>
-      <c r="AA26" s="272"/>
-      <c r="AB26" s="273"/>
-      <c r="AC26" s="273"/>
-      <c r="AD26" s="274"/>
+      <c r="S26" s="263"/>
+      <c r="T26" s="264"/>
+      <c r="U26" s="264"/>
+      <c r="V26" s="264"/>
+      <c r="W26" s="264"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="264"/>
+      <c r="Z26" s="265"/>
+      <c r="AA26" s="263"/>
+      <c r="AB26" s="264"/>
+      <c r="AC26" s="264"/>
+      <c r="AD26" s="265"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B27" s="94"/>
@@ -38531,18 +38575,18 @@
       <c r="P27" s="165"/>
       <c r="Q27" s="165"/>
       <c r="R27" s="166"/>
-      <c r="S27" s="191"/>
-      <c r="T27" s="192"/>
-      <c r="U27" s="192"/>
-      <c r="V27" s="192"/>
-      <c r="W27" s="192"/>
-      <c r="X27" s="192"/>
-      <c r="Y27" s="192"/>
-      <c r="Z27" s="193"/>
-      <c r="AA27" s="272"/>
-      <c r="AB27" s="273"/>
-      <c r="AC27" s="273"/>
-      <c r="AD27" s="274"/>
+      <c r="S27" s="263"/>
+      <c r="T27" s="264"/>
+      <c r="U27" s="264"/>
+      <c r="V27" s="264"/>
+      <c r="W27" s="264"/>
+      <c r="X27" s="264"/>
+      <c r="Y27" s="264"/>
+      <c r="Z27" s="265"/>
+      <c r="AA27" s="263"/>
+      <c r="AB27" s="264"/>
+      <c r="AC27" s="264"/>
+      <c r="AD27" s="265"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B28" s="94"/>
@@ -38562,18 +38606,18 @@
       <c r="P28" s="165"/>
       <c r="Q28" s="165"/>
       <c r="R28" s="166"/>
-      <c r="S28" s="191"/>
-      <c r="T28" s="192"/>
-      <c r="U28" s="192"/>
-      <c r="V28" s="192"/>
-      <c r="W28" s="192"/>
-      <c r="X28" s="192"/>
-      <c r="Y28" s="192"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="272"/>
-      <c r="AB28" s="273"/>
-      <c r="AC28" s="273"/>
-      <c r="AD28" s="274"/>
+      <c r="S28" s="263"/>
+      <c r="T28" s="264"/>
+      <c r="U28" s="264"/>
+      <c r="V28" s="264"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="264"/>
+      <c r="Z28" s="265"/>
+      <c r="AA28" s="263"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="264"/>
+      <c r="AD28" s="265"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B29" s="94"/>
@@ -38593,18 +38637,18 @@
       <c r="P29" s="165"/>
       <c r="Q29" s="165"/>
       <c r="R29" s="166"/>
-      <c r="S29" s="191"/>
-      <c r="T29" s="192"/>
-      <c r="U29" s="192"/>
-      <c r="V29" s="192"/>
-      <c r="W29" s="192"/>
-      <c r="X29" s="192"/>
-      <c r="Y29" s="192"/>
-      <c r="Z29" s="193"/>
-      <c r="AA29" s="272"/>
-      <c r="AB29" s="273"/>
-      <c r="AC29" s="273"/>
-      <c r="AD29" s="274"/>
+      <c r="S29" s="263"/>
+      <c r="T29" s="264"/>
+      <c r="U29" s="264"/>
+      <c r="V29" s="264"/>
+      <c r="W29" s="264"/>
+      <c r="X29" s="264"/>
+      <c r="Y29" s="264"/>
+      <c r="Z29" s="265"/>
+      <c r="AA29" s="263"/>
+      <c r="AB29" s="264"/>
+      <c r="AC29" s="264"/>
+      <c r="AD29" s="265"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B30" s="94"/>
@@ -38624,18 +38668,18 @@
       <c r="P30" s="165"/>
       <c r="Q30" s="165"/>
       <c r="R30" s="166"/>
-      <c r="S30" s="191"/>
-      <c r="T30" s="192"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="192"/>
-      <c r="Y30" s="192"/>
-      <c r="Z30" s="193"/>
-      <c r="AA30" s="272"/>
-      <c r="AB30" s="273"/>
-      <c r="AC30" s="273"/>
-      <c r="AD30" s="274"/>
+      <c r="S30" s="263"/>
+      <c r="T30" s="264"/>
+      <c r="U30" s="264"/>
+      <c r="V30" s="264"/>
+      <c r="W30" s="264"/>
+      <c r="X30" s="264"/>
+      <c r="Y30" s="264"/>
+      <c r="Z30" s="265"/>
+      <c r="AA30" s="263"/>
+      <c r="AB30" s="264"/>
+      <c r="AC30" s="264"/>
+      <c r="AD30" s="265"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B31" s="94"/>
@@ -38655,18 +38699,18 @@
       <c r="P31" s="165"/>
       <c r="Q31" s="165"/>
       <c r="R31" s="166"/>
-      <c r="S31" s="191"/>
-      <c r="T31" s="192"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="192"/>
-      <c r="W31" s="192"/>
-      <c r="X31" s="192"/>
-      <c r="Y31" s="192"/>
-      <c r="Z31" s="193"/>
-      <c r="AA31" s="272"/>
-      <c r="AB31" s="273"/>
-      <c r="AC31" s="273"/>
-      <c r="AD31" s="274"/>
+      <c r="S31" s="263"/>
+      <c r="T31" s="264"/>
+      <c r="U31" s="264"/>
+      <c r="V31" s="264"/>
+      <c r="W31" s="264"/>
+      <c r="X31" s="264"/>
+      <c r="Y31" s="264"/>
+      <c r="Z31" s="265"/>
+      <c r="AA31" s="263"/>
+      <c r="AB31" s="264"/>
+      <c r="AC31" s="264"/>
+      <c r="AD31" s="265"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B32" s="117"/>
@@ -38686,25 +38730,25 @@
       <c r="P32" s="168"/>
       <c r="Q32" s="168"/>
       <c r="R32" s="169"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="195"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="195"/>
-      <c r="X32" s="195"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="196"/>
-      <c r="AA32" s="275"/>
-      <c r="AB32" s="276"/>
-      <c r="AC32" s="276"/>
-      <c r="AD32" s="277"/>
+      <c r="S32" s="266"/>
+      <c r="T32" s="267"/>
+      <c r="U32" s="267"/>
+      <c r="V32" s="267"/>
+      <c r="W32" s="267"/>
+      <c r="X32" s="267"/>
+      <c r="Y32" s="267"/>
+      <c r="Z32" s="268"/>
+      <c r="AA32" s="266"/>
+      <c r="AB32" s="267"/>
+      <c r="AC32" s="267"/>
+      <c r="AD32" s="268"/>
     </row>
     <row r="33" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="93" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C33" s="161" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="D33" s="162"/>
       <c r="E33" s="162"/>
@@ -38714,7 +38758,7 @@
       <c r="I33" s="162"/>
       <c r="J33" s="163"/>
       <c r="K33" s="161" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L33" s="162"/>
       <c r="M33" s="162"/>
@@ -38731,10 +38775,12 @@
       <c r="X33" s="189"/>
       <c r="Y33" s="189"/>
       <c r="Z33" s="190"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="261"/>
-      <c r="AC33" s="261"/>
-      <c r="AD33" s="262"/>
+      <c r="AA33" s="269" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB33" s="270"/>
+      <c r="AC33" s="270"/>
+      <c r="AD33" s="271"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B34" s="94"/>
@@ -38762,10 +38808,10 @@
       <c r="X34" s="192"/>
       <c r="Y34" s="192"/>
       <c r="Z34" s="193"/>
-      <c r="AA34" s="263"/>
-      <c r="AB34" s="264"/>
-      <c r="AC34" s="264"/>
-      <c r="AD34" s="265"/>
+      <c r="AA34" s="272"/>
+      <c r="AB34" s="273"/>
+      <c r="AC34" s="273"/>
+      <c r="AD34" s="274"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B35" s="94"/>
@@ -38793,10 +38839,10 @@
       <c r="X35" s="192"/>
       <c r="Y35" s="192"/>
       <c r="Z35" s="193"/>
-      <c r="AA35" s="263"/>
-      <c r="AB35" s="264"/>
-      <c r="AC35" s="264"/>
-      <c r="AD35" s="265"/>
+      <c r="AA35" s="272"/>
+      <c r="AB35" s="273"/>
+      <c r="AC35" s="273"/>
+      <c r="AD35" s="274"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B36" s="94"/>
@@ -38824,10 +38870,10 @@
       <c r="X36" s="192"/>
       <c r="Y36" s="192"/>
       <c r="Z36" s="193"/>
-      <c r="AA36" s="263"/>
-      <c r="AB36" s="264"/>
-      <c r="AC36" s="264"/>
-      <c r="AD36" s="265"/>
+      <c r="AA36" s="272"/>
+      <c r="AB36" s="273"/>
+      <c r="AC36" s="273"/>
+      <c r="AD36" s="274"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B37" s="94"/>
@@ -38855,10 +38901,10 @@
       <c r="X37" s="192"/>
       <c r="Y37" s="192"/>
       <c r="Z37" s="193"/>
-      <c r="AA37" s="263"/>
-      <c r="AB37" s="264"/>
-      <c r="AC37" s="264"/>
-      <c r="AD37" s="265"/>
+      <c r="AA37" s="272"/>
+      <c r="AB37" s="273"/>
+      <c r="AC37" s="273"/>
+      <c r="AD37" s="274"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B38" s="94"/>
@@ -38886,10 +38932,10 @@
       <c r="X38" s="192"/>
       <c r="Y38" s="192"/>
       <c r="Z38" s="193"/>
-      <c r="AA38" s="263"/>
-      <c r="AB38" s="264"/>
-      <c r="AC38" s="264"/>
-      <c r="AD38" s="265"/>
+      <c r="AA38" s="272"/>
+      <c r="AB38" s="273"/>
+      <c r="AC38" s="273"/>
+      <c r="AD38" s="274"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B39" s="94"/>
@@ -38917,10 +38963,10 @@
       <c r="X39" s="192"/>
       <c r="Y39" s="192"/>
       <c r="Z39" s="193"/>
-      <c r="AA39" s="263"/>
-      <c r="AB39" s="264"/>
-      <c r="AC39" s="264"/>
-      <c r="AD39" s="265"/>
+      <c r="AA39" s="272"/>
+      <c r="AB39" s="273"/>
+      <c r="AC39" s="273"/>
+      <c r="AD39" s="274"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B40" s="94"/>
@@ -38948,10 +38994,10 @@
       <c r="X40" s="192"/>
       <c r="Y40" s="192"/>
       <c r="Z40" s="193"/>
-      <c r="AA40" s="263"/>
-      <c r="AB40" s="264"/>
-      <c r="AC40" s="264"/>
-      <c r="AD40" s="265"/>
+      <c r="AA40" s="272"/>
+      <c r="AB40" s="273"/>
+      <c r="AC40" s="273"/>
+      <c r="AD40" s="274"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B41" s="94"/>
@@ -38979,10 +39025,10 @@
       <c r="X41" s="192"/>
       <c r="Y41" s="192"/>
       <c r="Z41" s="193"/>
-      <c r="AA41" s="263"/>
-      <c r="AB41" s="264"/>
-      <c r="AC41" s="264"/>
-      <c r="AD41" s="265"/>
+      <c r="AA41" s="272"/>
+      <c r="AB41" s="273"/>
+      <c r="AC41" s="273"/>
+      <c r="AD41" s="274"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B42" s="117"/>
@@ -39010,17 +39056,17 @@
       <c r="X42" s="195"/>
       <c r="Y42" s="195"/>
       <c r="Z42" s="196"/>
-      <c r="AA42" s="266"/>
-      <c r="AB42" s="267"/>
-      <c r="AC42" s="267"/>
-      <c r="AD42" s="268"/>
+      <c r="AA42" s="275"/>
+      <c r="AB42" s="276"/>
+      <c r="AC42" s="276"/>
+      <c r="AD42" s="277"/>
     </row>
     <row r="43" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="93" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C43" s="161" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D43" s="162"/>
       <c r="E43" s="162"/>
@@ -39030,7 +39076,7 @@
       <c r="I43" s="162"/>
       <c r="J43" s="163"/>
       <c r="K43" s="161" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="L43" s="162"/>
       <c r="M43" s="162"/>
@@ -39333,10 +39379,10 @@
     </row>
     <row r="53" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="93" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C53" s="161" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="D53" s="162"/>
       <c r="E53" s="162"/>
@@ -39346,7 +39392,7 @@
       <c r="I53" s="162"/>
       <c r="J53" s="163"/>
       <c r="K53" s="161" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L53" s="162"/>
       <c r="M53" s="162"/>
@@ -39363,12 +39409,10 @@
       <c r="X53" s="189"/>
       <c r="Y53" s="189"/>
       <c r="Z53" s="190"/>
-      <c r="AA53" s="238" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB53" s="239"/>
-      <c r="AC53" s="239"/>
-      <c r="AD53" s="240"/>
+      <c r="AA53" s="260"/>
+      <c r="AB53" s="261"/>
+      <c r="AC53" s="261"/>
+      <c r="AD53" s="262"/>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B54" s="94"/>
@@ -39396,10 +39440,10 @@
       <c r="X54" s="192"/>
       <c r="Y54" s="192"/>
       <c r="Z54" s="193"/>
-      <c r="AA54" s="241"/>
-      <c r="AB54" s="242"/>
-      <c r="AC54" s="242"/>
-      <c r="AD54" s="243"/>
+      <c r="AA54" s="263"/>
+      <c r="AB54" s="264"/>
+      <c r="AC54" s="264"/>
+      <c r="AD54" s="265"/>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B55" s="94"/>
@@ -39427,10 +39471,10 @@
       <c r="X55" s="192"/>
       <c r="Y55" s="192"/>
       <c r="Z55" s="193"/>
-      <c r="AA55" s="241"/>
-      <c r="AB55" s="242"/>
-      <c r="AC55" s="242"/>
-      <c r="AD55" s="243"/>
+      <c r="AA55" s="263"/>
+      <c r="AB55" s="264"/>
+      <c r="AC55" s="264"/>
+      <c r="AD55" s="265"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56" s="94"/>
@@ -39458,10 +39502,10 @@
       <c r="X56" s="192"/>
       <c r="Y56" s="192"/>
       <c r="Z56" s="193"/>
-      <c r="AA56" s="241"/>
-      <c r="AB56" s="242"/>
-      <c r="AC56" s="242"/>
-      <c r="AD56" s="243"/>
+      <c r="AA56" s="263"/>
+      <c r="AB56" s="264"/>
+      <c r="AC56" s="264"/>
+      <c r="AD56" s="265"/>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B57" s="94"/>
@@ -39489,10 +39533,10 @@
       <c r="X57" s="192"/>
       <c r="Y57" s="192"/>
       <c r="Z57" s="193"/>
-      <c r="AA57" s="241"/>
-      <c r="AB57" s="242"/>
-      <c r="AC57" s="242"/>
-      <c r="AD57" s="243"/>
+      <c r="AA57" s="263"/>
+      <c r="AB57" s="264"/>
+      <c r="AC57" s="264"/>
+      <c r="AD57" s="265"/>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B58" s="94"/>
@@ -39520,10 +39564,10 @@
       <c r="X58" s="192"/>
       <c r="Y58" s="192"/>
       <c r="Z58" s="193"/>
-      <c r="AA58" s="241"/>
-      <c r="AB58" s="242"/>
-      <c r="AC58" s="242"/>
-      <c r="AD58" s="243"/>
+      <c r="AA58" s="263"/>
+      <c r="AB58" s="264"/>
+      <c r="AC58" s="264"/>
+      <c r="AD58" s="265"/>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B59" s="94"/>
@@ -39551,10 +39595,10 @@
       <c r="X59" s="192"/>
       <c r="Y59" s="192"/>
       <c r="Z59" s="193"/>
-      <c r="AA59" s="241"/>
-      <c r="AB59" s="242"/>
-      <c r="AC59" s="242"/>
-      <c r="AD59" s="243"/>
+      <c r="AA59" s="263"/>
+      <c r="AB59" s="264"/>
+      <c r="AC59" s="264"/>
+      <c r="AD59" s="265"/>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B60" s="94"/>
@@ -39582,10 +39626,10 @@
       <c r="X60" s="192"/>
       <c r="Y60" s="192"/>
       <c r="Z60" s="193"/>
-      <c r="AA60" s="241"/>
-      <c r="AB60" s="242"/>
-      <c r="AC60" s="242"/>
-      <c r="AD60" s="243"/>
+      <c r="AA60" s="263"/>
+      <c r="AB60" s="264"/>
+      <c r="AC60" s="264"/>
+      <c r="AD60" s="265"/>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B61" s="94"/>
@@ -39613,10 +39657,10 @@
       <c r="X61" s="192"/>
       <c r="Y61" s="192"/>
       <c r="Z61" s="193"/>
-      <c r="AA61" s="241"/>
-      <c r="AB61" s="242"/>
-      <c r="AC61" s="242"/>
-      <c r="AD61" s="243"/>
+      <c r="AA61" s="263"/>
+      <c r="AB61" s="264"/>
+      <c r="AC61" s="264"/>
+      <c r="AD61" s="265"/>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B62" s="117"/>
@@ -39644,17 +39688,17 @@
       <c r="X62" s="195"/>
       <c r="Y62" s="195"/>
       <c r="Z62" s="196"/>
-      <c r="AA62" s="244"/>
-      <c r="AB62" s="245"/>
-      <c r="AC62" s="245"/>
-      <c r="AD62" s="246"/>
+      <c r="AA62" s="266"/>
+      <c r="AB62" s="267"/>
+      <c r="AC62" s="267"/>
+      <c r="AD62" s="268"/>
     </row>
     <row r="63" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="93" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C63" s="161" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D63" s="162"/>
       <c r="E63" s="162"/>
@@ -39664,7 +39708,7 @@
       <c r="I63" s="162"/>
       <c r="J63" s="163"/>
       <c r="K63" s="161" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L63" s="162"/>
       <c r="M63" s="162"/>
@@ -39681,10 +39725,12 @@
       <c r="X63" s="189"/>
       <c r="Y63" s="189"/>
       <c r="Z63" s="190"/>
-      <c r="AA63" s="260"/>
-      <c r="AB63" s="261"/>
-      <c r="AC63" s="261"/>
-      <c r="AD63" s="262"/>
+      <c r="AA63" s="238" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB63" s="239"/>
+      <c r="AC63" s="239"/>
+      <c r="AD63" s="240"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B64" s="94"/>
@@ -39712,10 +39758,10 @@
       <c r="X64" s="192"/>
       <c r="Y64" s="192"/>
       <c r="Z64" s="193"/>
-      <c r="AA64" s="263"/>
-      <c r="AB64" s="264"/>
-      <c r="AC64" s="264"/>
-      <c r="AD64" s="265"/>
+      <c r="AA64" s="241"/>
+      <c r="AB64" s="242"/>
+      <c r="AC64" s="242"/>
+      <c r="AD64" s="243"/>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B65" s="94"/>
@@ -39743,10 +39789,10 @@
       <c r="X65" s="192"/>
       <c r="Y65" s="192"/>
       <c r="Z65" s="193"/>
-      <c r="AA65" s="263"/>
-      <c r="AB65" s="264"/>
-      <c r="AC65" s="264"/>
-      <c r="AD65" s="265"/>
+      <c r="AA65" s="241"/>
+      <c r="AB65" s="242"/>
+      <c r="AC65" s="242"/>
+      <c r="AD65" s="243"/>
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B66" s="94"/>
@@ -39774,10 +39820,10 @@
       <c r="X66" s="192"/>
       <c r="Y66" s="192"/>
       <c r="Z66" s="193"/>
-      <c r="AA66" s="263"/>
-      <c r="AB66" s="264"/>
-      <c r="AC66" s="264"/>
-      <c r="AD66" s="265"/>
+      <c r="AA66" s="241"/>
+      <c r="AB66" s="242"/>
+      <c r="AC66" s="242"/>
+      <c r="AD66" s="243"/>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B67" s="94"/>
@@ -39805,10 +39851,10 @@
       <c r="X67" s="192"/>
       <c r="Y67" s="192"/>
       <c r="Z67" s="193"/>
-      <c r="AA67" s="263"/>
-      <c r="AB67" s="264"/>
-      <c r="AC67" s="264"/>
-      <c r="AD67" s="265"/>
+      <c r="AA67" s="241"/>
+      <c r="AB67" s="242"/>
+      <c r="AC67" s="242"/>
+      <c r="AD67" s="243"/>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B68" s="94"/>
@@ -39836,10 +39882,10 @@
       <c r="X68" s="192"/>
       <c r="Y68" s="192"/>
       <c r="Z68" s="193"/>
-      <c r="AA68" s="263"/>
-      <c r="AB68" s="264"/>
-      <c r="AC68" s="264"/>
-      <c r="AD68" s="265"/>
+      <c r="AA68" s="241"/>
+      <c r="AB68" s="242"/>
+      <c r="AC68" s="242"/>
+      <c r="AD68" s="243"/>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B69" s="94"/>
@@ -39867,10 +39913,10 @@
       <c r="X69" s="192"/>
       <c r="Y69" s="192"/>
       <c r="Z69" s="193"/>
-      <c r="AA69" s="263"/>
-      <c r="AB69" s="264"/>
-      <c r="AC69" s="264"/>
-      <c r="AD69" s="265"/>
+      <c r="AA69" s="241"/>
+      <c r="AB69" s="242"/>
+      <c r="AC69" s="242"/>
+      <c r="AD69" s="243"/>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B70" s="94"/>
@@ -39898,10 +39944,10 @@
       <c r="X70" s="192"/>
       <c r="Y70" s="192"/>
       <c r="Z70" s="193"/>
-      <c r="AA70" s="263"/>
-      <c r="AB70" s="264"/>
-      <c r="AC70" s="264"/>
-      <c r="AD70" s="265"/>
+      <c r="AA70" s="241"/>
+      <c r="AB70" s="242"/>
+      <c r="AC70" s="242"/>
+      <c r="AD70" s="243"/>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B71" s="94"/>
@@ -39929,10 +39975,10 @@
       <c r="X71" s="192"/>
       <c r="Y71" s="192"/>
       <c r="Z71" s="193"/>
-      <c r="AA71" s="263"/>
-      <c r="AB71" s="264"/>
-      <c r="AC71" s="264"/>
-      <c r="AD71" s="265"/>
+      <c r="AA71" s="241"/>
+      <c r="AB71" s="242"/>
+      <c r="AC71" s="242"/>
+      <c r="AD71" s="243"/>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B72" s="117"/>
@@ -39960,17 +40006,17 @@
       <c r="X72" s="195"/>
       <c r="Y72" s="195"/>
       <c r="Z72" s="196"/>
-      <c r="AA72" s="266"/>
-      <c r="AB72" s="267"/>
-      <c r="AC72" s="267"/>
-      <c r="AD72" s="268"/>
+      <c r="AA72" s="244"/>
+      <c r="AB72" s="245"/>
+      <c r="AC72" s="245"/>
+      <c r="AD72" s="246"/>
     </row>
     <row r="73" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="93" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C73" s="161" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D73" s="162"/>
       <c r="E73" s="162"/>
@@ -39980,7 +40026,7 @@
       <c r="I73" s="162"/>
       <c r="J73" s="163"/>
       <c r="K73" s="161" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L73" s="162"/>
       <c r="M73" s="162"/>
@@ -40283,10 +40329,10 @@
     </row>
     <row r="83" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="93" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C83" s="161" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D83" s="162"/>
       <c r="E83" s="162"/>
@@ -40295,7 +40341,9 @@
       <c r="H83" s="162"/>
       <c r="I83" s="162"/>
       <c r="J83" s="163"/>
-      <c r="K83" s="161"/>
+      <c r="K83" s="161" t="s">
+        <v>380</v>
+      </c>
       <c r="L83" s="162"/>
       <c r="M83" s="162"/>
       <c r="N83" s="162"/>
@@ -40311,12 +40359,10 @@
       <c r="X83" s="189"/>
       <c r="Y83" s="189"/>
       <c r="Z83" s="190"/>
-      <c r="AA83" s="238" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB83" s="239"/>
-      <c r="AC83" s="239"/>
-      <c r="AD83" s="240"/>
+      <c r="AA83" s="260"/>
+      <c r="AB83" s="261"/>
+      <c r="AC83" s="261"/>
+      <c r="AD83" s="262"/>
     </row>
     <row r="84" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B84" s="94"/>
@@ -40344,10 +40390,10 @@
       <c r="X84" s="192"/>
       <c r="Y84" s="192"/>
       <c r="Z84" s="193"/>
-      <c r="AA84" s="241"/>
-      <c r="AB84" s="242"/>
-      <c r="AC84" s="242"/>
-      <c r="AD84" s="243"/>
+      <c r="AA84" s="263"/>
+      <c r="AB84" s="264"/>
+      <c r="AC84" s="264"/>
+      <c r="AD84" s="265"/>
     </row>
     <row r="85" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B85" s="94"/>
@@ -40375,10 +40421,10 @@
       <c r="X85" s="192"/>
       <c r="Y85" s="192"/>
       <c r="Z85" s="193"/>
-      <c r="AA85" s="241"/>
-      <c r="AB85" s="242"/>
-      <c r="AC85" s="242"/>
-      <c r="AD85" s="243"/>
+      <c r="AA85" s="263"/>
+      <c r="AB85" s="264"/>
+      <c r="AC85" s="264"/>
+      <c r="AD85" s="265"/>
     </row>
     <row r="86" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B86" s="94"/>
@@ -40406,10 +40452,10 @@
       <c r="X86" s="192"/>
       <c r="Y86" s="192"/>
       <c r="Z86" s="193"/>
-      <c r="AA86" s="241"/>
-      <c r="AB86" s="242"/>
-      <c r="AC86" s="242"/>
-      <c r="AD86" s="243"/>
+      <c r="AA86" s="263"/>
+      <c r="AB86" s="264"/>
+      <c r="AC86" s="264"/>
+      <c r="AD86" s="265"/>
     </row>
     <row r="87" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B87" s="94"/>
@@ -40437,10 +40483,10 @@
       <c r="X87" s="192"/>
       <c r="Y87" s="192"/>
       <c r="Z87" s="193"/>
-      <c r="AA87" s="241"/>
-      <c r="AB87" s="242"/>
-      <c r="AC87" s="242"/>
-      <c r="AD87" s="243"/>
+      <c r="AA87" s="263"/>
+      <c r="AB87" s="264"/>
+      <c r="AC87" s="264"/>
+      <c r="AD87" s="265"/>
     </row>
     <row r="88" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B88" s="94"/>
@@ -40468,10 +40514,10 @@
       <c r="X88" s="192"/>
       <c r="Y88" s="192"/>
       <c r="Z88" s="193"/>
-      <c r="AA88" s="241"/>
-      <c r="AB88" s="242"/>
-      <c r="AC88" s="242"/>
-      <c r="AD88" s="243"/>
+      <c r="AA88" s="263"/>
+      <c r="AB88" s="264"/>
+      <c r="AC88" s="264"/>
+      <c r="AD88" s="265"/>
     </row>
     <row r="89" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B89" s="94"/>
@@ -40499,10 +40545,10 @@
       <c r="X89" s="192"/>
       <c r="Y89" s="192"/>
       <c r="Z89" s="193"/>
-      <c r="AA89" s="241"/>
-      <c r="AB89" s="242"/>
-      <c r="AC89" s="242"/>
-      <c r="AD89" s="243"/>
+      <c r="AA89" s="263"/>
+      <c r="AB89" s="264"/>
+      <c r="AC89" s="264"/>
+      <c r="AD89" s="265"/>
     </row>
     <row r="90" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B90" s="94"/>
@@ -40530,10 +40576,10 @@
       <c r="X90" s="192"/>
       <c r="Y90" s="192"/>
       <c r="Z90" s="193"/>
-      <c r="AA90" s="241"/>
-      <c r="AB90" s="242"/>
-      <c r="AC90" s="242"/>
-      <c r="AD90" s="243"/>
+      <c r="AA90" s="263"/>
+      <c r="AB90" s="264"/>
+      <c r="AC90" s="264"/>
+      <c r="AD90" s="265"/>
     </row>
     <row r="91" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B91" s="94"/>
@@ -40561,10 +40607,10 @@
       <c r="X91" s="192"/>
       <c r="Y91" s="192"/>
       <c r="Z91" s="193"/>
-      <c r="AA91" s="241"/>
-      <c r="AB91" s="242"/>
-      <c r="AC91" s="242"/>
-      <c r="AD91" s="243"/>
+      <c r="AA91" s="263"/>
+      <c r="AB91" s="264"/>
+      <c r="AC91" s="264"/>
+      <c r="AD91" s="265"/>
     </row>
     <row r="92" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B92" s="117"/>
@@ -40592,17 +40638,17 @@
       <c r="X92" s="195"/>
       <c r="Y92" s="195"/>
       <c r="Z92" s="196"/>
-      <c r="AA92" s="244"/>
-      <c r="AB92" s="245"/>
-      <c r="AC92" s="245"/>
-      <c r="AD92" s="246"/>
+      <c r="AA92" s="266"/>
+      <c r="AB92" s="267"/>
+      <c r="AC92" s="267"/>
+      <c r="AD92" s="268"/>
     </row>
     <row r="93" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="93" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C93" s="161" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D93" s="162"/>
       <c r="E93" s="162"/>
@@ -40611,9 +40657,7 @@
       <c r="H93" s="162"/>
       <c r="I93" s="162"/>
       <c r="J93" s="163"/>
-      <c r="K93" s="161" t="s">
-        <v>362</v>
-      </c>
+      <c r="K93" s="161"/>
       <c r="L93" s="162"/>
       <c r="M93" s="162"/>
       <c r="N93" s="162"/>
@@ -40629,10 +40673,12 @@
       <c r="X93" s="189"/>
       <c r="Y93" s="189"/>
       <c r="Z93" s="190"/>
-      <c r="AA93" s="260"/>
-      <c r="AB93" s="261"/>
-      <c r="AC93" s="261"/>
-      <c r="AD93" s="262"/>
+      <c r="AA93" s="238" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB93" s="239"/>
+      <c r="AC93" s="239"/>
+      <c r="AD93" s="240"/>
     </row>
     <row r="94" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B94" s="94"/>
@@ -40660,10 +40706,10 @@
       <c r="X94" s="192"/>
       <c r="Y94" s="192"/>
       <c r="Z94" s="193"/>
-      <c r="AA94" s="263"/>
-      <c r="AB94" s="264"/>
-      <c r="AC94" s="264"/>
-      <c r="AD94" s="265"/>
+      <c r="AA94" s="241"/>
+      <c r="AB94" s="242"/>
+      <c r="AC94" s="242"/>
+      <c r="AD94" s="243"/>
     </row>
     <row r="95" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B95" s="94"/>
@@ -40691,10 +40737,10 @@
       <c r="X95" s="192"/>
       <c r="Y95" s="192"/>
       <c r="Z95" s="193"/>
-      <c r="AA95" s="263"/>
-      <c r="AB95" s="264"/>
-      <c r="AC95" s="264"/>
-      <c r="AD95" s="265"/>
+      <c r="AA95" s="241"/>
+      <c r="AB95" s="242"/>
+      <c r="AC95" s="242"/>
+      <c r="AD95" s="243"/>
     </row>
     <row r="96" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B96" s="94"/>
@@ -40722,10 +40768,10 @@
       <c r="X96" s="192"/>
       <c r="Y96" s="192"/>
       <c r="Z96" s="193"/>
-      <c r="AA96" s="263"/>
-      <c r="AB96" s="264"/>
-      <c r="AC96" s="264"/>
-      <c r="AD96" s="265"/>
+      <c r="AA96" s="241"/>
+      <c r="AB96" s="242"/>
+      <c r="AC96" s="242"/>
+      <c r="AD96" s="243"/>
     </row>
     <row r="97" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B97" s="94"/>
@@ -40753,10 +40799,10 @@
       <c r="X97" s="192"/>
       <c r="Y97" s="192"/>
       <c r="Z97" s="193"/>
-      <c r="AA97" s="263"/>
-      <c r="AB97" s="264"/>
-      <c r="AC97" s="264"/>
-      <c r="AD97" s="265"/>
+      <c r="AA97" s="241"/>
+      <c r="AB97" s="242"/>
+      <c r="AC97" s="242"/>
+      <c r="AD97" s="243"/>
     </row>
     <row r="98" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B98" s="94"/>
@@ -40784,10 +40830,10 @@
       <c r="X98" s="192"/>
       <c r="Y98" s="192"/>
       <c r="Z98" s="193"/>
-      <c r="AA98" s="263"/>
-      <c r="AB98" s="264"/>
-      <c r="AC98" s="264"/>
-      <c r="AD98" s="265"/>
+      <c r="AA98" s="241"/>
+      <c r="AB98" s="242"/>
+      <c r="AC98" s="242"/>
+      <c r="AD98" s="243"/>
     </row>
     <row r="99" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B99" s="94"/>
@@ -40815,10 +40861,10 @@
       <c r="X99" s="192"/>
       <c r="Y99" s="192"/>
       <c r="Z99" s="193"/>
-      <c r="AA99" s="263"/>
-      <c r="AB99" s="264"/>
-      <c r="AC99" s="264"/>
-      <c r="AD99" s="265"/>
+      <c r="AA99" s="241"/>
+      <c r="AB99" s="242"/>
+      <c r="AC99" s="242"/>
+      <c r="AD99" s="243"/>
     </row>
     <row r="100" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B100" s="94"/>
@@ -40846,10 +40892,10 @@
       <c r="X100" s="192"/>
       <c r="Y100" s="192"/>
       <c r="Z100" s="193"/>
-      <c r="AA100" s="263"/>
-      <c r="AB100" s="264"/>
-      <c r="AC100" s="264"/>
-      <c r="AD100" s="265"/>
+      <c r="AA100" s="241"/>
+      <c r="AB100" s="242"/>
+      <c r="AC100" s="242"/>
+      <c r="AD100" s="243"/>
     </row>
     <row r="101" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B101" s="94"/>
@@ -40877,10 +40923,10 @@
       <c r="X101" s="192"/>
       <c r="Y101" s="192"/>
       <c r="Z101" s="193"/>
-      <c r="AA101" s="263"/>
-      <c r="AB101" s="264"/>
-      <c r="AC101" s="264"/>
-      <c r="AD101" s="265"/>
+      <c r="AA101" s="241"/>
+      <c r="AB101" s="242"/>
+      <c r="AC101" s="242"/>
+      <c r="AD101" s="243"/>
     </row>
     <row r="102" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B102" s="117"/>
@@ -40908,17 +40954,17 @@
       <c r="X102" s="195"/>
       <c r="Y102" s="195"/>
       <c r="Z102" s="196"/>
-      <c r="AA102" s="266"/>
-      <c r="AB102" s="267"/>
-      <c r="AC102" s="267"/>
-      <c r="AD102" s="268"/>
+      <c r="AA102" s="244"/>
+      <c r="AB102" s="245"/>
+      <c r="AC102" s="245"/>
+      <c r="AD102" s="246"/>
     </row>
     <row r="103" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="93" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C103" s="161" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D103" s="162"/>
       <c r="E103" s="162"/>
@@ -40927,7 +40973,9 @@
       <c r="H103" s="162"/>
       <c r="I103" s="162"/>
       <c r="J103" s="163"/>
-      <c r="K103" s="161"/>
+      <c r="K103" s="161" t="s">
+        <v>362</v>
+      </c>
       <c r="L103" s="162"/>
       <c r="M103" s="162"/>
       <c r="N103" s="162"/>
@@ -41229,10 +41277,10 @@
     </row>
     <row r="113" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="93" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C113" s="161" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D113" s="162"/>
       <c r="E113" s="162"/>
@@ -41241,9 +41289,7 @@
       <c r="H113" s="162"/>
       <c r="I113" s="162"/>
       <c r="J113" s="163"/>
-      <c r="K113" s="161" t="s">
-        <v>341</v>
-      </c>
+      <c r="K113" s="161"/>
       <c r="L113" s="162"/>
       <c r="M113" s="162"/>
       <c r="N113" s="162"/>
@@ -41545,10 +41591,10 @@
     </row>
     <row r="123" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="93" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C123" s="161" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="D123" s="162"/>
       <c r="E123" s="162"/>
@@ -41557,7 +41603,9 @@
       <c r="H123" s="162"/>
       <c r="I123" s="162"/>
       <c r="J123" s="163"/>
-      <c r="K123" s="161"/>
+      <c r="K123" s="161" t="s">
+        <v>341</v>
+      </c>
       <c r="L123" s="162"/>
       <c r="M123" s="162"/>
       <c r="N123" s="162"/>
@@ -41573,12 +41621,10 @@
       <c r="X123" s="189"/>
       <c r="Y123" s="189"/>
       <c r="Z123" s="190"/>
-      <c r="AA123" s="269" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB123" s="270"/>
-      <c r="AC123" s="270"/>
-      <c r="AD123" s="271"/>
+      <c r="AA123" s="260"/>
+      <c r="AB123" s="261"/>
+      <c r="AC123" s="261"/>
+      <c r="AD123" s="262"/>
     </row>
     <row r="124" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B124" s="94"/>
@@ -41606,10 +41652,10 @@
       <c r="X124" s="192"/>
       <c r="Y124" s="192"/>
       <c r="Z124" s="193"/>
-      <c r="AA124" s="272"/>
-      <c r="AB124" s="273"/>
-      <c r="AC124" s="273"/>
-      <c r="AD124" s="274"/>
+      <c r="AA124" s="263"/>
+      <c r="AB124" s="264"/>
+      <c r="AC124" s="264"/>
+      <c r="AD124" s="265"/>
     </row>
     <row r="125" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B125" s="94"/>
@@ -41637,10 +41683,10 @@
       <c r="X125" s="192"/>
       <c r="Y125" s="192"/>
       <c r="Z125" s="193"/>
-      <c r="AA125" s="272"/>
-      <c r="AB125" s="273"/>
-      <c r="AC125" s="273"/>
-      <c r="AD125" s="274"/>
+      <c r="AA125" s="263"/>
+      <c r="AB125" s="264"/>
+      <c r="AC125" s="264"/>
+      <c r="AD125" s="265"/>
     </row>
     <row r="126" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B126" s="94"/>
@@ -41668,10 +41714,10 @@
       <c r="X126" s="192"/>
       <c r="Y126" s="192"/>
       <c r="Z126" s="193"/>
-      <c r="AA126" s="272"/>
-      <c r="AB126" s="273"/>
-      <c r="AC126" s="273"/>
-      <c r="AD126" s="274"/>
+      <c r="AA126" s="263"/>
+      <c r="AB126" s="264"/>
+      <c r="AC126" s="264"/>
+      <c r="AD126" s="265"/>
     </row>
     <row r="127" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B127" s="94"/>
@@ -41699,10 +41745,10 @@
       <c r="X127" s="192"/>
       <c r="Y127" s="192"/>
       <c r="Z127" s="193"/>
-      <c r="AA127" s="272"/>
-      <c r="AB127" s="273"/>
-      <c r="AC127" s="273"/>
-      <c r="AD127" s="274"/>
+      <c r="AA127" s="263"/>
+      <c r="AB127" s="264"/>
+      <c r="AC127" s="264"/>
+      <c r="AD127" s="265"/>
     </row>
     <row r="128" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B128" s="94"/>
@@ -41730,10 +41776,10 @@
       <c r="X128" s="192"/>
       <c r="Y128" s="192"/>
       <c r="Z128" s="193"/>
-      <c r="AA128" s="272"/>
-      <c r="AB128" s="273"/>
-      <c r="AC128" s="273"/>
-      <c r="AD128" s="274"/>
+      <c r="AA128" s="263"/>
+      <c r="AB128" s="264"/>
+      <c r="AC128" s="264"/>
+      <c r="AD128" s="265"/>
     </row>
     <row r="129" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B129" s="94"/>
@@ -41761,10 +41807,10 @@
       <c r="X129" s="192"/>
       <c r="Y129" s="192"/>
       <c r="Z129" s="193"/>
-      <c r="AA129" s="272"/>
-      <c r="AB129" s="273"/>
-      <c r="AC129" s="273"/>
-      <c r="AD129" s="274"/>
+      <c r="AA129" s="263"/>
+      <c r="AB129" s="264"/>
+      <c r="AC129" s="264"/>
+      <c r="AD129" s="265"/>
     </row>
     <row r="130" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B130" s="94"/>
@@ -41792,10 +41838,10 @@
       <c r="X130" s="192"/>
       <c r="Y130" s="192"/>
       <c r="Z130" s="193"/>
-      <c r="AA130" s="272"/>
-      <c r="AB130" s="273"/>
-      <c r="AC130" s="273"/>
-      <c r="AD130" s="274"/>
+      <c r="AA130" s="263"/>
+      <c r="AB130" s="264"/>
+      <c r="AC130" s="264"/>
+      <c r="AD130" s="265"/>
     </row>
     <row r="131" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B131" s="94"/>
@@ -41823,10 +41869,10 @@
       <c r="X131" s="192"/>
       <c r="Y131" s="192"/>
       <c r="Z131" s="193"/>
-      <c r="AA131" s="272"/>
-      <c r="AB131" s="273"/>
-      <c r="AC131" s="273"/>
-      <c r="AD131" s="274"/>
+      <c r="AA131" s="263"/>
+      <c r="AB131" s="264"/>
+      <c r="AC131" s="264"/>
+      <c r="AD131" s="265"/>
     </row>
     <row r="132" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B132" s="117"/>
@@ -41854,17 +41900,17 @@
       <c r="X132" s="195"/>
       <c r="Y132" s="195"/>
       <c r="Z132" s="196"/>
-      <c r="AA132" s="275"/>
-      <c r="AB132" s="276"/>
-      <c r="AC132" s="276"/>
-      <c r="AD132" s="277"/>
+      <c r="AA132" s="266"/>
+      <c r="AB132" s="267"/>
+      <c r="AC132" s="267"/>
+      <c r="AD132" s="268"/>
     </row>
     <row r="133" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="93" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C133" s="161" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="D133" s="162"/>
       <c r="E133" s="162"/>
@@ -41873,9 +41919,7 @@
       <c r="H133" s="162"/>
       <c r="I133" s="162"/>
       <c r="J133" s="163"/>
-      <c r="K133" s="161" t="s">
-        <v>300</v>
-      </c>
+      <c r="K133" s="161"/>
       <c r="L133" s="162"/>
       <c r="M133" s="162"/>
       <c r="N133" s="162"/>
@@ -41883,9 +41927,7 @@
       <c r="P133" s="162"/>
       <c r="Q133" s="162"/>
       <c r="R133" s="163"/>
-      <c r="S133" s="161" t="s">
-        <v>262</v>
-      </c>
+      <c r="S133" s="161"/>
       <c r="T133" s="189"/>
       <c r="U133" s="189"/>
       <c r="V133" s="189"/>
@@ -41893,10 +41935,12 @@
       <c r="X133" s="189"/>
       <c r="Y133" s="189"/>
       <c r="Z133" s="190"/>
-      <c r="AA133" s="278"/>
-      <c r="AB133" s="261"/>
-      <c r="AC133" s="261"/>
-      <c r="AD133" s="262"/>
+      <c r="AA133" s="269" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB133" s="270"/>
+      <c r="AC133" s="270"/>
+      <c r="AD133" s="271"/>
     </row>
     <row r="134" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B134" s="94"/>
@@ -41924,10 +41968,10 @@
       <c r="X134" s="192"/>
       <c r="Y134" s="192"/>
       <c r="Z134" s="193"/>
-      <c r="AA134" s="263"/>
-      <c r="AB134" s="264"/>
-      <c r="AC134" s="264"/>
-      <c r="AD134" s="265"/>
+      <c r="AA134" s="272"/>
+      <c r="AB134" s="273"/>
+      <c r="AC134" s="273"/>
+      <c r="AD134" s="274"/>
     </row>
     <row r="135" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B135" s="94"/>
@@ -41955,10 +41999,10 @@
       <c r="X135" s="192"/>
       <c r="Y135" s="192"/>
       <c r="Z135" s="193"/>
-      <c r="AA135" s="263"/>
-      <c r="AB135" s="264"/>
-      <c r="AC135" s="264"/>
-      <c r="AD135" s="265"/>
+      <c r="AA135" s="272"/>
+      <c r="AB135" s="273"/>
+      <c r="AC135" s="273"/>
+      <c r="AD135" s="274"/>
     </row>
     <row r="136" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B136" s="94"/>
@@ -41986,10 +42030,10 @@
       <c r="X136" s="192"/>
       <c r="Y136" s="192"/>
       <c r="Z136" s="193"/>
-      <c r="AA136" s="263"/>
-      <c r="AB136" s="264"/>
-      <c r="AC136" s="264"/>
-      <c r="AD136" s="265"/>
+      <c r="AA136" s="272"/>
+      <c r="AB136" s="273"/>
+      <c r="AC136" s="273"/>
+      <c r="AD136" s="274"/>
     </row>
     <row r="137" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B137" s="94"/>
@@ -42017,10 +42061,10 @@
       <c r="X137" s="192"/>
       <c r="Y137" s="192"/>
       <c r="Z137" s="193"/>
-      <c r="AA137" s="263"/>
-      <c r="AB137" s="264"/>
-      <c r="AC137" s="264"/>
-      <c r="AD137" s="265"/>
+      <c r="AA137" s="272"/>
+      <c r="AB137" s="273"/>
+      <c r="AC137" s="273"/>
+      <c r="AD137" s="274"/>
     </row>
     <row r="138" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B138" s="94"/>
@@ -42048,10 +42092,10 @@
       <c r="X138" s="192"/>
       <c r="Y138" s="192"/>
       <c r="Z138" s="193"/>
-      <c r="AA138" s="263"/>
-      <c r="AB138" s="264"/>
-      <c r="AC138" s="264"/>
-      <c r="AD138" s="265"/>
+      <c r="AA138" s="272"/>
+      <c r="AB138" s="273"/>
+      <c r="AC138" s="273"/>
+      <c r="AD138" s="274"/>
     </row>
     <row r="139" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B139" s="94"/>
@@ -42079,10 +42123,10 @@
       <c r="X139" s="192"/>
       <c r="Y139" s="192"/>
       <c r="Z139" s="193"/>
-      <c r="AA139" s="263"/>
-      <c r="AB139" s="264"/>
-      <c r="AC139" s="264"/>
-      <c r="AD139" s="265"/>
+      <c r="AA139" s="272"/>
+      <c r="AB139" s="273"/>
+      <c r="AC139" s="273"/>
+      <c r="AD139" s="274"/>
     </row>
     <row r="140" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B140" s="94"/>
@@ -42110,10 +42154,10 @@
       <c r="X140" s="192"/>
       <c r="Y140" s="192"/>
       <c r="Z140" s="193"/>
-      <c r="AA140" s="263"/>
-      <c r="AB140" s="264"/>
-      <c r="AC140" s="264"/>
-      <c r="AD140" s="265"/>
+      <c r="AA140" s="272"/>
+      <c r="AB140" s="273"/>
+      <c r="AC140" s="273"/>
+      <c r="AD140" s="274"/>
     </row>
     <row r="141" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B141" s="94"/>
@@ -42141,10 +42185,10 @@
       <c r="X141" s="192"/>
       <c r="Y141" s="192"/>
       <c r="Z141" s="193"/>
-      <c r="AA141" s="263"/>
-      <c r="AB141" s="264"/>
-      <c r="AC141" s="264"/>
-      <c r="AD141" s="265"/>
+      <c r="AA141" s="272"/>
+      <c r="AB141" s="273"/>
+      <c r="AC141" s="273"/>
+      <c r="AD141" s="274"/>
     </row>
     <row r="142" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B142" s="117"/>
@@ -42172,17 +42216,17 @@
       <c r="X142" s="195"/>
       <c r="Y142" s="195"/>
       <c r="Z142" s="196"/>
-      <c r="AA142" s="266"/>
-      <c r="AB142" s="267"/>
-      <c r="AC142" s="267"/>
-      <c r="AD142" s="268"/>
+      <c r="AA142" s="275"/>
+      <c r="AB142" s="276"/>
+      <c r="AC142" s="276"/>
+      <c r="AD142" s="277"/>
     </row>
     <row r="143" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="C143" s="170" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="C143" s="161" t="s">
+        <v>375</v>
       </c>
       <c r="D143" s="162"/>
       <c r="E143" s="162"/>
@@ -42192,7 +42236,7 @@
       <c r="I143" s="162"/>
       <c r="J143" s="163"/>
       <c r="K143" s="161" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="L143" s="162"/>
       <c r="M143" s="162"/>
@@ -42211,12 +42255,10 @@
       <c r="X143" s="189"/>
       <c r="Y143" s="189"/>
       <c r="Z143" s="190"/>
-      <c r="AA143" s="296" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB143" s="270"/>
-      <c r="AC143" s="270"/>
-      <c r="AD143" s="271"/>
+      <c r="AA143" s="278"/>
+      <c r="AB143" s="261"/>
+      <c r="AC143" s="261"/>
+      <c r="AD143" s="262"/>
     </row>
     <row r="144" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B144" s="94"/>
@@ -42244,10 +42286,10 @@
       <c r="X144" s="192"/>
       <c r="Y144" s="192"/>
       <c r="Z144" s="193"/>
-      <c r="AA144" s="272"/>
-      <c r="AB144" s="273"/>
-      <c r="AC144" s="273"/>
-      <c r="AD144" s="274"/>
+      <c r="AA144" s="263"/>
+      <c r="AB144" s="264"/>
+      <c r="AC144" s="264"/>
+      <c r="AD144" s="265"/>
     </row>
     <row r="145" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B145" s="94"/>
@@ -42275,10 +42317,10 @@
       <c r="X145" s="192"/>
       <c r="Y145" s="192"/>
       <c r="Z145" s="193"/>
-      <c r="AA145" s="272"/>
-      <c r="AB145" s="273"/>
-      <c r="AC145" s="273"/>
-      <c r="AD145" s="274"/>
+      <c r="AA145" s="263"/>
+      <c r="AB145" s="264"/>
+      <c r="AC145" s="264"/>
+      <c r="AD145" s="265"/>
     </row>
     <row r="146" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B146" s="94"/>
@@ -42306,10 +42348,10 @@
       <c r="X146" s="192"/>
       <c r="Y146" s="192"/>
       <c r="Z146" s="193"/>
-      <c r="AA146" s="272"/>
-      <c r="AB146" s="273"/>
-      <c r="AC146" s="273"/>
-      <c r="AD146" s="274"/>
+      <c r="AA146" s="263"/>
+      <c r="AB146" s="264"/>
+      <c r="AC146" s="264"/>
+      <c r="AD146" s="265"/>
     </row>
     <row r="147" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B147" s="94"/>
@@ -42337,10 +42379,10 @@
       <c r="X147" s="192"/>
       <c r="Y147" s="192"/>
       <c r="Z147" s="193"/>
-      <c r="AA147" s="272"/>
-      <c r="AB147" s="273"/>
-      <c r="AC147" s="273"/>
-      <c r="AD147" s="274"/>
+      <c r="AA147" s="263"/>
+      <c r="AB147" s="264"/>
+      <c r="AC147" s="264"/>
+      <c r="AD147" s="265"/>
     </row>
     <row r="148" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B148" s="94"/>
@@ -42368,10 +42410,10 @@
       <c r="X148" s="192"/>
       <c r="Y148" s="192"/>
       <c r="Z148" s="193"/>
-      <c r="AA148" s="272"/>
-      <c r="AB148" s="273"/>
-      <c r="AC148" s="273"/>
-      <c r="AD148" s="274"/>
+      <c r="AA148" s="263"/>
+      <c r="AB148" s="264"/>
+      <c r="AC148" s="264"/>
+      <c r="AD148" s="265"/>
     </row>
     <row r="149" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B149" s="94"/>
@@ -42399,10 +42441,10 @@
       <c r="X149" s="192"/>
       <c r="Y149" s="192"/>
       <c r="Z149" s="193"/>
-      <c r="AA149" s="272"/>
-      <c r="AB149" s="273"/>
-      <c r="AC149" s="273"/>
-      <c r="AD149" s="274"/>
+      <c r="AA149" s="263"/>
+      <c r="AB149" s="264"/>
+      <c r="AC149" s="264"/>
+      <c r="AD149" s="265"/>
     </row>
     <row r="150" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B150" s="94"/>
@@ -42430,10 +42472,10 @@
       <c r="X150" s="192"/>
       <c r="Y150" s="192"/>
       <c r="Z150" s="193"/>
-      <c r="AA150" s="272"/>
-      <c r="AB150" s="273"/>
-      <c r="AC150" s="273"/>
-      <c r="AD150" s="274"/>
+      <c r="AA150" s="263"/>
+      <c r="AB150" s="264"/>
+      <c r="AC150" s="264"/>
+      <c r="AD150" s="265"/>
     </row>
     <row r="151" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B151" s="94"/>
@@ -42461,10 +42503,10 @@
       <c r="X151" s="192"/>
       <c r="Y151" s="192"/>
       <c r="Z151" s="193"/>
-      <c r="AA151" s="272"/>
-      <c r="AB151" s="273"/>
-      <c r="AC151" s="273"/>
-      <c r="AD151" s="274"/>
+      <c r="AA151" s="263"/>
+      <c r="AB151" s="264"/>
+      <c r="AC151" s="264"/>
+      <c r="AD151" s="265"/>
     </row>
     <row r="152" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B152" s="117"/>
@@ -42492,17 +42534,17 @@
       <c r="X152" s="195"/>
       <c r="Y152" s="195"/>
       <c r="Z152" s="196"/>
-      <c r="AA152" s="275"/>
-      <c r="AB152" s="276"/>
-      <c r="AC152" s="276"/>
-      <c r="AD152" s="277"/>
+      <c r="AA152" s="266"/>
+      <c r="AB152" s="267"/>
+      <c r="AC152" s="267"/>
+      <c r="AD152" s="268"/>
     </row>
     <row r="153" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="93" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C153" s="170" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D153" s="162"/>
       <c r="E153" s="162"/>
@@ -42511,8 +42553,8 @@
       <c r="H153" s="162"/>
       <c r="I153" s="162"/>
       <c r="J153" s="163"/>
-      <c r="K153" s="170" t="s">
-        <v>261</v>
+      <c r="K153" s="161" t="s">
+        <v>289</v>
       </c>
       <c r="L153" s="162"/>
       <c r="M153" s="162"/>
@@ -42531,10 +42573,12 @@
       <c r="X153" s="189"/>
       <c r="Y153" s="189"/>
       <c r="Z153" s="190"/>
-      <c r="AA153" s="260"/>
-      <c r="AB153" s="261"/>
-      <c r="AC153" s="261"/>
-      <c r="AD153" s="262"/>
+      <c r="AA153" s="296" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB153" s="270"/>
+      <c r="AC153" s="270"/>
+      <c r="AD153" s="271"/>
     </row>
     <row r="154" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B154" s="94"/>
@@ -42562,10 +42606,10 @@
       <c r="X154" s="192"/>
       <c r="Y154" s="192"/>
       <c r="Z154" s="193"/>
-      <c r="AA154" s="263"/>
-      <c r="AB154" s="264"/>
-      <c r="AC154" s="264"/>
-      <c r="AD154" s="265"/>
+      <c r="AA154" s="272"/>
+      <c r="AB154" s="273"/>
+      <c r="AC154" s="273"/>
+      <c r="AD154" s="274"/>
     </row>
     <row r="155" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B155" s="94"/>
@@ -42593,10 +42637,10 @@
       <c r="X155" s="192"/>
       <c r="Y155" s="192"/>
       <c r="Z155" s="193"/>
-      <c r="AA155" s="263"/>
-      <c r="AB155" s="264"/>
-      <c r="AC155" s="264"/>
-      <c r="AD155" s="265"/>
+      <c r="AA155" s="272"/>
+      <c r="AB155" s="273"/>
+      <c r="AC155" s="273"/>
+      <c r="AD155" s="274"/>
     </row>
     <row r="156" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B156" s="94"/>
@@ -42624,10 +42668,10 @@
       <c r="X156" s="192"/>
       <c r="Y156" s="192"/>
       <c r="Z156" s="193"/>
-      <c r="AA156" s="263"/>
-      <c r="AB156" s="264"/>
-      <c r="AC156" s="264"/>
-      <c r="AD156" s="265"/>
+      <c r="AA156" s="272"/>
+      <c r="AB156" s="273"/>
+      <c r="AC156" s="273"/>
+      <c r="AD156" s="274"/>
     </row>
     <row r="157" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B157" s="94"/>
@@ -42655,10 +42699,10 @@
       <c r="X157" s="192"/>
       <c r="Y157" s="192"/>
       <c r="Z157" s="193"/>
-      <c r="AA157" s="263"/>
-      <c r="AB157" s="264"/>
-      <c r="AC157" s="264"/>
-      <c r="AD157" s="265"/>
+      <c r="AA157" s="272"/>
+      <c r="AB157" s="273"/>
+      <c r="AC157" s="273"/>
+      <c r="AD157" s="274"/>
     </row>
     <row r="158" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B158" s="94"/>
@@ -42686,10 +42730,10 @@
       <c r="X158" s="192"/>
       <c r="Y158" s="192"/>
       <c r="Z158" s="193"/>
-      <c r="AA158" s="263"/>
-      <c r="AB158" s="264"/>
-      <c r="AC158" s="264"/>
-      <c r="AD158" s="265"/>
+      <c r="AA158" s="272"/>
+      <c r="AB158" s="273"/>
+      <c r="AC158" s="273"/>
+      <c r="AD158" s="274"/>
     </row>
     <row r="159" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B159" s="94"/>
@@ -42717,10 +42761,10 @@
       <c r="X159" s="192"/>
       <c r="Y159" s="192"/>
       <c r="Z159" s="193"/>
-      <c r="AA159" s="263"/>
-      <c r="AB159" s="264"/>
-      <c r="AC159" s="264"/>
-      <c r="AD159" s="265"/>
+      <c r="AA159" s="272"/>
+      <c r="AB159" s="273"/>
+      <c r="AC159" s="273"/>
+      <c r="AD159" s="274"/>
     </row>
     <row r="160" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B160" s="94"/>
@@ -42748,10 +42792,10 @@
       <c r="X160" s="192"/>
       <c r="Y160" s="192"/>
       <c r="Z160" s="193"/>
-      <c r="AA160" s="263"/>
-      <c r="AB160" s="264"/>
-      <c r="AC160" s="264"/>
-      <c r="AD160" s="265"/>
+      <c r="AA160" s="272"/>
+      <c r="AB160" s="273"/>
+      <c r="AC160" s="273"/>
+      <c r="AD160" s="274"/>
     </row>
     <row r="161" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B161" s="94"/>
@@ -42779,10 +42823,10 @@
       <c r="X161" s="192"/>
       <c r="Y161" s="192"/>
       <c r="Z161" s="193"/>
-      <c r="AA161" s="263"/>
-      <c r="AB161" s="264"/>
-      <c r="AC161" s="264"/>
-      <c r="AD161" s="265"/>
+      <c r="AA161" s="272"/>
+      <c r="AB161" s="273"/>
+      <c r="AC161" s="273"/>
+      <c r="AD161" s="274"/>
     </row>
     <row r="162" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B162" s="117"/>
@@ -42810,17 +42854,17 @@
       <c r="X162" s="195"/>
       <c r="Y162" s="195"/>
       <c r="Z162" s="196"/>
-      <c r="AA162" s="266"/>
-      <c r="AB162" s="267"/>
-      <c r="AC162" s="267"/>
-      <c r="AD162" s="268"/>
+      <c r="AA162" s="275"/>
+      <c r="AB162" s="276"/>
+      <c r="AC162" s="276"/>
+      <c r="AD162" s="277"/>
     </row>
     <row r="163" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="93" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C163" s="170" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D163" s="162"/>
       <c r="E163" s="162"/>
@@ -43135,10 +43179,10 @@
     </row>
     <row r="173" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="93" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C173" s="170" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D173" s="162"/>
       <c r="E173" s="162"/>
@@ -43148,7 +43192,7 @@
       <c r="I173" s="162"/>
       <c r="J173" s="163"/>
       <c r="K173" s="170" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="L173" s="162"/>
       <c r="M173" s="162"/>
@@ -43157,7 +43201,9 @@
       <c r="P173" s="162"/>
       <c r="Q173" s="162"/>
       <c r="R173" s="163"/>
-      <c r="S173" s="161"/>
+      <c r="S173" s="161" t="s">
+        <v>262</v>
+      </c>
       <c r="T173" s="189"/>
       <c r="U173" s="189"/>
       <c r="V173" s="189"/>
@@ -43165,12 +43211,10 @@
       <c r="X173" s="189"/>
       <c r="Y173" s="189"/>
       <c r="Z173" s="190"/>
-      <c r="AA173" s="238" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB173" s="239"/>
-      <c r="AC173" s="239"/>
-      <c r="AD173" s="240"/>
+      <c r="AA173" s="260"/>
+      <c r="AB173" s="261"/>
+      <c r="AC173" s="261"/>
+      <c r="AD173" s="262"/>
     </row>
     <row r="174" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B174" s="94"/>
@@ -43198,10 +43242,10 @@
       <c r="X174" s="192"/>
       <c r="Y174" s="192"/>
       <c r="Z174" s="193"/>
-      <c r="AA174" s="241"/>
-      <c r="AB174" s="242"/>
-      <c r="AC174" s="242"/>
-      <c r="AD174" s="243"/>
+      <c r="AA174" s="263"/>
+      <c r="AB174" s="264"/>
+      <c r="AC174" s="264"/>
+      <c r="AD174" s="265"/>
     </row>
     <row r="175" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B175" s="94"/>
@@ -43229,10 +43273,10 @@
       <c r="X175" s="192"/>
       <c r="Y175" s="192"/>
       <c r="Z175" s="193"/>
-      <c r="AA175" s="241"/>
-      <c r="AB175" s="242"/>
-      <c r="AC175" s="242"/>
-      <c r="AD175" s="243"/>
+      <c r="AA175" s="263"/>
+      <c r="AB175" s="264"/>
+      <c r="AC175" s="264"/>
+      <c r="AD175" s="265"/>
     </row>
     <row r="176" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B176" s="94"/>
@@ -43260,10 +43304,10 @@
       <c r="X176" s="192"/>
       <c r="Y176" s="192"/>
       <c r="Z176" s="193"/>
-      <c r="AA176" s="241"/>
-      <c r="AB176" s="242"/>
-      <c r="AC176" s="242"/>
-      <c r="AD176" s="243"/>
+      <c r="AA176" s="263"/>
+      <c r="AB176" s="264"/>
+      <c r="AC176" s="264"/>
+      <c r="AD176" s="265"/>
     </row>
     <row r="177" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B177" s="94"/>
@@ -43291,10 +43335,10 @@
       <c r="X177" s="192"/>
       <c r="Y177" s="192"/>
       <c r="Z177" s="193"/>
-      <c r="AA177" s="241"/>
-      <c r="AB177" s="242"/>
-      <c r="AC177" s="242"/>
-      <c r="AD177" s="243"/>
+      <c r="AA177" s="263"/>
+      <c r="AB177" s="264"/>
+      <c r="AC177" s="264"/>
+      <c r="AD177" s="265"/>
     </row>
     <row r="178" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B178" s="94"/>
@@ -43322,10 +43366,10 @@
       <c r="X178" s="192"/>
       <c r="Y178" s="192"/>
       <c r="Z178" s="193"/>
-      <c r="AA178" s="241"/>
-      <c r="AB178" s="242"/>
-      <c r="AC178" s="242"/>
-      <c r="AD178" s="243"/>
+      <c r="AA178" s="263"/>
+      <c r="AB178" s="264"/>
+      <c r="AC178" s="264"/>
+      <c r="AD178" s="265"/>
     </row>
     <row r="179" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B179" s="94"/>
@@ -43353,10 +43397,10 @@
       <c r="X179" s="192"/>
       <c r="Y179" s="192"/>
       <c r="Z179" s="193"/>
-      <c r="AA179" s="241"/>
-      <c r="AB179" s="242"/>
-      <c r="AC179" s="242"/>
-      <c r="AD179" s="243"/>
+      <c r="AA179" s="263"/>
+      <c r="AB179" s="264"/>
+      <c r="AC179" s="264"/>
+      <c r="AD179" s="265"/>
     </row>
     <row r="180" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B180" s="94"/>
@@ -43384,10 +43428,10 @@
       <c r="X180" s="192"/>
       <c r="Y180" s="192"/>
       <c r="Z180" s="193"/>
-      <c r="AA180" s="241"/>
-      <c r="AB180" s="242"/>
-      <c r="AC180" s="242"/>
-      <c r="AD180" s="243"/>
+      <c r="AA180" s="263"/>
+      <c r="AB180" s="264"/>
+      <c r="AC180" s="264"/>
+      <c r="AD180" s="265"/>
     </row>
     <row r="181" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B181" s="94"/>
@@ -43415,10 +43459,10 @@
       <c r="X181" s="192"/>
       <c r="Y181" s="192"/>
       <c r="Z181" s="193"/>
-      <c r="AA181" s="241"/>
-      <c r="AB181" s="242"/>
-      <c r="AC181" s="242"/>
-      <c r="AD181" s="243"/>
+      <c r="AA181" s="263"/>
+      <c r="AB181" s="264"/>
+      <c r="AC181" s="264"/>
+      <c r="AD181" s="265"/>
     </row>
     <row r="182" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B182" s="117"/>
@@ -43446,17 +43490,17 @@
       <c r="X182" s="195"/>
       <c r="Y182" s="195"/>
       <c r="Z182" s="196"/>
-      <c r="AA182" s="244"/>
-      <c r="AB182" s="245"/>
-      <c r="AC182" s="245"/>
-      <c r="AD182" s="246"/>
+      <c r="AA182" s="266"/>
+      <c r="AB182" s="267"/>
+      <c r="AC182" s="267"/>
+      <c r="AD182" s="268"/>
     </row>
     <row r="183" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="93" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="C183" s="170" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D183" s="162"/>
       <c r="E183" s="162"/>
@@ -43466,7 +43510,7 @@
       <c r="I183" s="162"/>
       <c r="J183" s="163"/>
       <c r="K183" s="170" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L183" s="162"/>
       <c r="M183" s="162"/>
@@ -43483,10 +43527,12 @@
       <c r="X183" s="189"/>
       <c r="Y183" s="189"/>
       <c r="Z183" s="190"/>
-      <c r="AA183" s="260"/>
-      <c r="AB183" s="261"/>
-      <c r="AC183" s="261"/>
-      <c r="AD183" s="262"/>
+      <c r="AA183" s="238" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB183" s="239"/>
+      <c r="AC183" s="239"/>
+      <c r="AD183" s="240"/>
     </row>
     <row r="184" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B184" s="94"/>
@@ -43514,10 +43560,10 @@
       <c r="X184" s="192"/>
       <c r="Y184" s="192"/>
       <c r="Z184" s="193"/>
-      <c r="AA184" s="263"/>
-      <c r="AB184" s="264"/>
-      <c r="AC184" s="264"/>
-      <c r="AD184" s="265"/>
+      <c r="AA184" s="241"/>
+      <c r="AB184" s="242"/>
+      <c r="AC184" s="242"/>
+      <c r="AD184" s="243"/>
     </row>
     <row r="185" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B185" s="94"/>
@@ -43545,10 +43591,10 @@
       <c r="X185" s="192"/>
       <c r="Y185" s="192"/>
       <c r="Z185" s="193"/>
-      <c r="AA185" s="263"/>
-      <c r="AB185" s="264"/>
-      <c r="AC185" s="264"/>
-      <c r="AD185" s="265"/>
+      <c r="AA185" s="241"/>
+      <c r="AB185" s="242"/>
+      <c r="AC185" s="242"/>
+      <c r="AD185" s="243"/>
     </row>
     <row r="186" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B186" s="94"/>
@@ -43576,10 +43622,10 @@
       <c r="X186" s="192"/>
       <c r="Y186" s="192"/>
       <c r="Z186" s="193"/>
-      <c r="AA186" s="263"/>
-      <c r="AB186" s="264"/>
-      <c r="AC186" s="264"/>
-      <c r="AD186" s="265"/>
+      <c r="AA186" s="241"/>
+      <c r="AB186" s="242"/>
+      <c r="AC186" s="242"/>
+      <c r="AD186" s="243"/>
     </row>
     <row r="187" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B187" s="94"/>
@@ -43607,10 +43653,10 @@
       <c r="X187" s="192"/>
       <c r="Y187" s="192"/>
       <c r="Z187" s="193"/>
-      <c r="AA187" s="263"/>
-      <c r="AB187" s="264"/>
-      <c r="AC187" s="264"/>
-      <c r="AD187" s="265"/>
+      <c r="AA187" s="241"/>
+      <c r="AB187" s="242"/>
+      <c r="AC187" s="242"/>
+      <c r="AD187" s="243"/>
     </row>
     <row r="188" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B188" s="94"/>
@@ -43638,10 +43684,10 @@
       <c r="X188" s="192"/>
       <c r="Y188" s="192"/>
       <c r="Z188" s="193"/>
-      <c r="AA188" s="263"/>
-      <c r="AB188" s="264"/>
-      <c r="AC188" s="264"/>
-      <c r="AD188" s="265"/>
+      <c r="AA188" s="241"/>
+      <c r="AB188" s="242"/>
+      <c r="AC188" s="242"/>
+      <c r="AD188" s="243"/>
     </row>
     <row r="189" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B189" s="94"/>
@@ -43669,10 +43715,10 @@
       <c r="X189" s="192"/>
       <c r="Y189" s="192"/>
       <c r="Z189" s="193"/>
-      <c r="AA189" s="263"/>
-      <c r="AB189" s="264"/>
-      <c r="AC189" s="264"/>
-      <c r="AD189" s="265"/>
+      <c r="AA189" s="241"/>
+      <c r="AB189" s="242"/>
+      <c r="AC189" s="242"/>
+      <c r="AD189" s="243"/>
     </row>
     <row r="190" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B190" s="94"/>
@@ -43700,10 +43746,10 @@
       <c r="X190" s="192"/>
       <c r="Y190" s="192"/>
       <c r="Z190" s="193"/>
-      <c r="AA190" s="263"/>
-      <c r="AB190" s="264"/>
-      <c r="AC190" s="264"/>
-      <c r="AD190" s="265"/>
+      <c r="AA190" s="241"/>
+      <c r="AB190" s="242"/>
+      <c r="AC190" s="242"/>
+      <c r="AD190" s="243"/>
     </row>
     <row r="191" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B191" s="94"/>
@@ -43731,10 +43777,10 @@
       <c r="X191" s="192"/>
       <c r="Y191" s="192"/>
       <c r="Z191" s="193"/>
-      <c r="AA191" s="263"/>
-      <c r="AB191" s="264"/>
-      <c r="AC191" s="264"/>
-      <c r="AD191" s="265"/>
+      <c r="AA191" s="241"/>
+      <c r="AB191" s="242"/>
+      <c r="AC191" s="242"/>
+      <c r="AD191" s="243"/>
     </row>
     <row r="192" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B192" s="117"/>
@@ -43762,26 +43808,28 @@
       <c r="X192" s="195"/>
       <c r="Y192" s="195"/>
       <c r="Z192" s="196"/>
-      <c r="AA192" s="266"/>
-      <c r="AB192" s="267"/>
-      <c r="AC192" s="267"/>
-      <c r="AD192" s="268"/>
+      <c r="AA192" s="244"/>
+      <c r="AB192" s="245"/>
+      <c r="AC192" s="245"/>
+      <c r="AD192" s="246"/>
     </row>
     <row r="193" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="93" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C193" s="170" t="s">
-        <v>201</v>
-      </c>
-      <c r="D193" s="189"/>
-      <c r="E193" s="189"/>
-      <c r="F193" s="189"/>
-      <c r="G193" s="189"/>
-      <c r="H193" s="189"/>
-      <c r="I193" s="189"/>
-      <c r="J193" s="190"/>
-      <c r="K193" s="170"/>
+        <v>241</v>
+      </c>
+      <c r="D193" s="162"/>
+      <c r="E193" s="162"/>
+      <c r="F193" s="162"/>
+      <c r="G193" s="162"/>
+      <c r="H193" s="162"/>
+      <c r="I193" s="162"/>
+      <c r="J193" s="163"/>
+      <c r="K193" s="170" t="s">
+        <v>239</v>
+      </c>
       <c r="L193" s="162"/>
       <c r="M193" s="162"/>
       <c r="N193" s="162"/>
@@ -43789,9 +43837,7 @@
       <c r="P193" s="162"/>
       <c r="Q193" s="162"/>
       <c r="R193" s="163"/>
-      <c r="S193" s="161" t="s">
-        <v>230</v>
-      </c>
+      <c r="S193" s="161"/>
       <c r="T193" s="189"/>
       <c r="U193" s="189"/>
       <c r="V193" s="189"/>
@@ -43799,23 +43845,21 @@
       <c r="X193" s="189"/>
       <c r="Y193" s="189"/>
       <c r="Z193" s="190"/>
-      <c r="AA193" s="238" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB193" s="239"/>
-      <c r="AC193" s="239"/>
-      <c r="AD193" s="240"/>
+      <c r="AA193" s="260"/>
+      <c r="AB193" s="261"/>
+      <c r="AC193" s="261"/>
+      <c r="AD193" s="262"/>
     </row>
     <row r="194" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B194" s="94"/>
-      <c r="C194" s="191"/>
-      <c r="D194" s="192"/>
-      <c r="E194" s="192"/>
-      <c r="F194" s="192"/>
-      <c r="G194" s="192"/>
-      <c r="H194" s="192"/>
-      <c r="I194" s="192"/>
-      <c r="J194" s="193"/>
+      <c r="C194" s="164"/>
+      <c r="D194" s="165"/>
+      <c r="E194" s="165"/>
+      <c r="F194" s="165"/>
+      <c r="G194" s="165"/>
+      <c r="H194" s="165"/>
+      <c r="I194" s="165"/>
+      <c r="J194" s="166"/>
       <c r="K194" s="164"/>
       <c r="L194" s="165"/>
       <c r="M194" s="165"/>
@@ -43832,21 +43876,21 @@
       <c r="X194" s="192"/>
       <c r="Y194" s="192"/>
       <c r="Z194" s="193"/>
-      <c r="AA194" s="241"/>
-      <c r="AB194" s="242"/>
-      <c r="AC194" s="242"/>
-      <c r="AD194" s="243"/>
+      <c r="AA194" s="263"/>
+      <c r="AB194" s="264"/>
+      <c r="AC194" s="264"/>
+      <c r="AD194" s="265"/>
     </row>
     <row r="195" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B195" s="94"/>
-      <c r="C195" s="191"/>
-      <c r="D195" s="192"/>
-      <c r="E195" s="192"/>
-      <c r="F195" s="192"/>
-      <c r="G195" s="192"/>
-      <c r="H195" s="192"/>
-      <c r="I195" s="192"/>
-      <c r="J195" s="193"/>
+      <c r="C195" s="164"/>
+      <c r="D195" s="165"/>
+      <c r="E195" s="165"/>
+      <c r="F195" s="165"/>
+      <c r="G195" s="165"/>
+      <c r="H195" s="165"/>
+      <c r="I195" s="165"/>
+      <c r="J195" s="166"/>
       <c r="K195" s="164"/>
       <c r="L195" s="165"/>
       <c r="M195" s="165"/>
@@ -43863,21 +43907,21 @@
       <c r="X195" s="192"/>
       <c r="Y195" s="192"/>
       <c r="Z195" s="193"/>
-      <c r="AA195" s="241"/>
-      <c r="AB195" s="242"/>
-      <c r="AC195" s="242"/>
-      <c r="AD195" s="243"/>
+      <c r="AA195" s="263"/>
+      <c r="AB195" s="264"/>
+      <c r="AC195" s="264"/>
+      <c r="AD195" s="265"/>
     </row>
     <row r="196" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B196" s="94"/>
-      <c r="C196" s="191"/>
-      <c r="D196" s="192"/>
-      <c r="E196" s="192"/>
-      <c r="F196" s="192"/>
-      <c r="G196" s="192"/>
-      <c r="H196" s="192"/>
-      <c r="I196" s="192"/>
-      <c r="J196" s="193"/>
+      <c r="C196" s="164"/>
+      <c r="D196" s="165"/>
+      <c r="E196" s="165"/>
+      <c r="F196" s="165"/>
+      <c r="G196" s="165"/>
+      <c r="H196" s="165"/>
+      <c r="I196" s="165"/>
+      <c r="J196" s="166"/>
       <c r="K196" s="164"/>
       <c r="L196" s="165"/>
       <c r="M196" s="165"/>
@@ -43894,21 +43938,21 @@
       <c r="X196" s="192"/>
       <c r="Y196" s="192"/>
       <c r="Z196" s="193"/>
-      <c r="AA196" s="241"/>
-      <c r="AB196" s="242"/>
-      <c r="AC196" s="242"/>
-      <c r="AD196" s="243"/>
+      <c r="AA196" s="263"/>
+      <c r="AB196" s="264"/>
+      <c r="AC196" s="264"/>
+      <c r="AD196" s="265"/>
     </row>
     <row r="197" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B197" s="94"/>
-      <c r="C197" s="191"/>
-      <c r="D197" s="192"/>
-      <c r="E197" s="192"/>
-      <c r="F197" s="192"/>
-      <c r="G197" s="192"/>
-      <c r="H197" s="192"/>
-      <c r="I197" s="192"/>
-      <c r="J197" s="193"/>
+      <c r="C197" s="164"/>
+      <c r="D197" s="165"/>
+      <c r="E197" s="165"/>
+      <c r="F197" s="165"/>
+      <c r="G197" s="165"/>
+      <c r="H197" s="165"/>
+      <c r="I197" s="165"/>
+      <c r="J197" s="166"/>
       <c r="K197" s="164"/>
       <c r="L197" s="165"/>
       <c r="M197" s="165"/>
@@ -43925,21 +43969,21 @@
       <c r="X197" s="192"/>
       <c r="Y197" s="192"/>
       <c r="Z197" s="193"/>
-      <c r="AA197" s="241"/>
-      <c r="AB197" s="242"/>
-      <c r="AC197" s="242"/>
-      <c r="AD197" s="243"/>
+      <c r="AA197" s="263"/>
+      <c r="AB197" s="264"/>
+      <c r="AC197" s="264"/>
+      <c r="AD197" s="265"/>
     </row>
     <row r="198" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B198" s="94"/>
-      <c r="C198" s="191"/>
-      <c r="D198" s="192"/>
-      <c r="E198" s="192"/>
-      <c r="F198" s="192"/>
-      <c r="G198" s="192"/>
-      <c r="H198" s="192"/>
-      <c r="I198" s="192"/>
-      <c r="J198" s="193"/>
+      <c r="C198" s="164"/>
+      <c r="D198" s="165"/>
+      <c r="E198" s="165"/>
+      <c r="F198" s="165"/>
+      <c r="G198" s="165"/>
+      <c r="H198" s="165"/>
+      <c r="I198" s="165"/>
+      <c r="J198" s="166"/>
       <c r="K198" s="164"/>
       <c r="L198" s="165"/>
       <c r="M198" s="165"/>
@@ -43956,21 +44000,21 @@
       <c r="X198" s="192"/>
       <c r="Y198" s="192"/>
       <c r="Z198" s="193"/>
-      <c r="AA198" s="241"/>
-      <c r="AB198" s="242"/>
-      <c r="AC198" s="242"/>
-      <c r="AD198" s="243"/>
+      <c r="AA198" s="263"/>
+      <c r="AB198" s="264"/>
+      <c r="AC198" s="264"/>
+      <c r="AD198" s="265"/>
     </row>
     <row r="199" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B199" s="94"/>
-      <c r="C199" s="191"/>
-      <c r="D199" s="192"/>
-      <c r="E199" s="192"/>
-      <c r="F199" s="192"/>
-      <c r="G199" s="192"/>
-      <c r="H199" s="192"/>
-      <c r="I199" s="192"/>
-      <c r="J199" s="193"/>
+      <c r="C199" s="164"/>
+      <c r="D199" s="165"/>
+      <c r="E199" s="165"/>
+      <c r="F199" s="165"/>
+      <c r="G199" s="165"/>
+      <c r="H199" s="165"/>
+      <c r="I199" s="165"/>
+      <c r="J199" s="166"/>
       <c r="K199" s="164"/>
       <c r="L199" s="165"/>
       <c r="M199" s="165"/>
@@ -43987,21 +44031,21 @@
       <c r="X199" s="192"/>
       <c r="Y199" s="192"/>
       <c r="Z199" s="193"/>
-      <c r="AA199" s="241"/>
-      <c r="AB199" s="242"/>
-      <c r="AC199" s="242"/>
-      <c r="AD199" s="243"/>
+      <c r="AA199" s="263"/>
+      <c r="AB199" s="264"/>
+      <c r="AC199" s="264"/>
+      <c r="AD199" s="265"/>
     </row>
     <row r="200" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B200" s="94"/>
-      <c r="C200" s="191"/>
-      <c r="D200" s="192"/>
-      <c r="E200" s="192"/>
-      <c r="F200" s="192"/>
-      <c r="G200" s="192"/>
-      <c r="H200" s="192"/>
-      <c r="I200" s="192"/>
-      <c r="J200" s="193"/>
+      <c r="C200" s="164"/>
+      <c r="D200" s="165"/>
+      <c r="E200" s="165"/>
+      <c r="F200" s="165"/>
+      <c r="G200" s="165"/>
+      <c r="H200" s="165"/>
+      <c r="I200" s="165"/>
+      <c r="J200" s="166"/>
       <c r="K200" s="164"/>
       <c r="L200" s="165"/>
       <c r="M200" s="165"/>
@@ -44018,21 +44062,21 @@
       <c r="X200" s="192"/>
       <c r="Y200" s="192"/>
       <c r="Z200" s="193"/>
-      <c r="AA200" s="241"/>
-      <c r="AB200" s="242"/>
-      <c r="AC200" s="242"/>
-      <c r="AD200" s="243"/>
+      <c r="AA200" s="263"/>
+      <c r="AB200" s="264"/>
+      <c r="AC200" s="264"/>
+      <c r="AD200" s="265"/>
     </row>
     <row r="201" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B201" s="94"/>
-      <c r="C201" s="191"/>
-      <c r="D201" s="192"/>
-      <c r="E201" s="192"/>
-      <c r="F201" s="192"/>
-      <c r="G201" s="192"/>
-      <c r="H201" s="192"/>
-      <c r="I201" s="192"/>
-      <c r="J201" s="193"/>
+      <c r="C201" s="164"/>
+      <c r="D201" s="165"/>
+      <c r="E201" s="165"/>
+      <c r="F201" s="165"/>
+      <c r="G201" s="165"/>
+      <c r="H201" s="165"/>
+      <c r="I201" s="165"/>
+      <c r="J201" s="166"/>
       <c r="K201" s="164"/>
       <c r="L201" s="165"/>
       <c r="M201" s="165"/>
@@ -44049,21 +44093,21 @@
       <c r="X201" s="192"/>
       <c r="Y201" s="192"/>
       <c r="Z201" s="193"/>
-      <c r="AA201" s="241"/>
-      <c r="AB201" s="242"/>
-      <c r="AC201" s="242"/>
-      <c r="AD201" s="243"/>
+      <c r="AA201" s="263"/>
+      <c r="AB201" s="264"/>
+      <c r="AC201" s="264"/>
+      <c r="AD201" s="265"/>
     </row>
     <row r="202" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B202" s="117"/>
-      <c r="C202" s="194"/>
-      <c r="D202" s="195"/>
-      <c r="E202" s="195"/>
-      <c r="F202" s="195"/>
-      <c r="G202" s="195"/>
-      <c r="H202" s="195"/>
-      <c r="I202" s="195"/>
-      <c r="J202" s="196"/>
+      <c r="C202" s="167"/>
+      <c r="D202" s="168"/>
+      <c r="E202" s="168"/>
+      <c r="F202" s="168"/>
+      <c r="G202" s="168"/>
+      <c r="H202" s="168"/>
+      <c r="I202" s="168"/>
+      <c r="J202" s="169"/>
       <c r="K202" s="167"/>
       <c r="L202" s="168"/>
       <c r="M202" s="168"/>
@@ -44080,14 +44124,14 @@
       <c r="X202" s="195"/>
       <c r="Y202" s="195"/>
       <c r="Z202" s="196"/>
-      <c r="AA202" s="244"/>
-      <c r="AB202" s="245"/>
-      <c r="AC202" s="245"/>
-      <c r="AD202" s="246"/>
+      <c r="AA202" s="266"/>
+      <c r="AB202" s="267"/>
+      <c r="AC202" s="267"/>
+      <c r="AD202" s="268"/>
     </row>
     <row r="203" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="93" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C203" s="170" t="s">
         <v>201</v>
@@ -44107,7 +44151,9 @@
       <c r="P203" s="162"/>
       <c r="Q203" s="162"/>
       <c r="R203" s="163"/>
-      <c r="S203" s="161"/>
+      <c r="S203" s="161" t="s">
+        <v>230</v>
+      </c>
       <c r="T203" s="189"/>
       <c r="U203" s="189"/>
       <c r="V203" s="189"/>
@@ -44116,7 +44162,7 @@
       <c r="Y203" s="189"/>
       <c r="Z203" s="190"/>
       <c r="AA203" s="238" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="AB203" s="239"/>
       <c r="AC203" s="239"/>
@@ -44403,10 +44449,10 @@
     </row>
     <row r="213" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="93" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C213" s="170" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D213" s="189"/>
       <c r="E213" s="189"/>
@@ -44431,10 +44477,12 @@
       <c r="X213" s="189"/>
       <c r="Y213" s="189"/>
       <c r="Z213" s="190"/>
-      <c r="AA213" s="278"/>
-      <c r="AB213" s="261"/>
-      <c r="AC213" s="261"/>
-      <c r="AD213" s="262"/>
+      <c r="AA213" s="238" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB213" s="239"/>
+      <c r="AC213" s="239"/>
+      <c r="AD213" s="240"/>
     </row>
     <row r="214" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B214" s="94"/>
@@ -44462,10 +44510,10 @@
       <c r="X214" s="192"/>
       <c r="Y214" s="192"/>
       <c r="Z214" s="193"/>
-      <c r="AA214" s="263"/>
-      <c r="AB214" s="264"/>
-      <c r="AC214" s="264"/>
-      <c r="AD214" s="265"/>
+      <c r="AA214" s="241"/>
+      <c r="AB214" s="242"/>
+      <c r="AC214" s="242"/>
+      <c r="AD214" s="243"/>
     </row>
     <row r="215" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B215" s="94"/>
@@ -44493,10 +44541,10 @@
       <c r="X215" s="192"/>
       <c r="Y215" s="192"/>
       <c r="Z215" s="193"/>
-      <c r="AA215" s="263"/>
-      <c r="AB215" s="264"/>
-      <c r="AC215" s="264"/>
-      <c r="AD215" s="265"/>
+      <c r="AA215" s="241"/>
+      <c r="AB215" s="242"/>
+      <c r="AC215" s="242"/>
+      <c r="AD215" s="243"/>
     </row>
     <row r="216" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B216" s="94"/>
@@ -44524,10 +44572,10 @@
       <c r="X216" s="192"/>
       <c r="Y216" s="192"/>
       <c r="Z216" s="193"/>
-      <c r="AA216" s="263"/>
-      <c r="AB216" s="264"/>
-      <c r="AC216" s="264"/>
-      <c r="AD216" s="265"/>
+      <c r="AA216" s="241"/>
+      <c r="AB216" s="242"/>
+      <c r="AC216" s="242"/>
+      <c r="AD216" s="243"/>
     </row>
     <row r="217" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B217" s="94"/>
@@ -44555,10 +44603,10 @@
       <c r="X217" s="192"/>
       <c r="Y217" s="192"/>
       <c r="Z217" s="193"/>
-      <c r="AA217" s="263"/>
-      <c r="AB217" s="264"/>
-      <c r="AC217" s="264"/>
-      <c r="AD217" s="265"/>
+      <c r="AA217" s="241"/>
+      <c r="AB217" s="242"/>
+      <c r="AC217" s="242"/>
+      <c r="AD217" s="243"/>
     </row>
     <row r="218" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B218" s="94"/>
@@ -44586,10 +44634,10 @@
       <c r="X218" s="192"/>
       <c r="Y218" s="192"/>
       <c r="Z218" s="193"/>
-      <c r="AA218" s="263"/>
-      <c r="AB218" s="264"/>
-      <c r="AC218" s="264"/>
-      <c r="AD218" s="265"/>
+      <c r="AA218" s="241"/>
+      <c r="AB218" s="242"/>
+      <c r="AC218" s="242"/>
+      <c r="AD218" s="243"/>
     </row>
     <row r="219" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B219" s="94"/>
@@ -44617,10 +44665,10 @@
       <c r="X219" s="192"/>
       <c r="Y219" s="192"/>
       <c r="Z219" s="193"/>
-      <c r="AA219" s="263"/>
-      <c r="AB219" s="264"/>
-      <c r="AC219" s="264"/>
-      <c r="AD219" s="265"/>
+      <c r="AA219" s="241"/>
+      <c r="AB219" s="242"/>
+      <c r="AC219" s="242"/>
+      <c r="AD219" s="243"/>
     </row>
     <row r="220" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B220" s="94"/>
@@ -44648,10 +44696,10 @@
       <c r="X220" s="192"/>
       <c r="Y220" s="192"/>
       <c r="Z220" s="193"/>
-      <c r="AA220" s="263"/>
-      <c r="AB220" s="264"/>
-      <c r="AC220" s="264"/>
-      <c r="AD220" s="265"/>
+      <c r="AA220" s="241"/>
+      <c r="AB220" s="242"/>
+      <c r="AC220" s="242"/>
+      <c r="AD220" s="243"/>
     </row>
     <row r="221" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B221" s="94"/>
@@ -44679,10 +44727,10 @@
       <c r="X221" s="192"/>
       <c r="Y221" s="192"/>
       <c r="Z221" s="193"/>
-      <c r="AA221" s="263"/>
-      <c r="AB221" s="264"/>
-      <c r="AC221" s="264"/>
-      <c r="AD221" s="265"/>
+      <c r="AA221" s="241"/>
+      <c r="AB221" s="242"/>
+      <c r="AC221" s="242"/>
+      <c r="AD221" s="243"/>
     </row>
     <row r="222" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B222" s="117"/>
@@ -44710,17 +44758,17 @@
       <c r="X222" s="195"/>
       <c r="Y222" s="195"/>
       <c r="Z222" s="196"/>
-      <c r="AA222" s="266"/>
-      <c r="AB222" s="267"/>
-      <c r="AC222" s="267"/>
-      <c r="AD222" s="268"/>
+      <c r="AA222" s="244"/>
+      <c r="AB222" s="245"/>
+      <c r="AC222" s="245"/>
+      <c r="AD222" s="246"/>
     </row>
     <row r="223" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="93" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C223" s="170" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D223" s="189"/>
       <c r="E223" s="189"/>
@@ -45031,10 +45079,10 @@
     </row>
     <row r="233" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="93" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C233" s="170" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D233" s="189"/>
       <c r="E233" s="189"/>
@@ -45345,10 +45393,10 @@
     </row>
     <row r="243" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="93" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="C243" s="170" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="D243" s="189"/>
       <c r="E243" s="189"/>
@@ -45357,9 +45405,7 @@
       <c r="H243" s="189"/>
       <c r="I243" s="189"/>
       <c r="J243" s="190"/>
-      <c r="K243" s="170" t="s">
-        <v>127</v>
-      </c>
+      <c r="K243" s="170"/>
       <c r="L243" s="162"/>
       <c r="M243" s="162"/>
       <c r="N243" s="162"/>
@@ -45367,9 +45413,7 @@
       <c r="P243" s="162"/>
       <c r="Q243" s="162"/>
       <c r="R243" s="163"/>
-      <c r="S243" s="161" t="s">
-        <v>128</v>
-      </c>
+      <c r="S243" s="161"/>
       <c r="T243" s="189"/>
       <c r="U243" s="189"/>
       <c r="V243" s="189"/>
@@ -45377,12 +45421,10 @@
       <c r="X243" s="189"/>
       <c r="Y243" s="189"/>
       <c r="Z243" s="190"/>
-      <c r="AA243" s="259" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB243" s="239"/>
-      <c r="AC243" s="239"/>
-      <c r="AD243" s="240"/>
+      <c r="AA243" s="278"/>
+      <c r="AB243" s="261"/>
+      <c r="AC243" s="261"/>
+      <c r="AD243" s="262"/>
     </row>
     <row r="244" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B244" s="94"/>
@@ -45410,10 +45452,10 @@
       <c r="X244" s="192"/>
       <c r="Y244" s="192"/>
       <c r="Z244" s="193"/>
-      <c r="AA244" s="241"/>
-      <c r="AB244" s="242"/>
-      <c r="AC244" s="242"/>
-      <c r="AD244" s="243"/>
+      <c r="AA244" s="263"/>
+      <c r="AB244" s="264"/>
+      <c r="AC244" s="264"/>
+      <c r="AD244" s="265"/>
     </row>
     <row r="245" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B245" s="94"/>
@@ -45441,10 +45483,10 @@
       <c r="X245" s="192"/>
       <c r="Y245" s="192"/>
       <c r="Z245" s="193"/>
-      <c r="AA245" s="241"/>
-      <c r="AB245" s="242"/>
-      <c r="AC245" s="242"/>
-      <c r="AD245" s="243"/>
+      <c r="AA245" s="263"/>
+      <c r="AB245" s="264"/>
+      <c r="AC245" s="264"/>
+      <c r="AD245" s="265"/>
     </row>
     <row r="246" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B246" s="94"/>
@@ -45472,10 +45514,10 @@
       <c r="X246" s="192"/>
       <c r="Y246" s="192"/>
       <c r="Z246" s="193"/>
-      <c r="AA246" s="241"/>
-      <c r="AB246" s="242"/>
-      <c r="AC246" s="242"/>
-      <c r="AD246" s="243"/>
+      <c r="AA246" s="263"/>
+      <c r="AB246" s="264"/>
+      <c r="AC246" s="264"/>
+      <c r="AD246" s="265"/>
     </row>
     <row r="247" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B247" s="94"/>
@@ -45503,10 +45545,10 @@
       <c r="X247" s="192"/>
       <c r="Y247" s="192"/>
       <c r="Z247" s="193"/>
-      <c r="AA247" s="241"/>
-      <c r="AB247" s="242"/>
-      <c r="AC247" s="242"/>
-      <c r="AD247" s="243"/>
+      <c r="AA247" s="263"/>
+      <c r="AB247" s="264"/>
+      <c r="AC247" s="264"/>
+      <c r="AD247" s="265"/>
     </row>
     <row r="248" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B248" s="94"/>
@@ -45534,10 +45576,10 @@
       <c r="X248" s="192"/>
       <c r="Y248" s="192"/>
       <c r="Z248" s="193"/>
-      <c r="AA248" s="241"/>
-      <c r="AB248" s="242"/>
-      <c r="AC248" s="242"/>
-      <c r="AD248" s="243"/>
+      <c r="AA248" s="263"/>
+      <c r="AB248" s="264"/>
+      <c r="AC248" s="264"/>
+      <c r="AD248" s="265"/>
     </row>
     <row r="249" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B249" s="94"/>
@@ -45565,10 +45607,10 @@
       <c r="X249" s="192"/>
       <c r="Y249" s="192"/>
       <c r="Z249" s="193"/>
-      <c r="AA249" s="241"/>
-      <c r="AB249" s="242"/>
-      <c r="AC249" s="242"/>
-      <c r="AD249" s="243"/>
+      <c r="AA249" s="263"/>
+      <c r="AB249" s="264"/>
+      <c r="AC249" s="264"/>
+      <c r="AD249" s="265"/>
     </row>
     <row r="250" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B250" s="94"/>
@@ -45596,10 +45638,10 @@
       <c r="X250" s="192"/>
       <c r="Y250" s="192"/>
       <c r="Z250" s="193"/>
-      <c r="AA250" s="241"/>
-      <c r="AB250" s="242"/>
-      <c r="AC250" s="242"/>
-      <c r="AD250" s="243"/>
+      <c r="AA250" s="263"/>
+      <c r="AB250" s="264"/>
+      <c r="AC250" s="264"/>
+      <c r="AD250" s="265"/>
     </row>
     <row r="251" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B251" s="94"/>
@@ -45627,10 +45669,10 @@
       <c r="X251" s="192"/>
       <c r="Y251" s="192"/>
       <c r="Z251" s="193"/>
-      <c r="AA251" s="241"/>
-      <c r="AB251" s="242"/>
-      <c r="AC251" s="242"/>
-      <c r="AD251" s="243"/>
+      <c r="AA251" s="263"/>
+      <c r="AB251" s="264"/>
+      <c r="AC251" s="264"/>
+      <c r="AD251" s="265"/>
     </row>
     <row r="252" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B252" s="117"/>
@@ -45658,16 +45700,18 @@
       <c r="X252" s="195"/>
       <c r="Y252" s="195"/>
       <c r="Z252" s="196"/>
-      <c r="AA252" s="244"/>
-      <c r="AB252" s="245"/>
-      <c r="AC252" s="245"/>
-      <c r="AD252" s="246"/>
+      <c r="AA252" s="266"/>
+      <c r="AB252" s="267"/>
+      <c r="AC252" s="267"/>
+      <c r="AD252" s="268"/>
     </row>
     <row r="253" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="C253" s="161"/>
+        <v>123</v>
+      </c>
+      <c r="C253" s="170" t="s">
+        <v>126</v>
+      </c>
       <c r="D253" s="189"/>
       <c r="E253" s="189"/>
       <c r="F253" s="189"/>
@@ -45675,7 +45719,9 @@
       <c r="H253" s="189"/>
       <c r="I253" s="189"/>
       <c r="J253" s="190"/>
-      <c r="K253" s="170"/>
+      <c r="K253" s="170" t="s">
+        <v>127</v>
+      </c>
       <c r="L253" s="162"/>
       <c r="M253" s="162"/>
       <c r="N253" s="162"/>
@@ -45684,7 +45730,7 @@
       <c r="Q253" s="162"/>
       <c r="R253" s="163"/>
       <c r="S253" s="161" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="T253" s="189"/>
       <c r="U253" s="189"/>
@@ -45693,10 +45739,12 @@
       <c r="X253" s="189"/>
       <c r="Y253" s="189"/>
       <c r="Z253" s="190"/>
-      <c r="AA253" s="260"/>
-      <c r="AB253" s="261"/>
-      <c r="AC253" s="261"/>
-      <c r="AD253" s="262"/>
+      <c r="AA253" s="259" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB253" s="239"/>
+      <c r="AC253" s="239"/>
+      <c r="AD253" s="240"/>
     </row>
     <row r="254" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B254" s="94"/>
@@ -45724,10 +45772,10 @@
       <c r="X254" s="192"/>
       <c r="Y254" s="192"/>
       <c r="Z254" s="193"/>
-      <c r="AA254" s="263"/>
-      <c r="AB254" s="264"/>
-      <c r="AC254" s="264"/>
-      <c r="AD254" s="265"/>
+      <c r="AA254" s="241"/>
+      <c r="AB254" s="242"/>
+      <c r="AC254" s="242"/>
+      <c r="AD254" s="243"/>
     </row>
     <row r="255" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B255" s="94"/>
@@ -45755,10 +45803,10 @@
       <c r="X255" s="192"/>
       <c r="Y255" s="192"/>
       <c r="Z255" s="193"/>
-      <c r="AA255" s="263"/>
-      <c r="AB255" s="264"/>
-      <c r="AC255" s="264"/>
-      <c r="AD255" s="265"/>
+      <c r="AA255" s="241"/>
+      <c r="AB255" s="242"/>
+      <c r="AC255" s="242"/>
+      <c r="AD255" s="243"/>
     </row>
     <row r="256" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B256" s="94"/>
@@ -45786,10 +45834,10 @@
       <c r="X256" s="192"/>
       <c r="Y256" s="192"/>
       <c r="Z256" s="193"/>
-      <c r="AA256" s="263"/>
-      <c r="AB256" s="264"/>
-      <c r="AC256" s="264"/>
-      <c r="AD256" s="265"/>
+      <c r="AA256" s="241"/>
+      <c r="AB256" s="242"/>
+      <c r="AC256" s="242"/>
+      <c r="AD256" s="243"/>
     </row>
     <row r="257" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B257" s="94"/>
@@ -45817,10 +45865,10 @@
       <c r="X257" s="192"/>
       <c r="Y257" s="192"/>
       <c r="Z257" s="193"/>
-      <c r="AA257" s="263"/>
-      <c r="AB257" s="264"/>
-      <c r="AC257" s="264"/>
-      <c r="AD257" s="265"/>
+      <c r="AA257" s="241"/>
+      <c r="AB257" s="242"/>
+      <c r="AC257" s="242"/>
+      <c r="AD257" s="243"/>
     </row>
     <row r="258" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B258" s="94"/>
@@ -45848,10 +45896,10 @@
       <c r="X258" s="192"/>
       <c r="Y258" s="192"/>
       <c r="Z258" s="193"/>
-      <c r="AA258" s="263"/>
-      <c r="AB258" s="264"/>
-      <c r="AC258" s="264"/>
-      <c r="AD258" s="265"/>
+      <c r="AA258" s="241"/>
+      <c r="AB258" s="242"/>
+      <c r="AC258" s="242"/>
+      <c r="AD258" s="243"/>
     </row>
     <row r="259" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B259" s="94"/>
@@ -45879,10 +45927,10 @@
       <c r="X259" s="192"/>
       <c r="Y259" s="192"/>
       <c r="Z259" s="193"/>
-      <c r="AA259" s="263"/>
-      <c r="AB259" s="264"/>
-      <c r="AC259" s="264"/>
-      <c r="AD259" s="265"/>
+      <c r="AA259" s="241"/>
+      <c r="AB259" s="242"/>
+      <c r="AC259" s="242"/>
+      <c r="AD259" s="243"/>
     </row>
     <row r="260" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B260" s="94"/>
@@ -45910,10 +45958,10 @@
       <c r="X260" s="192"/>
       <c r="Y260" s="192"/>
       <c r="Z260" s="193"/>
-      <c r="AA260" s="263"/>
-      <c r="AB260" s="264"/>
-      <c r="AC260" s="264"/>
-      <c r="AD260" s="265"/>
+      <c r="AA260" s="241"/>
+      <c r="AB260" s="242"/>
+      <c r="AC260" s="242"/>
+      <c r="AD260" s="243"/>
     </row>
     <row r="261" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B261" s="94"/>
@@ -45941,10 +45989,10 @@
       <c r="X261" s="192"/>
       <c r="Y261" s="192"/>
       <c r="Z261" s="193"/>
-      <c r="AA261" s="263"/>
-      <c r="AB261" s="264"/>
-      <c r="AC261" s="264"/>
-      <c r="AD261" s="265"/>
+      <c r="AA261" s="241"/>
+      <c r="AB261" s="242"/>
+      <c r="AC261" s="242"/>
+      <c r="AD261" s="243"/>
     </row>
     <row r="262" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B262" s="117"/>
@@ -45972,18 +46020,16 @@
       <c r="X262" s="195"/>
       <c r="Y262" s="195"/>
       <c r="Z262" s="196"/>
-      <c r="AA262" s="266"/>
-      <c r="AB262" s="267"/>
-      <c r="AC262" s="267"/>
-      <c r="AD262" s="268"/>
+      <c r="AA262" s="244"/>
+      <c r="AB262" s="245"/>
+      <c r="AC262" s="245"/>
+      <c r="AD262" s="246"/>
     </row>
     <row r="263" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C263" s="161" t="s">
-        <v>109</v>
-      </c>
+      <c r="C263" s="161"/>
       <c r="D263" s="189"/>
       <c r="E263" s="189"/>
       <c r="F263" s="189"/>
@@ -45999,7 +46045,9 @@
       <c r="P263" s="162"/>
       <c r="Q263" s="162"/>
       <c r="R263" s="163"/>
-      <c r="S263" s="161"/>
+      <c r="S263" s="161" t="s">
+        <v>121</v>
+      </c>
       <c r="T263" s="189"/>
       <c r="U263" s="189"/>
       <c r="V263" s="189"/>
@@ -46293,10 +46341,10 @@
     </row>
     <row r="273" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="93" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C273" s="161" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D273" s="189"/>
       <c r="E273" s="189"/>
@@ -46313,16 +46361,14 @@
       <c r="P273" s="162"/>
       <c r="Q273" s="162"/>
       <c r="R273" s="163"/>
-      <c r="S273" s="287" t="s">
-        <v>110</v>
-      </c>
-      <c r="T273" s="288"/>
-      <c r="U273" s="288"/>
-      <c r="V273" s="288"/>
-      <c r="W273" s="288"/>
-      <c r="X273" s="288"/>
-      <c r="Y273" s="288"/>
-      <c r="Z273" s="289"/>
+      <c r="S273" s="161"/>
+      <c r="T273" s="189"/>
+      <c r="U273" s="189"/>
+      <c r="V273" s="189"/>
+      <c r="W273" s="189"/>
+      <c r="X273" s="189"/>
+      <c r="Y273" s="189"/>
+      <c r="Z273" s="190"/>
       <c r="AA273" s="260"/>
       <c r="AB273" s="261"/>
       <c r="AC273" s="261"/>
@@ -46346,14 +46392,14 @@
       <c r="P274" s="165"/>
       <c r="Q274" s="165"/>
       <c r="R274" s="166"/>
-      <c r="S274" s="290"/>
-      <c r="T274" s="291"/>
-      <c r="U274" s="291"/>
-      <c r="V274" s="291"/>
-      <c r="W274" s="291"/>
-      <c r="X274" s="291"/>
-      <c r="Y274" s="291"/>
-      <c r="Z274" s="292"/>
+      <c r="S274" s="191"/>
+      <c r="T274" s="192"/>
+      <c r="U274" s="192"/>
+      <c r="V274" s="192"/>
+      <c r="W274" s="192"/>
+      <c r="X274" s="192"/>
+      <c r="Y274" s="192"/>
+      <c r="Z274" s="193"/>
       <c r="AA274" s="263"/>
       <c r="AB274" s="264"/>
       <c r="AC274" s="264"/>
@@ -46377,14 +46423,14 @@
       <c r="P275" s="165"/>
       <c r="Q275" s="165"/>
       <c r="R275" s="166"/>
-      <c r="S275" s="290"/>
-      <c r="T275" s="291"/>
-      <c r="U275" s="291"/>
-      <c r="V275" s="291"/>
-      <c r="W275" s="291"/>
-      <c r="X275" s="291"/>
-      <c r="Y275" s="291"/>
-      <c r="Z275" s="292"/>
+      <c r="S275" s="191"/>
+      <c r="T275" s="192"/>
+      <c r="U275" s="192"/>
+      <c r="V275" s="192"/>
+      <c r="W275" s="192"/>
+      <c r="X275" s="192"/>
+      <c r="Y275" s="192"/>
+      <c r="Z275" s="193"/>
       <c r="AA275" s="263"/>
       <c r="AB275" s="264"/>
       <c r="AC275" s="264"/>
@@ -46408,14 +46454,14 @@
       <c r="P276" s="165"/>
       <c r="Q276" s="165"/>
       <c r="R276" s="166"/>
-      <c r="S276" s="290"/>
-      <c r="T276" s="291"/>
-      <c r="U276" s="291"/>
-      <c r="V276" s="291"/>
-      <c r="W276" s="291"/>
-      <c r="X276" s="291"/>
-      <c r="Y276" s="291"/>
-      <c r="Z276" s="292"/>
+      <c r="S276" s="191"/>
+      <c r="T276" s="192"/>
+      <c r="U276" s="192"/>
+      <c r="V276" s="192"/>
+      <c r="W276" s="192"/>
+      <c r="X276" s="192"/>
+      <c r="Y276" s="192"/>
+      <c r="Z276" s="193"/>
       <c r="AA276" s="263"/>
       <c r="AB276" s="264"/>
       <c r="AC276" s="264"/>
@@ -46439,14 +46485,14 @@
       <c r="P277" s="165"/>
       <c r="Q277" s="165"/>
       <c r="R277" s="166"/>
-      <c r="S277" s="290"/>
-      <c r="T277" s="291"/>
-      <c r="U277" s="291"/>
-      <c r="V277" s="291"/>
-      <c r="W277" s="291"/>
-      <c r="X277" s="291"/>
-      <c r="Y277" s="291"/>
-      <c r="Z277" s="292"/>
+      <c r="S277" s="191"/>
+      <c r="T277" s="192"/>
+      <c r="U277" s="192"/>
+      <c r="V277" s="192"/>
+      <c r="W277" s="192"/>
+      <c r="X277" s="192"/>
+      <c r="Y277" s="192"/>
+      <c r="Z277" s="193"/>
       <c r="AA277" s="263"/>
       <c r="AB277" s="264"/>
       <c r="AC277" s="264"/>
@@ -46470,14 +46516,14 @@
       <c r="P278" s="165"/>
       <c r="Q278" s="165"/>
       <c r="R278" s="166"/>
-      <c r="S278" s="290"/>
-      <c r="T278" s="291"/>
-      <c r="U278" s="291"/>
-      <c r="V278" s="291"/>
-      <c r="W278" s="291"/>
-      <c r="X278" s="291"/>
-      <c r="Y278" s="291"/>
-      <c r="Z278" s="292"/>
+      <c r="S278" s="191"/>
+      <c r="T278" s="192"/>
+      <c r="U278" s="192"/>
+      <c r="V278" s="192"/>
+      <c r="W278" s="192"/>
+      <c r="X278" s="192"/>
+      <c r="Y278" s="192"/>
+      <c r="Z278" s="193"/>
       <c r="AA278" s="263"/>
       <c r="AB278" s="264"/>
       <c r="AC278" s="264"/>
@@ -46501,14 +46547,14 @@
       <c r="P279" s="165"/>
       <c r="Q279" s="165"/>
       <c r="R279" s="166"/>
-      <c r="S279" s="290"/>
-      <c r="T279" s="291"/>
-      <c r="U279" s="291"/>
-      <c r="V279" s="291"/>
-      <c r="W279" s="291"/>
-      <c r="X279" s="291"/>
-      <c r="Y279" s="291"/>
-      <c r="Z279" s="292"/>
+      <c r="S279" s="191"/>
+      <c r="T279" s="192"/>
+      <c r="U279" s="192"/>
+      <c r="V279" s="192"/>
+      <c r="W279" s="192"/>
+      <c r="X279" s="192"/>
+      <c r="Y279" s="192"/>
+      <c r="Z279" s="193"/>
       <c r="AA279" s="263"/>
       <c r="AB279" s="264"/>
       <c r="AC279" s="264"/>
@@ -46532,14 +46578,14 @@
       <c r="P280" s="165"/>
       <c r="Q280" s="165"/>
       <c r="R280" s="166"/>
-      <c r="S280" s="290"/>
-      <c r="T280" s="291"/>
-      <c r="U280" s="291"/>
-      <c r="V280" s="291"/>
-      <c r="W280" s="291"/>
-      <c r="X280" s="291"/>
-      <c r="Y280" s="291"/>
-      <c r="Z280" s="292"/>
+      <c r="S280" s="191"/>
+      <c r="T280" s="192"/>
+      <c r="U280" s="192"/>
+      <c r="V280" s="192"/>
+      <c r="W280" s="192"/>
+      <c r="X280" s="192"/>
+      <c r="Y280" s="192"/>
+      <c r="Z280" s="193"/>
       <c r="AA280" s="263"/>
       <c r="AB280" s="264"/>
       <c r="AC280" s="264"/>
@@ -46563,14 +46609,14 @@
       <c r="P281" s="165"/>
       <c r="Q281" s="165"/>
       <c r="R281" s="166"/>
-      <c r="S281" s="290"/>
-      <c r="T281" s="291"/>
-      <c r="U281" s="291"/>
-      <c r="V281" s="291"/>
-      <c r="W281" s="291"/>
-      <c r="X281" s="291"/>
-      <c r="Y281" s="291"/>
-      <c r="Z281" s="292"/>
+      <c r="S281" s="191"/>
+      <c r="T281" s="192"/>
+      <c r="U281" s="192"/>
+      <c r="V281" s="192"/>
+      <c r="W281" s="192"/>
+      <c r="X281" s="192"/>
+      <c r="Y281" s="192"/>
+      <c r="Z281" s="193"/>
       <c r="AA281" s="263"/>
       <c r="AB281" s="264"/>
       <c r="AC281" s="264"/>
@@ -46594,14 +46640,14 @@
       <c r="P282" s="168"/>
       <c r="Q282" s="168"/>
       <c r="R282" s="169"/>
-      <c r="S282" s="293"/>
-      <c r="T282" s="294"/>
-      <c r="U282" s="294"/>
-      <c r="V282" s="294"/>
-      <c r="W282" s="294"/>
-      <c r="X282" s="294"/>
-      <c r="Y282" s="294"/>
-      <c r="Z282" s="295"/>
+      <c r="S282" s="194"/>
+      <c r="T282" s="195"/>
+      <c r="U282" s="195"/>
+      <c r="V282" s="195"/>
+      <c r="W282" s="195"/>
+      <c r="X282" s="195"/>
+      <c r="Y282" s="195"/>
+      <c r="Z282" s="196"/>
       <c r="AA282" s="266"/>
       <c r="AB282" s="267"/>
       <c r="AC282" s="267"/>
@@ -46609,10 +46655,10 @@
     </row>
     <row r="283" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="93" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C283" s="161" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D283" s="189"/>
       <c r="E283" s="189"/>
@@ -46621,9 +46667,7 @@
       <c r="H283" s="189"/>
       <c r="I283" s="189"/>
       <c r="J283" s="190"/>
-      <c r="K283" s="170" t="s">
-        <v>96</v>
-      </c>
+      <c r="K283" s="170"/>
       <c r="L283" s="162"/>
       <c r="M283" s="162"/>
       <c r="N283" s="162"/>
@@ -46631,16 +46675,16 @@
       <c r="P283" s="162"/>
       <c r="Q283" s="162"/>
       <c r="R283" s="163"/>
-      <c r="S283" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="T283" s="189"/>
-      <c r="U283" s="189"/>
-      <c r="V283" s="189"/>
-      <c r="W283" s="189"/>
-      <c r="X283" s="189"/>
-      <c r="Y283" s="189"/>
-      <c r="Z283" s="190"/>
+      <c r="S283" s="287" t="s">
+        <v>110</v>
+      </c>
+      <c r="T283" s="288"/>
+      <c r="U283" s="288"/>
+      <c r="V283" s="288"/>
+      <c r="W283" s="288"/>
+      <c r="X283" s="288"/>
+      <c r="Y283" s="288"/>
+      <c r="Z283" s="289"/>
       <c r="AA283" s="260"/>
       <c r="AB283" s="261"/>
       <c r="AC283" s="261"/>
@@ -46664,14 +46708,14 @@
       <c r="P284" s="165"/>
       <c r="Q284" s="165"/>
       <c r="R284" s="166"/>
-      <c r="S284" s="191"/>
-      <c r="T284" s="192"/>
-      <c r="U284" s="192"/>
-      <c r="V284" s="192"/>
-      <c r="W284" s="192"/>
-      <c r="X284" s="192"/>
-      <c r="Y284" s="192"/>
-      <c r="Z284" s="193"/>
+      <c r="S284" s="290"/>
+      <c r="T284" s="291"/>
+      <c r="U284" s="291"/>
+      <c r="V284" s="291"/>
+      <c r="W284" s="291"/>
+      <c r="X284" s="291"/>
+      <c r="Y284" s="291"/>
+      <c r="Z284" s="292"/>
       <c r="AA284" s="263"/>
       <c r="AB284" s="264"/>
       <c r="AC284" s="264"/>
@@ -46695,14 +46739,14 @@
       <c r="P285" s="165"/>
       <c r="Q285" s="165"/>
       <c r="R285" s="166"/>
-      <c r="S285" s="191"/>
-      <c r="T285" s="192"/>
-      <c r="U285" s="192"/>
-      <c r="V285" s="192"/>
-      <c r="W285" s="192"/>
-      <c r="X285" s="192"/>
-      <c r="Y285" s="192"/>
-      <c r="Z285" s="193"/>
+      <c r="S285" s="290"/>
+      <c r="T285" s="291"/>
+      <c r="U285" s="291"/>
+      <c r="V285" s="291"/>
+      <c r="W285" s="291"/>
+      <c r="X285" s="291"/>
+      <c r="Y285" s="291"/>
+      <c r="Z285" s="292"/>
       <c r="AA285" s="263"/>
       <c r="AB285" s="264"/>
       <c r="AC285" s="264"/>
@@ -46726,14 +46770,14 @@
       <c r="P286" s="165"/>
       <c r="Q286" s="165"/>
       <c r="R286" s="166"/>
-      <c r="S286" s="191"/>
-      <c r="T286" s="192"/>
-      <c r="U286" s="192"/>
-      <c r="V286" s="192"/>
-      <c r="W286" s="192"/>
-      <c r="X286" s="192"/>
-      <c r="Y286" s="192"/>
-      <c r="Z286" s="193"/>
+      <c r="S286" s="290"/>
+      <c r="T286" s="291"/>
+      <c r="U286" s="291"/>
+      <c r="V286" s="291"/>
+      <c r="W286" s="291"/>
+      <c r="X286" s="291"/>
+      <c r="Y286" s="291"/>
+      <c r="Z286" s="292"/>
       <c r="AA286" s="263"/>
       <c r="AB286" s="264"/>
       <c r="AC286" s="264"/>
@@ -46757,14 +46801,14 @@
       <c r="P287" s="165"/>
       <c r="Q287" s="165"/>
       <c r="R287" s="166"/>
-      <c r="S287" s="191"/>
-      <c r="T287" s="192"/>
-      <c r="U287" s="192"/>
-      <c r="V287" s="192"/>
-      <c r="W287" s="192"/>
-      <c r="X287" s="192"/>
-      <c r="Y287" s="192"/>
-      <c r="Z287" s="193"/>
+      <c r="S287" s="290"/>
+      <c r="T287" s="291"/>
+      <c r="U287" s="291"/>
+      <c r="V287" s="291"/>
+      <c r="W287" s="291"/>
+      <c r="X287" s="291"/>
+      <c r="Y287" s="291"/>
+      <c r="Z287" s="292"/>
       <c r="AA287" s="263"/>
       <c r="AB287" s="264"/>
       <c r="AC287" s="264"/>
@@ -46788,14 +46832,14 @@
       <c r="P288" s="165"/>
       <c r="Q288" s="165"/>
       <c r="R288" s="166"/>
-      <c r="S288" s="191"/>
-      <c r="T288" s="192"/>
-      <c r="U288" s="192"/>
-      <c r="V288" s="192"/>
-      <c r="W288" s="192"/>
-      <c r="X288" s="192"/>
-      <c r="Y288" s="192"/>
-      <c r="Z288" s="193"/>
+      <c r="S288" s="290"/>
+      <c r="T288" s="291"/>
+      <c r="U288" s="291"/>
+      <c r="V288" s="291"/>
+      <c r="W288" s="291"/>
+      <c r="X288" s="291"/>
+      <c r="Y288" s="291"/>
+      <c r="Z288" s="292"/>
       <c r="AA288" s="263"/>
       <c r="AB288" s="264"/>
       <c r="AC288" s="264"/>
@@ -46819,14 +46863,14 @@
       <c r="P289" s="165"/>
       <c r="Q289" s="165"/>
       <c r="R289" s="166"/>
-      <c r="S289" s="191"/>
-      <c r="T289" s="192"/>
-      <c r="U289" s="192"/>
-      <c r="V289" s="192"/>
-      <c r="W289" s="192"/>
-      <c r="X289" s="192"/>
-      <c r="Y289" s="192"/>
-      <c r="Z289" s="193"/>
+      <c r="S289" s="290"/>
+      <c r="T289" s="291"/>
+      <c r="U289" s="291"/>
+      <c r="V289" s="291"/>
+      <c r="W289" s="291"/>
+      <c r="X289" s="291"/>
+      <c r="Y289" s="291"/>
+      <c r="Z289" s="292"/>
       <c r="AA289" s="263"/>
       <c r="AB289" s="264"/>
       <c r="AC289" s="264"/>
@@ -46850,14 +46894,14 @@
       <c r="P290" s="165"/>
       <c r="Q290" s="165"/>
       <c r="R290" s="166"/>
-      <c r="S290" s="191"/>
-      <c r="T290" s="192"/>
-      <c r="U290" s="192"/>
-      <c r="V290" s="192"/>
-      <c r="W290" s="192"/>
-      <c r="X290" s="192"/>
-      <c r="Y290" s="192"/>
-      <c r="Z290" s="193"/>
+      <c r="S290" s="290"/>
+      <c r="T290" s="291"/>
+      <c r="U290" s="291"/>
+      <c r="V290" s="291"/>
+      <c r="W290" s="291"/>
+      <c r="X290" s="291"/>
+      <c r="Y290" s="291"/>
+      <c r="Z290" s="292"/>
       <c r="AA290" s="263"/>
       <c r="AB290" s="264"/>
       <c r="AC290" s="264"/>
@@ -46881,14 +46925,14 @@
       <c r="P291" s="165"/>
       <c r="Q291" s="165"/>
       <c r="R291" s="166"/>
-      <c r="S291" s="191"/>
-      <c r="T291" s="192"/>
-      <c r="U291" s="192"/>
-      <c r="V291" s="192"/>
-      <c r="W291" s="192"/>
-      <c r="X291" s="192"/>
-      <c r="Y291" s="192"/>
-      <c r="Z291" s="193"/>
+      <c r="S291" s="290"/>
+      <c r="T291" s="291"/>
+      <c r="U291" s="291"/>
+      <c r="V291" s="291"/>
+      <c r="W291" s="291"/>
+      <c r="X291" s="291"/>
+      <c r="Y291" s="291"/>
+      <c r="Z291" s="292"/>
       <c r="AA291" s="263"/>
       <c r="AB291" s="264"/>
       <c r="AC291" s="264"/>
@@ -46912,44 +46956,46 @@
       <c r="P292" s="168"/>
       <c r="Q292" s="168"/>
       <c r="R292" s="169"/>
-      <c r="S292" s="194"/>
-      <c r="T292" s="195"/>
-      <c r="U292" s="195"/>
-      <c r="V292" s="195"/>
-      <c r="W292" s="195"/>
-      <c r="X292" s="195"/>
-      <c r="Y292" s="195"/>
-      <c r="Z292" s="196"/>
+      <c r="S292" s="293"/>
+      <c r="T292" s="294"/>
+      <c r="U292" s="294"/>
+      <c r="V292" s="294"/>
+      <c r="W292" s="294"/>
+      <c r="X292" s="294"/>
+      <c r="Y292" s="294"/>
+      <c r="Z292" s="295"/>
       <c r="AA292" s="266"/>
       <c r="AB292" s="267"/>
       <c r="AC292" s="267"/>
       <c r="AD292" s="268"/>
     </row>
     <row r="293" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="C293" s="234" t="s">
-        <v>91</v>
-      </c>
-      <c r="D293" s="234"/>
-      <c r="E293" s="234"/>
-      <c r="F293" s="234"/>
-      <c r="G293" s="234"/>
-      <c r="H293" s="234"/>
-      <c r="I293" s="234"/>
-      <c r="J293" s="234"/>
-      <c r="K293" s="279" t="s">
-        <v>86</v>
-      </c>
-      <c r="L293" s="280"/>
-      <c r="M293" s="280"/>
-      <c r="N293" s="280"/>
-      <c r="O293" s="280"/>
-      <c r="P293" s="280"/>
-      <c r="Q293" s="280"/>
-      <c r="R293" s="280"/>
-      <c r="S293" s="161"/>
+      <c r="B293" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C293" s="161" t="s">
+        <v>98</v>
+      </c>
+      <c r="D293" s="189"/>
+      <c r="E293" s="189"/>
+      <c r="F293" s="189"/>
+      <c r="G293" s="189"/>
+      <c r="H293" s="189"/>
+      <c r="I293" s="189"/>
+      <c r="J293" s="190"/>
+      <c r="K293" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="L293" s="162"/>
+      <c r="M293" s="162"/>
+      <c r="N293" s="162"/>
+      <c r="O293" s="162"/>
+      <c r="P293" s="162"/>
+      <c r="Q293" s="162"/>
+      <c r="R293" s="163"/>
+      <c r="S293" s="161" t="s">
+        <v>99</v>
+      </c>
       <c r="T293" s="189"/>
       <c r="U293" s="189"/>
       <c r="V293" s="189"/>
@@ -46957,31 +47003,29 @@
       <c r="X293" s="189"/>
       <c r="Y293" s="189"/>
       <c r="Z293" s="190"/>
-      <c r="AA293" s="281" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB293" s="282"/>
-      <c r="AC293" s="282"/>
-      <c r="AD293" s="282"/>
+      <c r="AA293" s="260"/>
+      <c r="AB293" s="261"/>
+      <c r="AC293" s="261"/>
+      <c r="AD293" s="262"/>
     </row>
     <row r="294" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B294" s="111"/>
-      <c r="C294" s="234"/>
-      <c r="D294" s="234"/>
-      <c r="E294" s="234"/>
-      <c r="F294" s="234"/>
-      <c r="G294" s="234"/>
-      <c r="H294" s="234"/>
-      <c r="I294" s="234"/>
-      <c r="J294" s="234"/>
-      <c r="K294" s="280"/>
-      <c r="L294" s="280"/>
-      <c r="M294" s="280"/>
-      <c r="N294" s="280"/>
-      <c r="O294" s="280"/>
-      <c r="P294" s="280"/>
-      <c r="Q294" s="280"/>
-      <c r="R294" s="280"/>
+      <c r="B294" s="94"/>
+      <c r="C294" s="191"/>
+      <c r="D294" s="192"/>
+      <c r="E294" s="192"/>
+      <c r="F294" s="192"/>
+      <c r="G294" s="192"/>
+      <c r="H294" s="192"/>
+      <c r="I294" s="192"/>
+      <c r="J294" s="193"/>
+      <c r="K294" s="164"/>
+      <c r="L294" s="165"/>
+      <c r="M294" s="165"/>
+      <c r="N294" s="165"/>
+      <c r="O294" s="165"/>
+      <c r="P294" s="165"/>
+      <c r="Q294" s="165"/>
+      <c r="R294" s="166"/>
       <c r="S294" s="191"/>
       <c r="T294" s="192"/>
       <c r="U294" s="192"/>
@@ -46990,29 +47034,29 @@
       <c r="X294" s="192"/>
       <c r="Y294" s="192"/>
       <c r="Z294" s="193"/>
-      <c r="AA294" s="282"/>
-      <c r="AB294" s="282"/>
-      <c r="AC294" s="282"/>
-      <c r="AD294" s="282"/>
+      <c r="AA294" s="263"/>
+      <c r="AB294" s="264"/>
+      <c r="AC294" s="264"/>
+      <c r="AD294" s="265"/>
     </row>
     <row r="295" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B295" s="111"/>
-      <c r="C295" s="234"/>
-      <c r="D295" s="234"/>
-      <c r="E295" s="234"/>
-      <c r="F295" s="234"/>
-      <c r="G295" s="234"/>
-      <c r="H295" s="234"/>
-      <c r="I295" s="234"/>
-      <c r="J295" s="234"/>
-      <c r="K295" s="280"/>
-      <c r="L295" s="280"/>
-      <c r="M295" s="280"/>
-      <c r="N295" s="280"/>
-      <c r="O295" s="280"/>
-      <c r="P295" s="280"/>
-      <c r="Q295" s="280"/>
-      <c r="R295" s="280"/>
+      <c r="B295" s="94"/>
+      <c r="C295" s="191"/>
+      <c r="D295" s="192"/>
+      <c r="E295" s="192"/>
+      <c r="F295" s="192"/>
+      <c r="G295" s="192"/>
+      <c r="H295" s="192"/>
+      <c r="I295" s="192"/>
+      <c r="J295" s="193"/>
+      <c r="K295" s="164"/>
+      <c r="L295" s="165"/>
+      <c r="M295" s="165"/>
+      <c r="N295" s="165"/>
+      <c r="O295" s="165"/>
+      <c r="P295" s="165"/>
+      <c r="Q295" s="165"/>
+      <c r="R295" s="166"/>
       <c r="S295" s="191"/>
       <c r="T295" s="192"/>
       <c r="U295" s="192"/>
@@ -47021,29 +47065,29 @@
       <c r="X295" s="192"/>
       <c r="Y295" s="192"/>
       <c r="Z295" s="193"/>
-      <c r="AA295" s="282"/>
-      <c r="AB295" s="282"/>
-      <c r="AC295" s="282"/>
-      <c r="AD295" s="282"/>
+      <c r="AA295" s="263"/>
+      <c r="AB295" s="264"/>
+      <c r="AC295" s="264"/>
+      <c r="AD295" s="265"/>
     </row>
     <row r="296" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B296" s="111"/>
-      <c r="C296" s="234"/>
-      <c r="D296" s="234"/>
-      <c r="E296" s="234"/>
-      <c r="F296" s="234"/>
-      <c r="G296" s="234"/>
-      <c r="H296" s="234"/>
-      <c r="I296" s="234"/>
-      <c r="J296" s="234"/>
-      <c r="K296" s="280"/>
-      <c r="L296" s="280"/>
-      <c r="M296" s="280"/>
-      <c r="N296" s="280"/>
-      <c r="O296" s="280"/>
-      <c r="P296" s="280"/>
-      <c r="Q296" s="280"/>
-      <c r="R296" s="280"/>
+      <c r="B296" s="94"/>
+      <c r="C296" s="191"/>
+      <c r="D296" s="192"/>
+      <c r="E296" s="192"/>
+      <c r="F296" s="192"/>
+      <c r="G296" s="192"/>
+      <c r="H296" s="192"/>
+      <c r="I296" s="192"/>
+      <c r="J296" s="193"/>
+      <c r="K296" s="164"/>
+      <c r="L296" s="165"/>
+      <c r="M296" s="165"/>
+      <c r="N296" s="165"/>
+      <c r="O296" s="165"/>
+      <c r="P296" s="165"/>
+      <c r="Q296" s="165"/>
+      <c r="R296" s="166"/>
       <c r="S296" s="191"/>
       <c r="T296" s="192"/>
       <c r="U296" s="192"/>
@@ -47052,29 +47096,29 @@
       <c r="X296" s="192"/>
       <c r="Y296" s="192"/>
       <c r="Z296" s="193"/>
-      <c r="AA296" s="282"/>
-      <c r="AB296" s="282"/>
-      <c r="AC296" s="282"/>
-      <c r="AD296" s="282"/>
+      <c r="AA296" s="263"/>
+      <c r="AB296" s="264"/>
+      <c r="AC296" s="264"/>
+      <c r="AD296" s="265"/>
     </row>
     <row r="297" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B297" s="111"/>
-      <c r="C297" s="234"/>
-      <c r="D297" s="234"/>
-      <c r="E297" s="234"/>
-      <c r="F297" s="234"/>
-      <c r="G297" s="234"/>
-      <c r="H297" s="234"/>
-      <c r="I297" s="234"/>
-      <c r="J297" s="234"/>
-      <c r="K297" s="280"/>
-      <c r="L297" s="280"/>
-      <c r="M297" s="280"/>
-      <c r="N297" s="280"/>
-      <c r="O297" s="280"/>
-      <c r="P297" s="280"/>
-      <c r="Q297" s="280"/>
-      <c r="R297" s="280"/>
+      <c r="B297" s="94"/>
+      <c r="C297" s="191"/>
+      <c r="D297" s="192"/>
+      <c r="E297" s="192"/>
+      <c r="F297" s="192"/>
+      <c r="G297" s="192"/>
+      <c r="H297" s="192"/>
+      <c r="I297" s="192"/>
+      <c r="J297" s="193"/>
+      <c r="K297" s="164"/>
+      <c r="L297" s="165"/>
+      <c r="M297" s="165"/>
+      <c r="N297" s="165"/>
+      <c r="O297" s="165"/>
+      <c r="P297" s="165"/>
+      <c r="Q297" s="165"/>
+      <c r="R297" s="166"/>
       <c r="S297" s="191"/>
       <c r="T297" s="192"/>
       <c r="U297" s="192"/>
@@ -47083,29 +47127,29 @@
       <c r="X297" s="192"/>
       <c r="Y297" s="192"/>
       <c r="Z297" s="193"/>
-      <c r="AA297" s="282"/>
-      <c r="AB297" s="282"/>
-      <c r="AC297" s="282"/>
-      <c r="AD297" s="282"/>
+      <c r="AA297" s="263"/>
+      <c r="AB297" s="264"/>
+      <c r="AC297" s="264"/>
+      <c r="AD297" s="265"/>
     </row>
     <row r="298" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B298" s="111"/>
-      <c r="C298" s="234"/>
-      <c r="D298" s="234"/>
-      <c r="E298" s="234"/>
-      <c r="F298" s="234"/>
-      <c r="G298" s="234"/>
-      <c r="H298" s="234"/>
-      <c r="I298" s="234"/>
-      <c r="J298" s="234"/>
-      <c r="K298" s="280"/>
-      <c r="L298" s="280"/>
-      <c r="M298" s="280"/>
-      <c r="N298" s="280"/>
-      <c r="O298" s="280"/>
-      <c r="P298" s="280"/>
-      <c r="Q298" s="280"/>
-      <c r="R298" s="280"/>
+      <c r="B298" s="94"/>
+      <c r="C298" s="191"/>
+      <c r="D298" s="192"/>
+      <c r="E298" s="192"/>
+      <c r="F298" s="192"/>
+      <c r="G298" s="192"/>
+      <c r="H298" s="192"/>
+      <c r="I298" s="192"/>
+      <c r="J298" s="193"/>
+      <c r="K298" s="164"/>
+      <c r="L298" s="165"/>
+      <c r="M298" s="165"/>
+      <c r="N298" s="165"/>
+      <c r="O298" s="165"/>
+      <c r="P298" s="165"/>
+      <c r="Q298" s="165"/>
+      <c r="R298" s="166"/>
       <c r="S298" s="191"/>
       <c r="T298" s="192"/>
       <c r="U298" s="192"/>
@@ -47114,29 +47158,29 @@
       <c r="X298" s="192"/>
       <c r="Y298" s="192"/>
       <c r="Z298" s="193"/>
-      <c r="AA298" s="282"/>
-      <c r="AB298" s="282"/>
-      <c r="AC298" s="282"/>
-      <c r="AD298" s="282"/>
+      <c r="AA298" s="263"/>
+      <c r="AB298" s="264"/>
+      <c r="AC298" s="264"/>
+      <c r="AD298" s="265"/>
     </row>
     <row r="299" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B299" s="111"/>
-      <c r="C299" s="234"/>
-      <c r="D299" s="234"/>
-      <c r="E299" s="234"/>
-      <c r="F299" s="234"/>
-      <c r="G299" s="234"/>
-      <c r="H299" s="234"/>
-      <c r="I299" s="234"/>
-      <c r="J299" s="234"/>
-      <c r="K299" s="280"/>
-      <c r="L299" s="280"/>
-      <c r="M299" s="280"/>
-      <c r="N299" s="280"/>
-      <c r="O299" s="280"/>
-      <c r="P299" s="280"/>
-      <c r="Q299" s="280"/>
-      <c r="R299" s="280"/>
+      <c r="B299" s="94"/>
+      <c r="C299" s="191"/>
+      <c r="D299" s="192"/>
+      <c r="E299" s="192"/>
+      <c r="F299" s="192"/>
+      <c r="G299" s="192"/>
+      <c r="H299" s="192"/>
+      <c r="I299" s="192"/>
+      <c r="J299" s="193"/>
+      <c r="K299" s="164"/>
+      <c r="L299" s="165"/>
+      <c r="M299" s="165"/>
+      <c r="N299" s="165"/>
+      <c r="O299" s="165"/>
+      <c r="P299" s="165"/>
+      <c r="Q299" s="165"/>
+      <c r="R299" s="166"/>
       <c r="S299" s="191"/>
       <c r="T299" s="192"/>
       <c r="U299" s="192"/>
@@ -47145,29 +47189,29 @@
       <c r="X299" s="192"/>
       <c r="Y299" s="192"/>
       <c r="Z299" s="193"/>
-      <c r="AA299" s="282"/>
-      <c r="AB299" s="282"/>
-      <c r="AC299" s="282"/>
-      <c r="AD299" s="282"/>
+      <c r="AA299" s="263"/>
+      <c r="AB299" s="264"/>
+      <c r="AC299" s="264"/>
+      <c r="AD299" s="265"/>
     </row>
     <row r="300" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B300" s="111"/>
-      <c r="C300" s="234"/>
-      <c r="D300" s="234"/>
-      <c r="E300" s="234"/>
-      <c r="F300" s="234"/>
-      <c r="G300" s="234"/>
-      <c r="H300" s="234"/>
-      <c r="I300" s="234"/>
-      <c r="J300" s="234"/>
-      <c r="K300" s="280"/>
-      <c r="L300" s="280"/>
-      <c r="M300" s="280"/>
-      <c r="N300" s="280"/>
-      <c r="O300" s="280"/>
-      <c r="P300" s="280"/>
-      <c r="Q300" s="280"/>
-      <c r="R300" s="280"/>
+      <c r="B300" s="94"/>
+      <c r="C300" s="191"/>
+      <c r="D300" s="192"/>
+      <c r="E300" s="192"/>
+      <c r="F300" s="192"/>
+      <c r="G300" s="192"/>
+      <c r="H300" s="192"/>
+      <c r="I300" s="192"/>
+      <c r="J300" s="193"/>
+      <c r="K300" s="164"/>
+      <c r="L300" s="165"/>
+      <c r="M300" s="165"/>
+      <c r="N300" s="165"/>
+      <c r="O300" s="165"/>
+      <c r="P300" s="165"/>
+      <c r="Q300" s="165"/>
+      <c r="R300" s="166"/>
       <c r="S300" s="191"/>
       <c r="T300" s="192"/>
       <c r="U300" s="192"/>
@@ -47176,29 +47220,29 @@
       <c r="X300" s="192"/>
       <c r="Y300" s="192"/>
       <c r="Z300" s="193"/>
-      <c r="AA300" s="282"/>
-      <c r="AB300" s="282"/>
-      <c r="AC300" s="282"/>
-      <c r="AD300" s="282"/>
+      <c r="AA300" s="263"/>
+      <c r="AB300" s="264"/>
+      <c r="AC300" s="264"/>
+      <c r="AD300" s="265"/>
     </row>
     <row r="301" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B301" s="111"/>
-      <c r="C301" s="234"/>
-      <c r="D301" s="234"/>
-      <c r="E301" s="234"/>
-      <c r="F301" s="234"/>
-      <c r="G301" s="234"/>
-      <c r="H301" s="234"/>
-      <c r="I301" s="234"/>
-      <c r="J301" s="234"/>
-      <c r="K301" s="280"/>
-      <c r="L301" s="280"/>
-      <c r="M301" s="280"/>
-      <c r="N301" s="280"/>
-      <c r="O301" s="280"/>
-      <c r="P301" s="280"/>
-      <c r="Q301" s="280"/>
-      <c r="R301" s="280"/>
+      <c r="B301" s="94"/>
+      <c r="C301" s="191"/>
+      <c r="D301" s="192"/>
+      <c r="E301" s="192"/>
+      <c r="F301" s="192"/>
+      <c r="G301" s="192"/>
+      <c r="H301" s="192"/>
+      <c r="I301" s="192"/>
+      <c r="J301" s="193"/>
+      <c r="K301" s="164"/>
+      <c r="L301" s="165"/>
+      <c r="M301" s="165"/>
+      <c r="N301" s="165"/>
+      <c r="O301" s="165"/>
+      <c r="P301" s="165"/>
+      <c r="Q301" s="165"/>
+      <c r="R301" s="166"/>
       <c r="S301" s="191"/>
       <c r="T301" s="192"/>
       <c r="U301" s="192"/>
@@ -47207,29 +47251,29 @@
       <c r="X301" s="192"/>
       <c r="Y301" s="192"/>
       <c r="Z301" s="193"/>
-      <c r="AA301" s="282"/>
-      <c r="AB301" s="282"/>
-      <c r="AC301" s="282"/>
-      <c r="AD301" s="282"/>
+      <c r="AA301" s="263"/>
+      <c r="AB301" s="264"/>
+      <c r="AC301" s="264"/>
+      <c r="AD301" s="265"/>
     </row>
     <row r="302" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B302" s="111"/>
-      <c r="C302" s="234"/>
-      <c r="D302" s="234"/>
-      <c r="E302" s="234"/>
-      <c r="F302" s="234"/>
-      <c r="G302" s="234"/>
-      <c r="H302" s="234"/>
-      <c r="I302" s="234"/>
-      <c r="J302" s="234"/>
-      <c r="K302" s="280"/>
-      <c r="L302" s="280"/>
-      <c r="M302" s="280"/>
-      <c r="N302" s="280"/>
-      <c r="O302" s="280"/>
-      <c r="P302" s="280"/>
-      <c r="Q302" s="280"/>
-      <c r="R302" s="280"/>
+      <c r="B302" s="117"/>
+      <c r="C302" s="194"/>
+      <c r="D302" s="195"/>
+      <c r="E302" s="195"/>
+      <c r="F302" s="195"/>
+      <c r="G302" s="195"/>
+      <c r="H302" s="195"/>
+      <c r="I302" s="195"/>
+      <c r="J302" s="196"/>
+      <c r="K302" s="167"/>
+      <c r="L302" s="168"/>
+      <c r="M302" s="168"/>
+      <c r="N302" s="168"/>
+      <c r="O302" s="168"/>
+      <c r="P302" s="168"/>
+      <c r="Q302" s="168"/>
+      <c r="R302" s="169"/>
       <c r="S302" s="194"/>
       <c r="T302" s="195"/>
       <c r="U302" s="195"/>
@@ -47238,17 +47282,17 @@
       <c r="X302" s="195"/>
       <c r="Y302" s="195"/>
       <c r="Z302" s="196"/>
-      <c r="AA302" s="282"/>
-      <c r="AB302" s="282"/>
-      <c r="AC302" s="282"/>
-      <c r="AD302" s="282"/>
+      <c r="AA302" s="266"/>
+      <c r="AB302" s="267"/>
+      <c r="AC302" s="267"/>
+      <c r="AD302" s="268"/>
     </row>
     <row r="303" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="111" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C303" s="234" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D303" s="234"/>
       <c r="E303" s="234"/>
@@ -47257,7 +47301,9 @@
       <c r="H303" s="234"/>
       <c r="I303" s="234"/>
       <c r="J303" s="234"/>
-      <c r="K303" s="234"/>
+      <c r="K303" s="279" t="s">
+        <v>86</v>
+      </c>
       <c r="L303" s="280"/>
       <c r="M303" s="280"/>
       <c r="N303" s="280"/>
@@ -47273,10 +47319,12 @@
       <c r="X303" s="189"/>
       <c r="Y303" s="189"/>
       <c r="Z303" s="190"/>
-      <c r="AA303" s="285"/>
-      <c r="AB303" s="286"/>
-      <c r="AC303" s="286"/>
-      <c r="AD303" s="286"/>
+      <c r="AA303" s="281" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB303" s="282"/>
+      <c r="AC303" s="282"/>
+      <c r="AD303" s="282"/>
     </row>
     <row r="304" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B304" s="111"/>
@@ -47304,10 +47352,10 @@
       <c r="X304" s="192"/>
       <c r="Y304" s="192"/>
       <c r="Z304" s="193"/>
-      <c r="AA304" s="286"/>
-      <c r="AB304" s="286"/>
-      <c r="AC304" s="286"/>
-      <c r="AD304" s="286"/>
+      <c r="AA304" s="282"/>
+      <c r="AB304" s="282"/>
+      <c r="AC304" s="282"/>
+      <c r="AD304" s="282"/>
     </row>
     <row r="305" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B305" s="111"/>
@@ -47335,10 +47383,10 @@
       <c r="X305" s="192"/>
       <c r="Y305" s="192"/>
       <c r="Z305" s="193"/>
-      <c r="AA305" s="286"/>
-      <c r="AB305" s="286"/>
-      <c r="AC305" s="286"/>
-      <c r="AD305" s="286"/>
+      <c r="AA305" s="282"/>
+      <c r="AB305" s="282"/>
+      <c r="AC305" s="282"/>
+      <c r="AD305" s="282"/>
     </row>
     <row r="306" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B306" s="111"/>
@@ -47366,10 +47414,10 @@
       <c r="X306" s="192"/>
       <c r="Y306" s="192"/>
       <c r="Z306" s="193"/>
-      <c r="AA306" s="286"/>
-      <c r="AB306" s="286"/>
-      <c r="AC306" s="286"/>
-      <c r="AD306" s="286"/>
+      <c r="AA306" s="282"/>
+      <c r="AB306" s="282"/>
+      <c r="AC306" s="282"/>
+      <c r="AD306" s="282"/>
     </row>
     <row r="307" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B307" s="111"/>
@@ -47397,10 +47445,10 @@
       <c r="X307" s="192"/>
       <c r="Y307" s="192"/>
       <c r="Z307" s="193"/>
-      <c r="AA307" s="286"/>
-      <c r="AB307" s="286"/>
-      <c r="AC307" s="286"/>
-      <c r="AD307" s="286"/>
+      <c r="AA307" s="282"/>
+      <c r="AB307" s="282"/>
+      <c r="AC307" s="282"/>
+      <c r="AD307" s="282"/>
     </row>
     <row r="308" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B308" s="111"/>
@@ -47428,10 +47476,10 @@
       <c r="X308" s="192"/>
       <c r="Y308" s="192"/>
       <c r="Z308" s="193"/>
-      <c r="AA308" s="286"/>
-      <c r="AB308" s="286"/>
-      <c r="AC308" s="286"/>
-      <c r="AD308" s="286"/>
+      <c r="AA308" s="282"/>
+      <c r="AB308" s="282"/>
+      <c r="AC308" s="282"/>
+      <c r="AD308" s="282"/>
     </row>
     <row r="309" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B309" s="111"/>
@@ -47459,10 +47507,10 @@
       <c r="X309" s="192"/>
       <c r="Y309" s="192"/>
       <c r="Z309" s="193"/>
-      <c r="AA309" s="286"/>
-      <c r="AB309" s="286"/>
-      <c r="AC309" s="286"/>
-      <c r="AD309" s="286"/>
+      <c r="AA309" s="282"/>
+      <c r="AB309" s="282"/>
+      <c r="AC309" s="282"/>
+      <c r="AD309" s="282"/>
     </row>
     <row r="310" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B310" s="111"/>
@@ -47490,10 +47538,10 @@
       <c r="X310" s="192"/>
       <c r="Y310" s="192"/>
       <c r="Z310" s="193"/>
-      <c r="AA310" s="286"/>
-      <c r="AB310" s="286"/>
-      <c r="AC310" s="286"/>
-      <c r="AD310" s="286"/>
+      <c r="AA310" s="282"/>
+      <c r="AB310" s="282"/>
+      <c r="AC310" s="282"/>
+      <c r="AD310" s="282"/>
     </row>
     <row r="311" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B311" s="111"/>
@@ -47521,10 +47569,10 @@
       <c r="X311" s="192"/>
       <c r="Y311" s="192"/>
       <c r="Z311" s="193"/>
-      <c r="AA311" s="286"/>
-      <c r="AB311" s="286"/>
-      <c r="AC311" s="286"/>
-      <c r="AD311" s="286"/>
+      <c r="AA311" s="282"/>
+      <c r="AB311" s="282"/>
+      <c r="AC311" s="282"/>
+      <c r="AD311" s="282"/>
     </row>
     <row r="312" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B312" s="111"/>
@@ -47552,17 +47600,17 @@
       <c r="X312" s="195"/>
       <c r="Y312" s="195"/>
       <c r="Z312" s="196"/>
-      <c r="AA312" s="286"/>
-      <c r="AB312" s="286"/>
-      <c r="AC312" s="286"/>
-      <c r="AD312" s="286"/>
+      <c r="AA312" s="282"/>
+      <c r="AB312" s="282"/>
+      <c r="AC312" s="282"/>
+      <c r="AD312" s="282"/>
     </row>
     <row r="313" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="111" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C313" s="234" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D313" s="234"/>
       <c r="E313" s="234"/>
@@ -47876,7 +47924,7 @@
         <v>61</v>
       </c>
       <c r="C323" s="234" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D323" s="234"/>
       <c r="E323" s="234"/>
@@ -47885,9 +47933,7 @@
       <c r="H323" s="234"/>
       <c r="I323" s="234"/>
       <c r="J323" s="234"/>
-      <c r="K323" s="234" t="s">
-        <v>63</v>
-      </c>
+      <c r="K323" s="234"/>
       <c r="L323" s="280"/>
       <c r="M323" s="280"/>
       <c r="N323" s="280"/>
@@ -47903,12 +47949,10 @@
       <c r="X323" s="189"/>
       <c r="Y323" s="189"/>
       <c r="Z323" s="190"/>
-      <c r="AA323" s="283" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB323" s="284"/>
-      <c r="AC323" s="284"/>
-      <c r="AD323" s="284"/>
+      <c r="AA323" s="285"/>
+      <c r="AB323" s="286"/>
+      <c r="AC323" s="286"/>
+      <c r="AD323" s="286"/>
     </row>
     <row r="324" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B324" s="111"/>
@@ -47936,10 +47980,10 @@
       <c r="X324" s="192"/>
       <c r="Y324" s="192"/>
       <c r="Z324" s="193"/>
-      <c r="AA324" s="284"/>
-      <c r="AB324" s="284"/>
-      <c r="AC324" s="284"/>
-      <c r="AD324" s="284"/>
+      <c r="AA324" s="286"/>
+      <c r="AB324" s="286"/>
+      <c r="AC324" s="286"/>
+      <c r="AD324" s="286"/>
     </row>
     <row r="325" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B325" s="111"/>
@@ -47967,10 +48011,10 @@
       <c r="X325" s="192"/>
       <c r="Y325" s="192"/>
       <c r="Z325" s="193"/>
-      <c r="AA325" s="284"/>
-      <c r="AB325" s="284"/>
-      <c r="AC325" s="284"/>
-      <c r="AD325" s="284"/>
+      <c r="AA325" s="286"/>
+      <c r="AB325" s="286"/>
+      <c r="AC325" s="286"/>
+      <c r="AD325" s="286"/>
     </row>
     <row r="326" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B326" s="111"/>
@@ -47998,10 +48042,10 @@
       <c r="X326" s="192"/>
       <c r="Y326" s="192"/>
       <c r="Z326" s="193"/>
-      <c r="AA326" s="284"/>
-      <c r="AB326" s="284"/>
-      <c r="AC326" s="284"/>
-      <c r="AD326" s="284"/>
+      <c r="AA326" s="286"/>
+      <c r="AB326" s="286"/>
+      <c r="AC326" s="286"/>
+      <c r="AD326" s="286"/>
     </row>
     <row r="327" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B327" s="111"/>
@@ -48029,10 +48073,10 @@
       <c r="X327" s="192"/>
       <c r="Y327" s="192"/>
       <c r="Z327" s="193"/>
-      <c r="AA327" s="284"/>
-      <c r="AB327" s="284"/>
-      <c r="AC327" s="284"/>
-      <c r="AD327" s="284"/>
+      <c r="AA327" s="286"/>
+      <c r="AB327" s="286"/>
+      <c r="AC327" s="286"/>
+      <c r="AD327" s="286"/>
     </row>
     <row r="328" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B328" s="111"/>
@@ -48060,10 +48104,10 @@
       <c r="X328" s="192"/>
       <c r="Y328" s="192"/>
       <c r="Z328" s="193"/>
-      <c r="AA328" s="284"/>
-      <c r="AB328" s="284"/>
-      <c r="AC328" s="284"/>
-      <c r="AD328" s="284"/>
+      <c r="AA328" s="286"/>
+      <c r="AB328" s="286"/>
+      <c r="AC328" s="286"/>
+      <c r="AD328" s="286"/>
     </row>
     <row r="329" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B329" s="111"/>
@@ -48091,10 +48135,10 @@
       <c r="X329" s="192"/>
       <c r="Y329" s="192"/>
       <c r="Z329" s="193"/>
-      <c r="AA329" s="284"/>
-      <c r="AB329" s="284"/>
-      <c r="AC329" s="284"/>
-      <c r="AD329" s="284"/>
+      <c r="AA329" s="286"/>
+      <c r="AB329" s="286"/>
+      <c r="AC329" s="286"/>
+      <c r="AD329" s="286"/>
     </row>
     <row r="330" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B330" s="111"/>
@@ -48122,10 +48166,10 @@
       <c r="X330" s="192"/>
       <c r="Y330" s="192"/>
       <c r="Z330" s="193"/>
-      <c r="AA330" s="284"/>
-      <c r="AB330" s="284"/>
-      <c r="AC330" s="284"/>
-      <c r="AD330" s="284"/>
+      <c r="AA330" s="286"/>
+      <c r="AB330" s="286"/>
+      <c r="AC330" s="286"/>
+      <c r="AD330" s="286"/>
     </row>
     <row r="331" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B331" s="111"/>
@@ -48153,10 +48197,10 @@
       <c r="X331" s="192"/>
       <c r="Y331" s="192"/>
       <c r="Z331" s="193"/>
-      <c r="AA331" s="284"/>
-      <c r="AB331" s="284"/>
-      <c r="AC331" s="284"/>
-      <c r="AD331" s="284"/>
+      <c r="AA331" s="286"/>
+      <c r="AB331" s="286"/>
+      <c r="AC331" s="286"/>
+      <c r="AD331" s="286"/>
     </row>
     <row r="332" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B332" s="111"/>
@@ -48184,17 +48228,17 @@
       <c r="X332" s="195"/>
       <c r="Y332" s="195"/>
       <c r="Z332" s="196"/>
-      <c r="AA332" s="284"/>
-      <c r="AB332" s="284"/>
-      <c r="AC332" s="284"/>
-      <c r="AD332" s="284"/>
+      <c r="AA332" s="286"/>
+      <c r="AB332" s="286"/>
+      <c r="AC332" s="286"/>
+      <c r="AD332" s="286"/>
     </row>
     <row r="333" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="111" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C333" s="234" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D333" s="234"/>
       <c r="E333" s="234"/>
@@ -48204,7 +48248,7 @@
       <c r="I333" s="234"/>
       <c r="J333" s="234"/>
       <c r="K333" s="234" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L333" s="280"/>
       <c r="M333" s="280"/>
@@ -48222,7 +48266,7 @@
       <c r="Y333" s="189"/>
       <c r="Z333" s="190"/>
       <c r="AA333" s="283" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="AB333" s="284"/>
       <c r="AC333" s="284"/>
@@ -48509,10 +48553,10 @@
     </row>
     <row r="343" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="111" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C343" s="234" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D343" s="234"/>
       <c r="E343" s="234"/>
@@ -48521,14 +48565,16 @@
       <c r="H343" s="234"/>
       <c r="I343" s="234"/>
       <c r="J343" s="234"/>
-      <c r="K343" s="112"/>
-      <c r="L343" s="112"/>
-      <c r="M343" s="112"/>
-      <c r="N343" s="112"/>
-      <c r="O343" s="112"/>
-      <c r="P343" s="112"/>
-      <c r="Q343" s="112"/>
-      <c r="R343" s="112"/>
+      <c r="K343" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="L343" s="280"/>
+      <c r="M343" s="280"/>
+      <c r="N343" s="280"/>
+      <c r="O343" s="280"/>
+      <c r="P343" s="280"/>
+      <c r="Q343" s="280"/>
+      <c r="R343" s="280"/>
       <c r="S343" s="161"/>
       <c r="T343" s="189"/>
       <c r="U343" s="189"/>
@@ -48538,7 +48584,7 @@
       <c r="Y343" s="189"/>
       <c r="Z343" s="190"/>
       <c r="AA343" s="283" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB343" s="284"/>
       <c r="AC343" s="284"/>
@@ -48554,14 +48600,14 @@
       <c r="H344" s="234"/>
       <c r="I344" s="234"/>
       <c r="J344" s="234"/>
-      <c r="K344" s="112"/>
-      <c r="L344" s="112"/>
-      <c r="M344" s="112"/>
-      <c r="N344" s="112"/>
-      <c r="O344" s="112"/>
-      <c r="P344" s="112"/>
-      <c r="Q344" s="112"/>
-      <c r="R344" s="112"/>
+      <c r="K344" s="280"/>
+      <c r="L344" s="280"/>
+      <c r="M344" s="280"/>
+      <c r="N344" s="280"/>
+      <c r="O344" s="280"/>
+      <c r="P344" s="280"/>
+      <c r="Q344" s="280"/>
+      <c r="R344" s="280"/>
       <c r="S344" s="191"/>
       <c r="T344" s="192"/>
       <c r="U344" s="192"/>
@@ -48585,14 +48631,14 @@
       <c r="H345" s="234"/>
       <c r="I345" s="234"/>
       <c r="J345" s="234"/>
-      <c r="K345" s="112"/>
-      <c r="L345" s="112"/>
-      <c r="M345" s="112"/>
-      <c r="N345" s="112"/>
-      <c r="O345" s="112"/>
-      <c r="P345" s="112"/>
-      <c r="Q345" s="112"/>
-      <c r="R345" s="112"/>
+      <c r="K345" s="280"/>
+      <c r="L345" s="280"/>
+      <c r="M345" s="280"/>
+      <c r="N345" s="280"/>
+      <c r="O345" s="280"/>
+      <c r="P345" s="280"/>
+      <c r="Q345" s="280"/>
+      <c r="R345" s="280"/>
       <c r="S345" s="191"/>
       <c r="T345" s="192"/>
       <c r="U345" s="192"/>
@@ -48616,14 +48662,14 @@
       <c r="H346" s="234"/>
       <c r="I346" s="234"/>
       <c r="J346" s="234"/>
-      <c r="K346" s="112"/>
-      <c r="L346" s="112"/>
-      <c r="M346" s="112"/>
-      <c r="N346" s="112"/>
-      <c r="O346" s="112"/>
-      <c r="P346" s="112"/>
-      <c r="Q346" s="112"/>
-      <c r="R346" s="112"/>
+      <c r="K346" s="280"/>
+      <c r="L346" s="280"/>
+      <c r="M346" s="280"/>
+      <c r="N346" s="280"/>
+      <c r="O346" s="280"/>
+      <c r="P346" s="280"/>
+      <c r="Q346" s="280"/>
+      <c r="R346" s="280"/>
       <c r="S346" s="191"/>
       <c r="T346" s="192"/>
       <c r="U346" s="192"/>
@@ -48647,14 +48693,14 @@
       <c r="H347" s="234"/>
       <c r="I347" s="234"/>
       <c r="J347" s="234"/>
-      <c r="K347" s="112"/>
-      <c r="L347" s="112"/>
-      <c r="M347" s="112"/>
-      <c r="N347" s="112"/>
-      <c r="O347" s="112"/>
-      <c r="P347" s="112"/>
-      <c r="Q347" s="112"/>
-      <c r="R347" s="112"/>
+      <c r="K347" s="280"/>
+      <c r="L347" s="280"/>
+      <c r="M347" s="280"/>
+      <c r="N347" s="280"/>
+      <c r="O347" s="280"/>
+      <c r="P347" s="280"/>
+      <c r="Q347" s="280"/>
+      <c r="R347" s="280"/>
       <c r="S347" s="191"/>
       <c r="T347" s="192"/>
       <c r="U347" s="192"/>
@@ -48678,14 +48724,14 @@
       <c r="H348" s="234"/>
       <c r="I348" s="234"/>
       <c r="J348" s="234"/>
-      <c r="K348" s="112"/>
-      <c r="L348" s="112"/>
-      <c r="M348" s="112"/>
-      <c r="N348" s="112"/>
-      <c r="O348" s="112"/>
-      <c r="P348" s="112"/>
-      <c r="Q348" s="112"/>
-      <c r="R348" s="112"/>
+      <c r="K348" s="280"/>
+      <c r="L348" s="280"/>
+      <c r="M348" s="280"/>
+      <c r="N348" s="280"/>
+      <c r="O348" s="280"/>
+      <c r="P348" s="280"/>
+      <c r="Q348" s="280"/>
+      <c r="R348" s="280"/>
       <c r="S348" s="191"/>
       <c r="T348" s="192"/>
       <c r="U348" s="192"/>
@@ -48709,14 +48755,14 @@
       <c r="H349" s="234"/>
       <c r="I349" s="234"/>
       <c r="J349" s="234"/>
-      <c r="K349" s="112"/>
-      <c r="L349" s="112"/>
-      <c r="M349" s="112"/>
-      <c r="N349" s="112"/>
-      <c r="O349" s="112"/>
-      <c r="P349" s="112"/>
-      <c r="Q349" s="112"/>
-      <c r="R349" s="112"/>
+      <c r="K349" s="280"/>
+      <c r="L349" s="280"/>
+      <c r="M349" s="280"/>
+      <c r="N349" s="280"/>
+      <c r="O349" s="280"/>
+      <c r="P349" s="280"/>
+      <c r="Q349" s="280"/>
+      <c r="R349" s="280"/>
       <c r="S349" s="191"/>
       <c r="T349" s="192"/>
       <c r="U349" s="192"/>
@@ -48740,14 +48786,14 @@
       <c r="H350" s="234"/>
       <c r="I350" s="234"/>
       <c r="J350" s="234"/>
-      <c r="K350" s="112"/>
-      <c r="L350" s="112"/>
-      <c r="M350" s="112"/>
-      <c r="N350" s="112"/>
-      <c r="O350" s="112"/>
-      <c r="P350" s="112"/>
-      <c r="Q350" s="112"/>
-      <c r="R350" s="112"/>
+      <c r="K350" s="280"/>
+      <c r="L350" s="280"/>
+      <c r="M350" s="280"/>
+      <c r="N350" s="280"/>
+      <c r="O350" s="280"/>
+      <c r="P350" s="280"/>
+      <c r="Q350" s="280"/>
+      <c r="R350" s="280"/>
       <c r="S350" s="191"/>
       <c r="T350" s="192"/>
       <c r="U350" s="192"/>
@@ -48771,14 +48817,14 @@
       <c r="H351" s="234"/>
       <c r="I351" s="234"/>
       <c r="J351" s="234"/>
-      <c r="K351" s="112"/>
-      <c r="L351" s="112"/>
-      <c r="M351" s="112"/>
-      <c r="N351" s="112"/>
-      <c r="O351" s="112"/>
-      <c r="P351" s="112"/>
-      <c r="Q351" s="112"/>
-      <c r="R351" s="112"/>
+      <c r="K351" s="280"/>
+      <c r="L351" s="280"/>
+      <c r="M351" s="280"/>
+      <c r="N351" s="280"/>
+      <c r="O351" s="280"/>
+      <c r="P351" s="280"/>
+      <c r="Q351" s="280"/>
+      <c r="R351" s="280"/>
       <c r="S351" s="191"/>
       <c r="T351" s="192"/>
       <c r="U351" s="192"/>
@@ -48802,14 +48848,14 @@
       <c r="H352" s="234"/>
       <c r="I352" s="234"/>
       <c r="J352" s="234"/>
-      <c r="K352" s="112"/>
-      <c r="L352" s="112"/>
-      <c r="M352" s="112"/>
-      <c r="N352" s="112"/>
-      <c r="O352" s="112"/>
-      <c r="P352" s="112"/>
-      <c r="Q352" s="112"/>
-      <c r="R352" s="112"/>
+      <c r="K352" s="280"/>
+      <c r="L352" s="280"/>
+      <c r="M352" s="280"/>
+      <c r="N352" s="280"/>
+      <c r="O352" s="280"/>
+      <c r="P352" s="280"/>
+      <c r="Q352" s="280"/>
+      <c r="R352" s="280"/>
       <c r="S352" s="194"/>
       <c r="T352" s="195"/>
       <c r="U352" s="195"/>
@@ -48825,10 +48871,10 @@
     </row>
     <row r="353" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="111" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C353" s="234" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D353" s="234"/>
       <c r="E353" s="234"/>
@@ -48845,9 +48891,7 @@
       <c r="P353" s="112"/>
       <c r="Q353" s="112"/>
       <c r="R353" s="112"/>
-      <c r="S353" s="161" t="s">
-        <v>57</v>
-      </c>
+      <c r="S353" s="161"/>
       <c r="T353" s="189"/>
       <c r="U353" s="189"/>
       <c r="V353" s="189"/>
@@ -48855,10 +48899,12 @@
       <c r="X353" s="189"/>
       <c r="Y353" s="189"/>
       <c r="Z353" s="190"/>
-      <c r="AA353" s="112"/>
-      <c r="AB353" s="112"/>
-      <c r="AC353" s="112"/>
-      <c r="AD353" s="112"/>
+      <c r="AA353" s="283" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB353" s="284"/>
+      <c r="AC353" s="284"/>
+      <c r="AD353" s="284"/>
     </row>
     <row r="354" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B354" s="111"/>
@@ -48886,10 +48932,10 @@
       <c r="X354" s="192"/>
       <c r="Y354" s="192"/>
       <c r="Z354" s="193"/>
-      <c r="AA354" s="112"/>
-      <c r="AB354" s="112"/>
-      <c r="AC354" s="112"/>
-      <c r="AD354" s="112"/>
+      <c r="AA354" s="284"/>
+      <c r="AB354" s="284"/>
+      <c r="AC354" s="284"/>
+      <c r="AD354" s="284"/>
     </row>
     <row r="355" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B355" s="111"/>
@@ -48917,10 +48963,10 @@
       <c r="X355" s="192"/>
       <c r="Y355" s="192"/>
       <c r="Z355" s="193"/>
-      <c r="AA355" s="112"/>
-      <c r="AB355" s="112"/>
-      <c r="AC355" s="112"/>
-      <c r="AD355" s="112"/>
+      <c r="AA355" s="284"/>
+      <c r="AB355" s="284"/>
+      <c r="AC355" s="284"/>
+      <c r="AD355" s="284"/>
     </row>
     <row r="356" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B356" s="111"/>
@@ -48948,10 +48994,10 @@
       <c r="X356" s="192"/>
       <c r="Y356" s="192"/>
       <c r="Z356" s="193"/>
-      <c r="AA356" s="112"/>
-      <c r="AB356" s="112"/>
-      <c r="AC356" s="112"/>
-      <c r="AD356" s="112"/>
+      <c r="AA356" s="284"/>
+      <c r="AB356" s="284"/>
+      <c r="AC356" s="284"/>
+      <c r="AD356" s="284"/>
     </row>
     <row r="357" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B357" s="111"/>
@@ -48979,10 +49025,10 @@
       <c r="X357" s="192"/>
       <c r="Y357" s="192"/>
       <c r="Z357" s="193"/>
-      <c r="AA357" s="112"/>
-      <c r="AB357" s="112"/>
-      <c r="AC357" s="112"/>
-      <c r="AD357" s="112"/>
+      <c r="AA357" s="284"/>
+      <c r="AB357" s="284"/>
+      <c r="AC357" s="284"/>
+      <c r="AD357" s="284"/>
     </row>
     <row r="358" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B358" s="111"/>
@@ -49010,10 +49056,10 @@
       <c r="X358" s="192"/>
       <c r="Y358" s="192"/>
       <c r="Z358" s="193"/>
-      <c r="AA358" s="112"/>
-      <c r="AB358" s="112"/>
-      <c r="AC358" s="112"/>
-      <c r="AD358" s="112"/>
+      <c r="AA358" s="284"/>
+      <c r="AB358" s="284"/>
+      <c r="AC358" s="284"/>
+      <c r="AD358" s="284"/>
     </row>
     <row r="359" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B359" s="111"/>
@@ -49041,10 +49087,10 @@
       <c r="X359" s="192"/>
       <c r="Y359" s="192"/>
       <c r="Z359" s="193"/>
-      <c r="AA359" s="112"/>
-      <c r="AB359" s="112"/>
-      <c r="AC359" s="112"/>
-      <c r="AD359" s="112"/>
+      <c r="AA359" s="284"/>
+      <c r="AB359" s="284"/>
+      <c r="AC359" s="284"/>
+      <c r="AD359" s="284"/>
     </row>
     <row r="360" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B360" s="111"/>
@@ -49072,10 +49118,10 @@
       <c r="X360" s="192"/>
       <c r="Y360" s="192"/>
       <c r="Z360" s="193"/>
-      <c r="AA360" s="112"/>
-      <c r="AB360" s="112"/>
-      <c r="AC360" s="112"/>
-      <c r="AD360" s="112"/>
+      <c r="AA360" s="284"/>
+      <c r="AB360" s="284"/>
+      <c r="AC360" s="284"/>
+      <c r="AD360" s="284"/>
     </row>
     <row r="361" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B361" s="111"/>
@@ -49103,10 +49149,10 @@
       <c r="X361" s="192"/>
       <c r="Y361" s="192"/>
       <c r="Z361" s="193"/>
-      <c r="AA361" s="112"/>
-      <c r="AB361" s="112"/>
-      <c r="AC361" s="112"/>
-      <c r="AD361" s="112"/>
+      <c r="AA361" s="284"/>
+      <c r="AB361" s="284"/>
+      <c r="AC361" s="284"/>
+      <c r="AD361" s="284"/>
     </row>
     <row r="362" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B362" s="111"/>
@@ -49134,143 +49180,469 @@
       <c r="X362" s="195"/>
       <c r="Y362" s="195"/>
       <c r="Z362" s="196"/>
-      <c r="AA362" s="112"/>
-      <c r="AB362" s="112"/>
-      <c r="AC362" s="112"/>
-      <c r="AD362" s="112"/>
-    </row>
-    <row r="376" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA376" s="11"/>
-    </row>
-    <row r="377" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA377" s="11"/>
+      <c r="AA362" s="284"/>
+      <c r="AB362" s="284"/>
+      <c r="AC362" s="284"/>
+      <c r="AD362" s="284"/>
+    </row>
+    <row r="363" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C363" s="234" t="s">
+        <v>58</v>
+      </c>
+      <c r="D363" s="234"/>
+      <c r="E363" s="234"/>
+      <c r="F363" s="234"/>
+      <c r="G363" s="234"/>
+      <c r="H363" s="234"/>
+      <c r="I363" s="234"/>
+      <c r="J363" s="234"/>
+      <c r="K363" s="112"/>
+      <c r="L363" s="112"/>
+      <c r="M363" s="112"/>
+      <c r="N363" s="112"/>
+      <c r="O363" s="112"/>
+      <c r="P363" s="112"/>
+      <c r="Q363" s="112"/>
+      <c r="R363" s="112"/>
+      <c r="S363" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="T363" s="189"/>
+      <c r="U363" s="189"/>
+      <c r="V363" s="189"/>
+      <c r="W363" s="189"/>
+      <c r="X363" s="189"/>
+      <c r="Y363" s="189"/>
+      <c r="Z363" s="190"/>
+      <c r="AA363" s="112"/>
+      <c r="AB363" s="112"/>
+      <c r="AC363" s="112"/>
+      <c r="AD363" s="112"/>
+    </row>
+    <row r="364" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B364" s="111"/>
+      <c r="C364" s="234"/>
+      <c r="D364" s="234"/>
+      <c r="E364" s="234"/>
+      <c r="F364" s="234"/>
+      <c r="G364" s="234"/>
+      <c r="H364" s="234"/>
+      <c r="I364" s="234"/>
+      <c r="J364" s="234"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="112"/>
+      <c r="Q364" s="112"/>
+      <c r="R364" s="112"/>
+      <c r="S364" s="191"/>
+      <c r="T364" s="192"/>
+      <c r="U364" s="192"/>
+      <c r="V364" s="192"/>
+      <c r="W364" s="192"/>
+      <c r="X364" s="192"/>
+      <c r="Y364" s="192"/>
+      <c r="Z364" s="193"/>
+      <c r="AA364" s="112"/>
+      <c r="AB364" s="112"/>
+      <c r="AC364" s="112"/>
+      <c r="AD364" s="112"/>
+    </row>
+    <row r="365" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B365" s="111"/>
+      <c r="C365" s="234"/>
+      <c r="D365" s="234"/>
+      <c r="E365" s="234"/>
+      <c r="F365" s="234"/>
+      <c r="G365" s="234"/>
+      <c r="H365" s="234"/>
+      <c r="I365" s="234"/>
+      <c r="J365" s="234"/>
+      <c r="K365" s="112"/>
+      <c r="L365" s="112"/>
+      <c r="M365" s="112"/>
+      <c r="N365" s="112"/>
+      <c r="O365" s="112"/>
+      <c r="P365" s="112"/>
+      <c r="Q365" s="112"/>
+      <c r="R365" s="112"/>
+      <c r="S365" s="191"/>
+      <c r="T365" s="192"/>
+      <c r="U365" s="192"/>
+      <c r="V365" s="192"/>
+      <c r="W365" s="192"/>
+      <c r="X365" s="192"/>
+      <c r="Y365" s="192"/>
+      <c r="Z365" s="193"/>
+      <c r="AA365" s="112"/>
+      <c r="AB365" s="112"/>
+      <c r="AC365" s="112"/>
+      <c r="AD365" s="112"/>
+    </row>
+    <row r="366" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B366" s="111"/>
+      <c r="C366" s="234"/>
+      <c r="D366" s="234"/>
+      <c r="E366" s="234"/>
+      <c r="F366" s="234"/>
+      <c r="G366" s="234"/>
+      <c r="H366" s="234"/>
+      <c r="I366" s="234"/>
+      <c r="J366" s="234"/>
+      <c r="K366" s="112"/>
+      <c r="L366" s="112"/>
+      <c r="M366" s="112"/>
+      <c r="N366" s="112"/>
+      <c r="O366" s="112"/>
+      <c r="P366" s="112"/>
+      <c r="Q366" s="112"/>
+      <c r="R366" s="112"/>
+      <c r="S366" s="191"/>
+      <c r="T366" s="192"/>
+      <c r="U366" s="192"/>
+      <c r="V366" s="192"/>
+      <c r="W366" s="192"/>
+      <c r="X366" s="192"/>
+      <c r="Y366" s="192"/>
+      <c r="Z366" s="193"/>
+      <c r="AA366" s="112"/>
+      <c r="AB366" s="112"/>
+      <c r="AC366" s="112"/>
+      <c r="AD366" s="112"/>
+    </row>
+    <row r="367" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B367" s="111"/>
+      <c r="C367" s="234"/>
+      <c r="D367" s="234"/>
+      <c r="E367" s="234"/>
+      <c r="F367" s="234"/>
+      <c r="G367" s="234"/>
+      <c r="H367" s="234"/>
+      <c r="I367" s="234"/>
+      <c r="J367" s="234"/>
+      <c r="K367" s="112"/>
+      <c r="L367" s="112"/>
+      <c r="M367" s="112"/>
+      <c r="N367" s="112"/>
+      <c r="O367" s="112"/>
+      <c r="P367" s="112"/>
+      <c r="Q367" s="112"/>
+      <c r="R367" s="112"/>
+      <c r="S367" s="191"/>
+      <c r="T367" s="192"/>
+      <c r="U367" s="192"/>
+      <c r="V367" s="192"/>
+      <c r="W367" s="192"/>
+      <c r="X367" s="192"/>
+      <c r="Y367" s="192"/>
+      <c r="Z367" s="193"/>
+      <c r="AA367" s="112"/>
+      <c r="AB367" s="112"/>
+      <c r="AC367" s="112"/>
+      <c r="AD367" s="112"/>
+    </row>
+    <row r="368" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B368" s="111"/>
+      <c r="C368" s="234"/>
+      <c r="D368" s="234"/>
+      <c r="E368" s="234"/>
+      <c r="F368" s="234"/>
+      <c r="G368" s="234"/>
+      <c r="H368" s="234"/>
+      <c r="I368" s="234"/>
+      <c r="J368" s="234"/>
+      <c r="K368" s="112"/>
+      <c r="L368" s="112"/>
+      <c r="M368" s="112"/>
+      <c r="N368" s="112"/>
+      <c r="O368" s="112"/>
+      <c r="P368" s="112"/>
+      <c r="Q368" s="112"/>
+      <c r="R368" s="112"/>
+      <c r="S368" s="191"/>
+      <c r="T368" s="192"/>
+      <c r="U368" s="192"/>
+      <c r="V368" s="192"/>
+      <c r="W368" s="192"/>
+      <c r="X368" s="192"/>
+      <c r="Y368" s="192"/>
+      <c r="Z368" s="193"/>
+      <c r="AA368" s="112"/>
+      <c r="AB368" s="112"/>
+      <c r="AC368" s="112"/>
+      <c r="AD368" s="112"/>
+    </row>
+    <row r="369" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B369" s="111"/>
+      <c r="C369" s="234"/>
+      <c r="D369" s="234"/>
+      <c r="E369" s="234"/>
+      <c r="F369" s="234"/>
+      <c r="G369" s="234"/>
+      <c r="H369" s="234"/>
+      <c r="I369" s="234"/>
+      <c r="J369" s="234"/>
+      <c r="K369" s="112"/>
+      <c r="L369" s="112"/>
+      <c r="M369" s="112"/>
+      <c r="N369" s="112"/>
+      <c r="O369" s="112"/>
+      <c r="P369" s="112"/>
+      <c r="Q369" s="112"/>
+      <c r="R369" s="112"/>
+      <c r="S369" s="191"/>
+      <c r="T369" s="192"/>
+      <c r="U369" s="192"/>
+      <c r="V369" s="192"/>
+      <c r="W369" s="192"/>
+      <c r="X369" s="192"/>
+      <c r="Y369" s="192"/>
+      <c r="Z369" s="193"/>
+      <c r="AA369" s="112"/>
+      <c r="AB369" s="112"/>
+      <c r="AC369" s="112"/>
+      <c r="AD369" s="112"/>
+    </row>
+    <row r="370" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B370" s="111"/>
+      <c r="C370" s="234"/>
+      <c r="D370" s="234"/>
+      <c r="E370" s="234"/>
+      <c r="F370" s="234"/>
+      <c r="G370" s="234"/>
+      <c r="H370" s="234"/>
+      <c r="I370" s="234"/>
+      <c r="J370" s="234"/>
+      <c r="K370" s="112"/>
+      <c r="L370" s="112"/>
+      <c r="M370" s="112"/>
+      <c r="N370" s="112"/>
+      <c r="O370" s="112"/>
+      <c r="P370" s="112"/>
+      <c r="Q370" s="112"/>
+      <c r="R370" s="112"/>
+      <c r="S370" s="191"/>
+      <c r="T370" s="192"/>
+      <c r="U370" s="192"/>
+      <c r="V370" s="192"/>
+      <c r="W370" s="192"/>
+      <c r="X370" s="192"/>
+      <c r="Y370" s="192"/>
+      <c r="Z370" s="193"/>
+      <c r="AA370" s="112"/>
+      <c r="AB370" s="112"/>
+      <c r="AC370" s="112"/>
+      <c r="AD370" s="112"/>
+    </row>
+    <row r="371" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B371" s="111"/>
+      <c r="C371" s="234"/>
+      <c r="D371" s="234"/>
+      <c r="E371" s="234"/>
+      <c r="F371" s="234"/>
+      <c r="G371" s="234"/>
+      <c r="H371" s="234"/>
+      <c r="I371" s="234"/>
+      <c r="J371" s="234"/>
+      <c r="K371" s="112"/>
+      <c r="L371" s="112"/>
+      <c r="M371" s="112"/>
+      <c r="N371" s="112"/>
+      <c r="O371" s="112"/>
+      <c r="P371" s="112"/>
+      <c r="Q371" s="112"/>
+      <c r="R371" s="112"/>
+      <c r="S371" s="191"/>
+      <c r="T371" s="192"/>
+      <c r="U371" s="192"/>
+      <c r="V371" s="192"/>
+      <c r="W371" s="192"/>
+      <c r="X371" s="192"/>
+      <c r="Y371" s="192"/>
+      <c r="Z371" s="193"/>
+      <c r="AA371" s="112"/>
+      <c r="AB371" s="112"/>
+      <c r="AC371" s="112"/>
+      <c r="AD371" s="112"/>
+    </row>
+    <row r="372" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B372" s="111"/>
+      <c r="C372" s="234"/>
+      <c r="D372" s="234"/>
+      <c r="E372" s="234"/>
+      <c r="F372" s="234"/>
+      <c r="G372" s="234"/>
+      <c r="H372" s="234"/>
+      <c r="I372" s="234"/>
+      <c r="J372" s="234"/>
+      <c r="K372" s="112"/>
+      <c r="L372" s="112"/>
+      <c r="M372" s="112"/>
+      <c r="N372" s="112"/>
+      <c r="O372" s="112"/>
+      <c r="P372" s="112"/>
+      <c r="Q372" s="112"/>
+      <c r="R372" s="112"/>
+      <c r="S372" s="194"/>
+      <c r="T372" s="195"/>
+      <c r="U372" s="195"/>
+      <c r="V372" s="195"/>
+      <c r="W372" s="195"/>
+      <c r="X372" s="195"/>
+      <c r="Y372" s="195"/>
+      <c r="Z372" s="196"/>
+      <c r="AA372" s="112"/>
+      <c r="AB372" s="112"/>
+      <c r="AC372" s="112"/>
+      <c r="AD372" s="112"/>
+    </row>
+    <row r="386" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA386" s="11"/>
+    </row>
+    <row r="387" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA387" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="184">
+  <mergeCells count="189">
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:J22"/>
+    <mergeCell ref="K13:R22"/>
+    <mergeCell ref="S13:Z22"/>
+    <mergeCell ref="AA13:AD22"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="C3:J12"/>
     <mergeCell ref="K3:R12"/>
     <mergeCell ref="S3:Z12"/>
     <mergeCell ref="AA3:AD12"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="C143:J152"/>
+    <mergeCell ref="K143:R152"/>
+    <mergeCell ref="S143:Z152"/>
+    <mergeCell ref="AA143:AD152"/>
+    <mergeCell ref="S223:Z232"/>
+    <mergeCell ref="AA223:AD232"/>
+    <mergeCell ref="S323:Z332"/>
+    <mergeCell ref="B163:B172"/>
+    <mergeCell ref="C163:J172"/>
+    <mergeCell ref="K163:R172"/>
+    <mergeCell ref="S163:Z172"/>
+    <mergeCell ref="AA163:AD172"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="C153:J162"/>
+    <mergeCell ref="K153:R162"/>
+    <mergeCell ref="S153:Z162"/>
+    <mergeCell ref="AA153:AD162"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:J182"/>
+    <mergeCell ref="K173:R182"/>
+    <mergeCell ref="S173:Z182"/>
+    <mergeCell ref="AA173:AD182"/>
+    <mergeCell ref="B183:B192"/>
+    <mergeCell ref="B363:B372"/>
+    <mergeCell ref="B353:B362"/>
+    <mergeCell ref="C353:J362"/>
+    <mergeCell ref="B343:B352"/>
+    <mergeCell ref="C343:J352"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C363:J372"/>
+    <mergeCell ref="AA293:AD302"/>
+    <mergeCell ref="K273:R282"/>
+    <mergeCell ref="AA273:AD282"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K363:R372"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA363:AD372"/>
+    <mergeCell ref="K353:R362"/>
+    <mergeCell ref="C333:J342"/>
+    <mergeCell ref="C323:J332"/>
+    <mergeCell ref="C293:J302"/>
+    <mergeCell ref="AA353:AD362"/>
+    <mergeCell ref="K343:R352"/>
+    <mergeCell ref="AA343:AD352"/>
+    <mergeCell ref="K333:R342"/>
+    <mergeCell ref="B253:B262"/>
+    <mergeCell ref="C253:J262"/>
+    <mergeCell ref="S363:Z372"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="S233:Z242"/>
+    <mergeCell ref="S243:Z252"/>
+    <mergeCell ref="S253:Z262"/>
+    <mergeCell ref="S263:Z272"/>
+    <mergeCell ref="B233:B242"/>
+    <mergeCell ref="C233:J242"/>
+    <mergeCell ref="K233:R242"/>
+    <mergeCell ref="B263:B272"/>
+    <mergeCell ref="C263:J272"/>
+    <mergeCell ref="K263:R272"/>
+    <mergeCell ref="S273:Z282"/>
+    <mergeCell ref="S283:Z292"/>
+    <mergeCell ref="B243:B252"/>
+    <mergeCell ref="C243:J252"/>
+    <mergeCell ref="K243:R252"/>
+    <mergeCell ref="K293:R302"/>
+    <mergeCell ref="B283:B292"/>
+    <mergeCell ref="C283:J292"/>
+    <mergeCell ref="K283:R292"/>
+    <mergeCell ref="S293:Z302"/>
+    <mergeCell ref="S313:Z322"/>
+    <mergeCell ref="B303:B312"/>
+    <mergeCell ref="AA203:AD212"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="C223:J232"/>
+    <mergeCell ref="K223:R232"/>
+    <mergeCell ref="S343:Z352"/>
+    <mergeCell ref="S353:Z362"/>
+    <mergeCell ref="AA233:AD242"/>
+    <mergeCell ref="AA283:AD292"/>
+    <mergeCell ref="AA263:AD272"/>
+    <mergeCell ref="AA253:AD262"/>
+    <mergeCell ref="AA243:AD252"/>
+    <mergeCell ref="C303:J312"/>
+    <mergeCell ref="K303:R312"/>
+    <mergeCell ref="AA303:AD312"/>
+    <mergeCell ref="S303:Z312"/>
+    <mergeCell ref="K253:R262"/>
+    <mergeCell ref="AA333:AD342"/>
+    <mergeCell ref="K323:R332"/>
+    <mergeCell ref="C273:J282"/>
+    <mergeCell ref="AA323:AD332"/>
+    <mergeCell ref="C313:J322"/>
+    <mergeCell ref="K313:R322"/>
+    <mergeCell ref="AA313:AD322"/>
+    <mergeCell ref="C183:J192"/>
+    <mergeCell ref="K183:R192"/>
+    <mergeCell ref="S183:Z192"/>
+    <mergeCell ref="AA183:AD192"/>
+    <mergeCell ref="B333:B342"/>
+    <mergeCell ref="B323:B332"/>
+    <mergeCell ref="B293:B302"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="C193:J202"/>
+    <mergeCell ref="K193:R202"/>
+    <mergeCell ref="S193:Z202"/>
+    <mergeCell ref="AA193:AD202"/>
+    <mergeCell ref="B213:B222"/>
+    <mergeCell ref="C213:J222"/>
+    <mergeCell ref="K213:R222"/>
+    <mergeCell ref="S213:Z222"/>
+    <mergeCell ref="AA213:AD222"/>
+    <mergeCell ref="S333:Z342"/>
+    <mergeCell ref="B273:B282"/>
+    <mergeCell ref="B313:B322"/>
+    <mergeCell ref="B203:B212"/>
+    <mergeCell ref="C203:J212"/>
+    <mergeCell ref="K203:R212"/>
+    <mergeCell ref="S203:Z212"/>
     <mergeCell ref="B133:B142"/>
     <mergeCell ref="C133:J142"/>
     <mergeCell ref="K133:R142"/>
     <mergeCell ref="S133:Z142"/>
     <mergeCell ref="AA133:AD142"/>
-    <mergeCell ref="S213:Z222"/>
-    <mergeCell ref="AA213:AD222"/>
-    <mergeCell ref="S313:Z322"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="C153:J162"/>
-    <mergeCell ref="K153:R162"/>
-    <mergeCell ref="S153:Z162"/>
-    <mergeCell ref="AA153:AD162"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="C143:J152"/>
-    <mergeCell ref="K143:R152"/>
-    <mergeCell ref="S143:Z152"/>
-    <mergeCell ref="AA143:AD152"/>
-    <mergeCell ref="B163:B172"/>
-    <mergeCell ref="C163:J172"/>
-    <mergeCell ref="K163:R172"/>
-    <mergeCell ref="S163:Z172"/>
-    <mergeCell ref="AA163:AD172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="B353:B362"/>
-    <mergeCell ref="B343:B352"/>
-    <mergeCell ref="C343:J352"/>
-    <mergeCell ref="B333:B342"/>
-    <mergeCell ref="C333:J342"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C353:J362"/>
-    <mergeCell ref="AA283:AD292"/>
-    <mergeCell ref="K263:R272"/>
-    <mergeCell ref="AA263:AD272"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K353:R362"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA353:AD362"/>
-    <mergeCell ref="K343:R352"/>
-    <mergeCell ref="C323:J332"/>
-    <mergeCell ref="C313:J322"/>
-    <mergeCell ref="C283:J292"/>
-    <mergeCell ref="AA343:AD352"/>
-    <mergeCell ref="K333:R342"/>
-    <mergeCell ref="AA333:AD342"/>
-    <mergeCell ref="K323:R332"/>
-    <mergeCell ref="B243:B252"/>
-    <mergeCell ref="C243:J252"/>
-    <mergeCell ref="S353:Z362"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="S223:Z232"/>
-    <mergeCell ref="S233:Z242"/>
-    <mergeCell ref="S243:Z252"/>
-    <mergeCell ref="S253:Z262"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="C223:J232"/>
-    <mergeCell ref="K223:R232"/>
-    <mergeCell ref="B253:B262"/>
-    <mergeCell ref="C253:J262"/>
-    <mergeCell ref="K253:R262"/>
-    <mergeCell ref="S263:Z272"/>
-    <mergeCell ref="S273:Z282"/>
-    <mergeCell ref="B233:B242"/>
-    <mergeCell ref="C233:J242"/>
-    <mergeCell ref="K233:R242"/>
-    <mergeCell ref="K283:R292"/>
-    <mergeCell ref="B273:B282"/>
-    <mergeCell ref="C273:J282"/>
-    <mergeCell ref="K273:R282"/>
-    <mergeCell ref="S283:Z292"/>
-    <mergeCell ref="S303:Z312"/>
-    <mergeCell ref="B293:B302"/>
-    <mergeCell ref="AA193:AD202"/>
-    <mergeCell ref="B213:B222"/>
-    <mergeCell ref="C213:J222"/>
-    <mergeCell ref="K213:R222"/>
-    <mergeCell ref="S333:Z342"/>
-    <mergeCell ref="S343:Z352"/>
-    <mergeCell ref="AA223:AD232"/>
-    <mergeCell ref="AA273:AD282"/>
-    <mergeCell ref="AA253:AD262"/>
-    <mergeCell ref="AA243:AD252"/>
-    <mergeCell ref="AA233:AD242"/>
-    <mergeCell ref="C293:J302"/>
-    <mergeCell ref="K293:R302"/>
-    <mergeCell ref="AA293:AD302"/>
-    <mergeCell ref="S293:Z302"/>
-    <mergeCell ref="K243:R252"/>
-    <mergeCell ref="AA323:AD332"/>
-    <mergeCell ref="K313:R322"/>
-    <mergeCell ref="C263:J272"/>
-    <mergeCell ref="AA313:AD322"/>
-    <mergeCell ref="C303:J312"/>
-    <mergeCell ref="K303:R312"/>
-    <mergeCell ref="AA303:AD312"/>
-    <mergeCell ref="C173:J182"/>
-    <mergeCell ref="K173:R182"/>
-    <mergeCell ref="S173:Z182"/>
-    <mergeCell ref="AA173:AD182"/>
-    <mergeCell ref="B323:B332"/>
-    <mergeCell ref="B313:B322"/>
-    <mergeCell ref="B283:B292"/>
-    <mergeCell ref="B183:B192"/>
-    <mergeCell ref="C183:J192"/>
-    <mergeCell ref="K183:R192"/>
-    <mergeCell ref="S183:Z192"/>
-    <mergeCell ref="AA183:AD192"/>
-    <mergeCell ref="B203:B212"/>
-    <mergeCell ref="C203:J212"/>
-    <mergeCell ref="K203:R212"/>
-    <mergeCell ref="S203:Z212"/>
-    <mergeCell ref="AA203:AD212"/>
-    <mergeCell ref="S323:Z332"/>
-    <mergeCell ref="B263:B272"/>
-    <mergeCell ref="B303:B312"/>
-    <mergeCell ref="B193:B202"/>
-    <mergeCell ref="C193:J202"/>
-    <mergeCell ref="K193:R202"/>
-    <mergeCell ref="S193:Z202"/>
     <mergeCell ref="B123:B132"/>
     <mergeCell ref="C123:J132"/>
     <mergeCell ref="K123:R132"/>
@@ -49306,16 +49678,16 @@
     <mergeCell ref="K63:R72"/>
     <mergeCell ref="S63:Z72"/>
     <mergeCell ref="AA63:AD72"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:J32"/>
+    <mergeCell ref="K23:R32"/>
+    <mergeCell ref="S23:Z32"/>
+    <mergeCell ref="AA23:AD32"/>
     <mergeCell ref="B53:B62"/>
     <mergeCell ref="C53:J62"/>
     <mergeCell ref="K53:R62"/>
     <mergeCell ref="S53:Z62"/>
     <mergeCell ref="AA53:AD62"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:J22"/>
-    <mergeCell ref="K13:R22"/>
-    <mergeCell ref="S13:Z22"/>
-    <mergeCell ref="AA13:AD22"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:J52"/>
     <mergeCell ref="K43:R52"/>
@@ -49326,11 +49698,6 @@
     <mergeCell ref="K33:R42"/>
     <mergeCell ref="S33:Z42"/>
     <mergeCell ref="AA33:AD42"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:J32"/>
-    <mergeCell ref="K23:R32"/>
-    <mergeCell ref="S23:Z32"/>
-    <mergeCell ref="AA23:AD32"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -49343,7 +49710,7 @@
   <dimension ref="B2:AD52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J12"/>
+      <selection activeCell="C23" sqref="C23:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -51008,8 +51375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0283D81C-5BF4-4B1F-AB35-EAE70E0D6A5E}">
   <dimension ref="B2:AD142"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:R32"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -51060,9 +51427,11 @@
     </row>
     <row r="3" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="111" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="234"/>
+        <v>442</v>
+      </c>
+      <c r="C3" s="234" t="s">
+        <v>443</v>
+      </c>
       <c r="D3" s="234"/>
       <c r="E3" s="234"/>
       <c r="F3" s="234"/>
@@ -51071,7 +51440,7 @@
       <c r="I3" s="234"/>
       <c r="J3" s="234"/>
       <c r="K3" s="234" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L3" s="234"/>
       <c r="M3" s="234"/>
@@ -55549,8 +55918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC7859E-68C2-485F-BE62-7F5C013026C3}">
   <dimension ref="B2:AD102"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -55601,10 +55970,10 @@
     </row>
     <row r="3" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" s="161" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D3" s="189"/>
       <c r="E3" s="189"/>
@@ -55614,7 +55983,7 @@
       <c r="I3" s="189"/>
       <c r="J3" s="190"/>
       <c r="K3" s="161" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L3" s="189"/>
       <c r="M3" s="189"/>
@@ -55928,7 +56297,7 @@
       <c r="I13" s="234"/>
       <c r="J13" s="234"/>
       <c r="K13" s="161" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L13" s="189"/>
       <c r="M13" s="189"/>
@@ -55946,7 +56315,7 @@
       <c r="Y13" s="189"/>
       <c r="Z13" s="190"/>
       <c r="AA13" s="311" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AB13" s="312"/>
       <c r="AC13" s="312"/>
@@ -56260,7 +56629,7 @@
       <c r="Y23" s="217"/>
       <c r="Z23" s="218"/>
       <c r="AA23" s="299" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AB23" s="300"/>
       <c r="AC23" s="300"/>
@@ -56550,7 +56919,7 @@
         <v>312</v>
       </c>
       <c r="C33" s="234" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D33" s="234"/>
       <c r="E33" s="234"/>
@@ -58813,10 +59182,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58F8639-C284-4BD2-9EC8-C840B8A159FD}">
-  <dimension ref="B2:AD32"/>
+  <dimension ref="B2:AD42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:R22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13:AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -58867,10 +59236,10 @@
     </row>
     <row r="3" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="111" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C3" s="234" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D3" s="234"/>
       <c r="E3" s="234"/>
@@ -58879,9 +59248,7 @@
       <c r="H3" s="234"/>
       <c r="I3" s="234"/>
       <c r="J3" s="234"/>
-      <c r="K3" s="234" t="s">
-        <v>432</v>
-      </c>
+      <c r="K3" s="234"/>
       <c r="L3" s="234"/>
       <c r="M3" s="234"/>
       <c r="N3" s="234"/>
@@ -58898,7 +59265,7 @@
       <c r="Y3" s="217"/>
       <c r="Z3" s="218"/>
       <c r="AA3" s="247" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="AB3" s="248"/>
       <c r="AC3" s="248"/>
@@ -59185,10 +59552,10 @@
     </row>
     <row r="13" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="111" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C13" s="234" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D13" s="234"/>
       <c r="E13" s="234"/>
@@ -59197,7 +59564,9 @@
       <c r="H13" s="234"/>
       <c r="I13" s="234"/>
       <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
+      <c r="K13" s="234" t="s">
+        <v>431</v>
+      </c>
       <c r="L13" s="234"/>
       <c r="M13" s="234"/>
       <c r="N13" s="234"/>
@@ -59213,12 +59582,12 @@
       <c r="X13" s="217"/>
       <c r="Y13" s="217"/>
       <c r="Z13" s="218"/>
-      <c r="AA13" s="299" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB13" s="300"/>
-      <c r="AC13" s="300"/>
-      <c r="AD13" s="300"/>
+      <c r="AA13" s="247" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB13" s="248"/>
+      <c r="AC13" s="248"/>
+      <c r="AD13" s="248"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" s="111"/>
@@ -59246,10 +59615,10 @@
       <c r="X14" s="220"/>
       <c r="Y14" s="220"/>
       <c r="Z14" s="221"/>
-      <c r="AA14" s="300"/>
-      <c r="AB14" s="300"/>
-      <c r="AC14" s="300"/>
-      <c r="AD14" s="300"/>
+      <c r="AA14" s="248"/>
+      <c r="AB14" s="248"/>
+      <c r="AC14" s="248"/>
+      <c r="AD14" s="248"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B15" s="111"/>
@@ -59277,10 +59646,10 @@
       <c r="X15" s="220"/>
       <c r="Y15" s="220"/>
       <c r="Z15" s="221"/>
-      <c r="AA15" s="300"/>
-      <c r="AB15" s="300"/>
-      <c r="AC15" s="300"/>
-      <c r="AD15" s="300"/>
+      <c r="AA15" s="248"/>
+      <c r="AB15" s="248"/>
+      <c r="AC15" s="248"/>
+      <c r="AD15" s="248"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B16" s="111"/>
@@ -59308,10 +59677,10 @@
       <c r="X16" s="220"/>
       <c r="Y16" s="220"/>
       <c r="Z16" s="221"/>
-      <c r="AA16" s="300"/>
-      <c r="AB16" s="300"/>
-      <c r="AC16" s="300"/>
-      <c r="AD16" s="300"/>
+      <c r="AA16" s="248"/>
+      <c r="AB16" s="248"/>
+      <c r="AC16" s="248"/>
+      <c r="AD16" s="248"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" s="111"/>
@@ -59339,10 +59708,10 @@
       <c r="X17" s="220"/>
       <c r="Y17" s="220"/>
       <c r="Z17" s="221"/>
-      <c r="AA17" s="300"/>
-      <c r="AB17" s="300"/>
-      <c r="AC17" s="300"/>
-      <c r="AD17" s="300"/>
+      <c r="AA17" s="248"/>
+      <c r="AB17" s="248"/>
+      <c r="AC17" s="248"/>
+      <c r="AD17" s="248"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B18" s="111"/>
@@ -59370,10 +59739,10 @@
       <c r="X18" s="220"/>
       <c r="Y18" s="220"/>
       <c r="Z18" s="221"/>
-      <c r="AA18" s="300"/>
-      <c r="AB18" s="300"/>
-      <c r="AC18" s="300"/>
-      <c r="AD18" s="300"/>
+      <c r="AA18" s="248"/>
+      <c r="AB18" s="248"/>
+      <c r="AC18" s="248"/>
+      <c r="AD18" s="248"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B19" s="111"/>
@@ -59401,10 +59770,10 @@
       <c r="X19" s="220"/>
       <c r="Y19" s="220"/>
       <c r="Z19" s="221"/>
-      <c r="AA19" s="300"/>
-      <c r="AB19" s="300"/>
-      <c r="AC19" s="300"/>
-      <c r="AD19" s="300"/>
+      <c r="AA19" s="248"/>
+      <c r="AB19" s="248"/>
+      <c r="AC19" s="248"/>
+      <c r="AD19" s="248"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B20" s="111"/>
@@ -59432,10 +59801,10 @@
       <c r="X20" s="220"/>
       <c r="Y20" s="220"/>
       <c r="Z20" s="221"/>
-      <c r="AA20" s="300"/>
-      <c r="AB20" s="300"/>
-      <c r="AC20" s="300"/>
-      <c r="AD20" s="300"/>
+      <c r="AA20" s="248"/>
+      <c r="AB20" s="248"/>
+      <c r="AC20" s="248"/>
+      <c r="AD20" s="248"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B21" s="111"/>
@@ -59463,10 +59832,10 @@
       <c r="X21" s="220"/>
       <c r="Y21" s="220"/>
       <c r="Z21" s="221"/>
-      <c r="AA21" s="300"/>
-      <c r="AB21" s="300"/>
-      <c r="AC21" s="300"/>
-      <c r="AD21" s="300"/>
+      <c r="AA21" s="248"/>
+      <c r="AB21" s="248"/>
+      <c r="AC21" s="248"/>
+      <c r="AD21" s="248"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B22" s="111"/>
@@ -59494,17 +59863,17 @@
       <c r="X22" s="223"/>
       <c r="Y22" s="223"/>
       <c r="Z22" s="224"/>
-      <c r="AA22" s="300"/>
-      <c r="AB22" s="300"/>
-      <c r="AC22" s="300"/>
-      <c r="AD22" s="300"/>
+      <c r="AA22" s="248"/>
+      <c r="AB22" s="248"/>
+      <c r="AC22" s="248"/>
+      <c r="AD22" s="248"/>
     </row>
     <row r="23" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="111" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C23" s="234" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D23" s="234"/>
       <c r="E23" s="234"/>
@@ -59513,9 +59882,7 @@
       <c r="H23" s="234"/>
       <c r="I23" s="234"/>
       <c r="J23" s="234"/>
-      <c r="K23" s="234" t="s">
-        <v>409</v>
-      </c>
+      <c r="K23" s="234"/>
       <c r="L23" s="234"/>
       <c r="M23" s="234"/>
       <c r="N23" s="234"/>
@@ -59531,10 +59898,12 @@
       <c r="X23" s="217"/>
       <c r="Y23" s="217"/>
       <c r="Z23" s="218"/>
-      <c r="AA23" s="297"/>
-      <c r="AB23" s="298"/>
-      <c r="AC23" s="298"/>
-      <c r="AD23" s="298"/>
+      <c r="AA23" s="299" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB23" s="300"/>
+      <c r="AC23" s="300"/>
+      <c r="AD23" s="300"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B24" s="111"/>
@@ -59562,10 +59931,10 @@
       <c r="X24" s="220"/>
       <c r="Y24" s="220"/>
       <c r="Z24" s="221"/>
-      <c r="AA24" s="298"/>
-      <c r="AB24" s="298"/>
-      <c r="AC24" s="298"/>
-      <c r="AD24" s="298"/>
+      <c r="AA24" s="300"/>
+      <c r="AB24" s="300"/>
+      <c r="AC24" s="300"/>
+      <c r="AD24" s="300"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B25" s="111"/>
@@ -59593,10 +59962,10 @@
       <c r="X25" s="220"/>
       <c r="Y25" s="220"/>
       <c r="Z25" s="221"/>
-      <c r="AA25" s="298"/>
-      <c r="AB25" s="298"/>
-      <c r="AC25" s="298"/>
-      <c r="AD25" s="298"/>
+      <c r="AA25" s="300"/>
+      <c r="AB25" s="300"/>
+      <c r="AC25" s="300"/>
+      <c r="AD25" s="300"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B26" s="111"/>
@@ -59624,10 +59993,10 @@
       <c r="X26" s="220"/>
       <c r="Y26" s="220"/>
       <c r="Z26" s="221"/>
-      <c r="AA26" s="298"/>
-      <c r="AB26" s="298"/>
-      <c r="AC26" s="298"/>
-      <c r="AD26" s="298"/>
+      <c r="AA26" s="300"/>
+      <c r="AB26" s="300"/>
+      <c r="AC26" s="300"/>
+      <c r="AD26" s="300"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B27" s="111"/>
@@ -59655,10 +60024,10 @@
       <c r="X27" s="220"/>
       <c r="Y27" s="220"/>
       <c r="Z27" s="221"/>
-      <c r="AA27" s="298"/>
-      <c r="AB27" s="298"/>
-      <c r="AC27" s="298"/>
-      <c r="AD27" s="298"/>
+      <c r="AA27" s="300"/>
+      <c r="AB27" s="300"/>
+      <c r="AC27" s="300"/>
+      <c r="AD27" s="300"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B28" s="111"/>
@@ -59686,10 +60055,10 @@
       <c r="X28" s="220"/>
       <c r="Y28" s="220"/>
       <c r="Z28" s="221"/>
-      <c r="AA28" s="298"/>
-      <c r="AB28" s="298"/>
-      <c r="AC28" s="298"/>
-      <c r="AD28" s="298"/>
+      <c r="AA28" s="300"/>
+      <c r="AB28" s="300"/>
+      <c r="AC28" s="300"/>
+      <c r="AD28" s="300"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B29" s="111"/>
@@ -59717,10 +60086,10 @@
       <c r="X29" s="220"/>
       <c r="Y29" s="220"/>
       <c r="Z29" s="221"/>
-      <c r="AA29" s="298"/>
-      <c r="AB29" s="298"/>
-      <c r="AC29" s="298"/>
-      <c r="AD29" s="298"/>
+      <c r="AA29" s="300"/>
+      <c r="AB29" s="300"/>
+      <c r="AC29" s="300"/>
+      <c r="AD29" s="300"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B30" s="111"/>
@@ -59748,10 +60117,10 @@
       <c r="X30" s="220"/>
       <c r="Y30" s="220"/>
       <c r="Z30" s="221"/>
-      <c r="AA30" s="298"/>
-      <c r="AB30" s="298"/>
-      <c r="AC30" s="298"/>
-      <c r="AD30" s="298"/>
+      <c r="AA30" s="300"/>
+      <c r="AB30" s="300"/>
+      <c r="AC30" s="300"/>
+      <c r="AD30" s="300"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B31" s="111"/>
@@ -59779,10 +60148,10 @@
       <c r="X31" s="220"/>
       <c r="Y31" s="220"/>
       <c r="Z31" s="221"/>
-      <c r="AA31" s="298"/>
-      <c r="AB31" s="298"/>
-      <c r="AC31" s="298"/>
-      <c r="AD31" s="298"/>
+      <c r="AA31" s="300"/>
+      <c r="AB31" s="300"/>
+      <c r="AC31" s="300"/>
+      <c r="AD31" s="300"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B32" s="111"/>
@@ -59810,32 +60179,353 @@
       <c r="X32" s="223"/>
       <c r="Y32" s="223"/>
       <c r="Z32" s="224"/>
-      <c r="AA32" s="298"/>
-      <c r="AB32" s="298"/>
-      <c r="AC32" s="298"/>
-      <c r="AD32" s="298"/>
+      <c r="AA32" s="300"/>
+      <c r="AB32" s="300"/>
+      <c r="AC32" s="300"/>
+      <c r="AD32" s="300"/>
+    </row>
+    <row r="33" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="111" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" s="234" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="234"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="234"/>
+      <c r="H33" s="234"/>
+      <c r="I33" s="234"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="234" t="s">
+        <v>409</v>
+      </c>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
+      <c r="N33" s="234"/>
+      <c r="O33" s="234"/>
+      <c r="P33" s="234"/>
+      <c r="Q33" s="234"/>
+      <c r="R33" s="234"/>
+      <c r="S33" s="216"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="218"/>
+      <c r="AA33" s="297"/>
+      <c r="AB33" s="298"/>
+      <c r="AC33" s="298"/>
+      <c r="AD33" s="298"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B34" s="111"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="234"/>
+      <c r="P34" s="234"/>
+      <c r="Q34" s="234"/>
+      <c r="R34" s="234"/>
+      <c r="S34" s="219"/>
+      <c r="T34" s="220"/>
+      <c r="U34" s="220"/>
+      <c r="V34" s="220"/>
+      <c r="W34" s="220"/>
+      <c r="X34" s="220"/>
+      <c r="Y34" s="220"/>
+      <c r="Z34" s="221"/>
+      <c r="AA34" s="298"/>
+      <c r="AB34" s="298"/>
+      <c r="AC34" s="298"/>
+      <c r="AD34" s="298"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B35" s="111"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="234"/>
+      <c r="H35" s="234"/>
+      <c r="I35" s="234"/>
+      <c r="J35" s="234"/>
+      <c r="K35" s="234"/>
+      <c r="L35" s="234"/>
+      <c r="M35" s="234"/>
+      <c r="N35" s="234"/>
+      <c r="O35" s="234"/>
+      <c r="P35" s="234"/>
+      <c r="Q35" s="234"/>
+      <c r="R35" s="234"/>
+      <c r="S35" s="219"/>
+      <c r="T35" s="220"/>
+      <c r="U35" s="220"/>
+      <c r="V35" s="220"/>
+      <c r="W35" s="220"/>
+      <c r="X35" s="220"/>
+      <c r="Y35" s="220"/>
+      <c r="Z35" s="221"/>
+      <c r="AA35" s="298"/>
+      <c r="AB35" s="298"/>
+      <c r="AC35" s="298"/>
+      <c r="AD35" s="298"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B36" s="111"/>
+      <c r="C36" s="234"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="234"/>
+      <c r="H36" s="234"/>
+      <c r="I36" s="234"/>
+      <c r="J36" s="234"/>
+      <c r="K36" s="234"/>
+      <c r="L36" s="234"/>
+      <c r="M36" s="234"/>
+      <c r="N36" s="234"/>
+      <c r="O36" s="234"/>
+      <c r="P36" s="234"/>
+      <c r="Q36" s="234"/>
+      <c r="R36" s="234"/>
+      <c r="S36" s="219"/>
+      <c r="T36" s="220"/>
+      <c r="U36" s="220"/>
+      <c r="V36" s="220"/>
+      <c r="W36" s="220"/>
+      <c r="X36" s="220"/>
+      <c r="Y36" s="220"/>
+      <c r="Z36" s="221"/>
+      <c r="AA36" s="298"/>
+      <c r="AB36" s="298"/>
+      <c r="AC36" s="298"/>
+      <c r="AD36" s="298"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B37" s="111"/>
+      <c r="C37" s="234"/>
+      <c r="D37" s="234"/>
+      <c r="E37" s="234"/>
+      <c r="F37" s="234"/>
+      <c r="G37" s="234"/>
+      <c r="H37" s="234"/>
+      <c r="I37" s="234"/>
+      <c r="J37" s="234"/>
+      <c r="K37" s="234"/>
+      <c r="L37" s="234"/>
+      <c r="M37" s="234"/>
+      <c r="N37" s="234"/>
+      <c r="O37" s="234"/>
+      <c r="P37" s="234"/>
+      <c r="Q37" s="234"/>
+      <c r="R37" s="234"/>
+      <c r="S37" s="219"/>
+      <c r="T37" s="220"/>
+      <c r="U37" s="220"/>
+      <c r="V37" s="220"/>
+      <c r="W37" s="220"/>
+      <c r="X37" s="220"/>
+      <c r="Y37" s="220"/>
+      <c r="Z37" s="221"/>
+      <c r="AA37" s="298"/>
+      <c r="AB37" s="298"/>
+      <c r="AC37" s="298"/>
+      <c r="AD37" s="298"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B38" s="111"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="234"/>
+      <c r="F38" s="234"/>
+      <c r="G38" s="234"/>
+      <c r="H38" s="234"/>
+      <c r="I38" s="234"/>
+      <c r="J38" s="234"/>
+      <c r="K38" s="234"/>
+      <c r="L38" s="234"/>
+      <c r="M38" s="234"/>
+      <c r="N38" s="234"/>
+      <c r="O38" s="234"/>
+      <c r="P38" s="234"/>
+      <c r="Q38" s="234"/>
+      <c r="R38" s="234"/>
+      <c r="S38" s="219"/>
+      <c r="T38" s="220"/>
+      <c r="U38" s="220"/>
+      <c r="V38" s="220"/>
+      <c r="W38" s="220"/>
+      <c r="X38" s="220"/>
+      <c r="Y38" s="220"/>
+      <c r="Z38" s="221"/>
+      <c r="AA38" s="298"/>
+      <c r="AB38" s="298"/>
+      <c r="AC38" s="298"/>
+      <c r="AD38" s="298"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B39" s="111"/>
+      <c r="C39" s="234"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="234"/>
+      <c r="F39" s="234"/>
+      <c r="G39" s="234"/>
+      <c r="H39" s="234"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
+      <c r="K39" s="234"/>
+      <c r="L39" s="234"/>
+      <c r="M39" s="234"/>
+      <c r="N39" s="234"/>
+      <c r="O39" s="234"/>
+      <c r="P39" s="234"/>
+      <c r="Q39" s="234"/>
+      <c r="R39" s="234"/>
+      <c r="S39" s="219"/>
+      <c r="T39" s="220"/>
+      <c r="U39" s="220"/>
+      <c r="V39" s="220"/>
+      <c r="W39" s="220"/>
+      <c r="X39" s="220"/>
+      <c r="Y39" s="220"/>
+      <c r="Z39" s="221"/>
+      <c r="AA39" s="298"/>
+      <c r="AB39" s="298"/>
+      <c r="AC39" s="298"/>
+      <c r="AD39" s="298"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B40" s="111"/>
+      <c r="C40" s="234"/>
+      <c r="D40" s="234"/>
+      <c r="E40" s="234"/>
+      <c r="F40" s="234"/>
+      <c r="G40" s="234"/>
+      <c r="H40" s="234"/>
+      <c r="I40" s="234"/>
+      <c r="J40" s="234"/>
+      <c r="K40" s="234"/>
+      <c r="L40" s="234"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="234"/>
+      <c r="O40" s="234"/>
+      <c r="P40" s="234"/>
+      <c r="Q40" s="234"/>
+      <c r="R40" s="234"/>
+      <c r="S40" s="219"/>
+      <c r="T40" s="220"/>
+      <c r="U40" s="220"/>
+      <c r="V40" s="220"/>
+      <c r="W40" s="220"/>
+      <c r="X40" s="220"/>
+      <c r="Y40" s="220"/>
+      <c r="Z40" s="221"/>
+      <c r="AA40" s="298"/>
+      <c r="AB40" s="298"/>
+      <c r="AC40" s="298"/>
+      <c r="AD40" s="298"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B41" s="111"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="234"/>
+      <c r="F41" s="234"/>
+      <c r="G41" s="234"/>
+      <c r="H41" s="234"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="234"/>
+      <c r="K41" s="234"/>
+      <c r="L41" s="234"/>
+      <c r="M41" s="234"/>
+      <c r="N41" s="234"/>
+      <c r="O41" s="234"/>
+      <c r="P41" s="234"/>
+      <c r="Q41" s="234"/>
+      <c r="R41" s="234"/>
+      <c r="S41" s="219"/>
+      <c r="T41" s="220"/>
+      <c r="U41" s="220"/>
+      <c r="V41" s="220"/>
+      <c r="W41" s="220"/>
+      <c r="X41" s="220"/>
+      <c r="Y41" s="220"/>
+      <c r="Z41" s="221"/>
+      <c r="AA41" s="298"/>
+      <c r="AB41" s="298"/>
+      <c r="AC41" s="298"/>
+      <c r="AD41" s="298"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B42" s="111"/>
+      <c r="C42" s="234"/>
+      <c r="D42" s="234"/>
+      <c r="E42" s="234"/>
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="234"/>
+      <c r="J42" s="234"/>
+      <c r="K42" s="234"/>
+      <c r="L42" s="234"/>
+      <c r="M42" s="234"/>
+      <c r="N42" s="234"/>
+      <c r="O42" s="234"/>
+      <c r="P42" s="234"/>
+      <c r="Q42" s="234"/>
+      <c r="R42" s="234"/>
+      <c r="S42" s="222"/>
+      <c r="T42" s="223"/>
+      <c r="U42" s="223"/>
+      <c r="V42" s="223"/>
+      <c r="W42" s="223"/>
+      <c r="X42" s="223"/>
+      <c r="Y42" s="223"/>
+      <c r="Z42" s="224"/>
+      <c r="AA42" s="298"/>
+      <c r="AB42" s="298"/>
+      <c r="AC42" s="298"/>
+      <c r="AD42" s="298"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:J12"/>
+    <mergeCell ref="K3:R12"/>
     <mergeCell ref="S3:Z12"/>
     <mergeCell ref="AA3:AD12"/>
+    <mergeCell ref="S13:Z22"/>
+    <mergeCell ref="AA13:AD22"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="S2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="S13:Z22"/>
-    <mergeCell ref="AA13:AD22"/>
+    <mergeCell ref="S23:Z32"/>
+    <mergeCell ref="AA23:AD32"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="C33:J42"/>
+    <mergeCell ref="K33:R42"/>
+    <mergeCell ref="S33:Z42"/>
+    <mergeCell ref="AA33:AD42"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:J22"/>
     <mergeCell ref="B23:B32"/>
     <mergeCell ref="C23:J32"/>
     <mergeCell ref="K23:R32"/>
-    <mergeCell ref="S23:Z32"/>
-    <mergeCell ref="AA23:AD32"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="C3:J12"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:J22"/>
     <mergeCell ref="K13:R22"/>
-    <mergeCell ref="K3:R12"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
